--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>Bug Log</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Critical</t>
   </si>
   <si>
-    <t>Resolved</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -113,40 +110,13 @@
     <t>Heatmap</t>
   </si>
   <si>
-    <t>13/10/2017</t>
-  </si>
-  <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>14/10/2017</t>
   </si>
   <si>
     <t>Popular Place</t>
   </si>
   <si>
-    <t>22/10/2017</t>
-  </si>
-  <si>
     <t>Fixed by (PP Team)</t>
-  </si>
-  <si>
-    <t>J &amp; K</t>
-  </si>
-  <si>
-    <t>H &amp; W</t>
-  </si>
-  <si>
-    <t>W &amp; P</t>
-  </si>
-  <si>
-    <t>H &amp; J</t>
-  </si>
-  <si>
-    <t>H &amp; K</t>
-  </si>
-  <si>
-    <t>J &amp; P</t>
   </si>
   <si>
     <t>Final Bug Metric (Points Total)</t>
@@ -161,10 +131,13 @@
     <t>Login page has undefined variable error</t>
   </si>
   <si>
-    <t xml:space="preserve">Login </t>
+    <t>Printed incorrect error message and had undefined variable alerts</t>
   </si>
   <si>
-    <t>Printed incorrect error message and had undefined variable alerts</t>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>MLJX + SZC</t>
   </si>
 </sst>
 </file>
@@ -314,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -404,6 +377,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -964,10 +940,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -981,15 +957,17 @@
         <v>17</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="F3" s="21">
+        <v>3</v>
+      </c>
       <c r="G3" s="29">
         <f>SUM($F3:$F8)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3" s="25" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -1004,15 +982,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
       <c r="G4" s="29"/>
       <c r="H4" s="25"/>
     </row>
@@ -1024,15 +1004,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2</v>
+      </c>
       <c r="G5" s="29"/>
       <c r="H5" s="25"/>
     </row>
@@ -1043,7 +1025,7 @@
       <c r="B6" s="21"/>
       <c r="C6" s="26"/>
       <c r="E6" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="29"/>
@@ -1056,7 +1038,7 @@
       <c r="B7" s="27"/>
       <c r="D7" s="26"/>
       <c r="E7" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="29"/>
@@ -1076,7 +1058,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -1084,7 +1066,7 @@
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="29">
@@ -1104,7 +1086,7 @@
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="29"/>
@@ -1118,7 +1100,7 @@
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="29"/>
@@ -1131,7 +1113,7 @@
       <c r="B12" s="27"/>
       <c r="C12" s="26"/>
       <c r="E12" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="29"/>
@@ -1144,7 +1126,7 @@
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
       <c r="E13" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="29"/>
@@ -1157,7 +1139,7 @@
       <c r="B14" s="27"/>
       <c r="C14" s="26"/>
       <c r="E14" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="29"/>
@@ -1176,14 +1158,14 @@
       <c r="G15" s="29"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
         <v>14</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="26"/>
       <c r="E16" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="29">
@@ -1202,7 +1184,7 @@
       <c r="B17" s="27"/>
       <c r="C17" s="26"/>
       <c r="E17" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="29"/>
@@ -1215,7 +1197,7 @@
       <c r="B18" s="27"/>
       <c r="C18" s="26"/>
       <c r="E18" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="29"/>
@@ -1228,20 +1210,20 @@
       <c r="B19" s="27"/>
       <c r="C19" s="26"/>
       <c r="E19" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="29"/>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>18</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="26"/>
       <c r="E20" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="29">
@@ -1260,7 +1242,7 @@
       <c r="B21" s="27"/>
       <c r="C21" s="26"/>
       <c r="E21" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="29"/>
@@ -1273,7 +1255,7 @@
       <c r="B22" s="27"/>
       <c r="C22" s="26"/>
       <c r="E22" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="29"/>
@@ -6438,7 +6420,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6489,10 +6471,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <f>'Bug Metrics'!$A3</f>
         <v>1</v>
@@ -6510,17 +6492,11 @@
         <v>Successful login with incorrect username(case insensitive) and correct passowrd</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="12">
-        <v>43009</v>
-      </c>
-      <c r="G3" s="12">
-        <v>43009</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -6533,23 +6509,23 @@
       </c>
       <c r="C4" s="9" t="str">
         <f>'Bug Metrics'!$C4</f>
-        <v xml:space="preserve">Login </v>
+        <v>Login (User)</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>'Bug Metrics'!$D4</f>
         <v>Login page has undefined variable error</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="12">
-        <v>43009</v>
-      </c>
-      <c r="G4" s="12">
-        <v>43009</v>
+        <v>37</v>
+      </c>
+      <c r="F4" s="33">
+        <v>43732</v>
+      </c>
+      <c r="G4" s="33">
+        <v>43733</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -6570,19 +6546,13 @@
         <v>Printed incorrect error message and had undefined variable alerts</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="12">
-        <v>43009</v>
-      </c>
-      <c r="G5" s="12">
-        <v>43009</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f>'Bug Metrics'!$A6</f>
         <v>4</v>
@@ -6600,15 +6570,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="12">
-        <v>43009</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>'Bug Metrics'!$A7</f>
         <v>5</v>
@@ -6626,17 +6594,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="12">
-        <v>43009</v>
-      </c>
-      <c r="G7" s="12">
-        <v>43009</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -6656,17 +6618,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="12">
-        <v>43009</v>
-      </c>
-      <c r="G8" s="14">
-        <v>43012</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6686,17 +6642,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="14">
-        <v>43012</v>
-      </c>
-      <c r="G9" s="14">
-        <v>43013</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -6716,17 +6666,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="14">
-        <v>43013</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -6736,24 +6680,18 @@
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="10">
         <f>'Bug Metrics'!$D11</f>
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>37</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -6764,24 +6702,18 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10">
         <f>'Bug Metrics'!$D12</f>
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -6792,24 +6724,18 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10">
         <f>'Bug Metrics'!$D13</f>
         <v>0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -6820,24 +6746,18 @@
         <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10">
         <f>'Bug Metrics'!$D14</f>
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -6848,24 +6768,18 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10">
         <f>'Bug Metrics'!$D15</f>
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -6876,24 +6790,18 @@
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10">
         <f>'Bug Metrics'!$D16</f>
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>39</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -6904,24 +6812,18 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="10">
         <f>'Bug Metrics'!$D17</f>
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>40</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -6932,24 +6834,18 @@
         <v>4</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="10">
         <f>'Bug Metrics'!$D18</f>
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>40</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -6969,11 +6865,9 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F19" s="20"/>
       <c r="G19" s="14"/>
       <c r="H19" s="13"/>
     </row>
@@ -6995,11 +6889,9 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="19"/>
     </row>
@@ -7021,17 +6913,11 @@
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="20">
-        <v>43029</v>
-      </c>
-      <c r="G21" s="20">
-        <v>43029</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -7051,19 +6937,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="20">
-        <v>43029</v>
-      </c>
-      <c r="G22" s="20">
-        <v>43029</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <f>'Bug Metrics'!$A23</f>
         <v>21</v>
@@ -7081,17 +6961,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="20">
-        <v>43029</v>
-      </c>
-      <c r="G23" s="20">
-        <v>43029</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Bug Log</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Successful login with incorrect username(case insensitive) and correct passowrd</t>
   </si>
   <si>
-    <t>Login page has undefined variable error</t>
-  </si>
-  <si>
     <t>Resolved</t>
   </si>
   <si>
@@ -146,6 +143,24 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>Login page has undefined variable 'error'</t>
+  </si>
+  <si>
+    <t>Login page displayed error message "A session had already been started"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biding </t>
+  </si>
+  <si>
+    <t>Biding page displayed syntax error, unexpected '}'</t>
+  </si>
+  <si>
+    <t>Admin(Bootstrap)</t>
+  </si>
+  <si>
+    <t>After browse and improt a zip file, page displayed synatx error message. Unexpected '}', expecting ';'.</t>
   </si>
 </sst>
 </file>
@@ -521,6 +536,49 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4466667</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>257071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="3048000"/>
+          <a:ext cx="4466667" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -899,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -975,7 +1033,7 @@
       </c>
       <c r="G3" s="30">
         <f>SUM($F3:$F8)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" s="25" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -993,7 +1051,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>25</v>
@@ -1003,20 +1061,27 @@
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="E5" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="25"/>
@@ -1025,12 +1090,21 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
       <c r="G6" s="30"/>
       <c r="H6" s="25"/>
     </row>
@@ -1038,7 +1112,12 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="D7" s="26"/>
       <c r="E7" s="21" t="s">
         <v>25</v>
@@ -1109,12 +1188,17 @@
       <c r="G11" s="30"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>10</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
+      <c r="C12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="E12" s="21" t="s">
         <v>29</v>
       </c>
@@ -6415,6 +6499,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6422,8 +6507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6495,7 +6580,7 @@
         <v>Successful login with incorrect username(case insensitive) and correct passowrd</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F3" s="29">
         <v>43732</v>
@@ -6518,10 +6603,10 @@
       </c>
       <c r="D4" s="10" t="str">
         <f>'Bug Metrics'!$D4</f>
-        <v>Login page has undefined variable error</v>
+        <v>Login page has undefined variable 'error'</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="29">
         <v>43732</v>
@@ -6530,7 +6615,7 @@
         <v>43733</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -6540,15 +6625,15 @@
       </c>
       <c r="B5" s="9">
         <f>'Bug Metrics'!$B5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="str">
         <f>'Bug Metrics'!$C5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
+        <v>Login (User)</v>
+      </c>
+      <c r="D5" s="10" t="str">
         <f>'Bug Metrics'!$D5</f>
-        <v>0</v>
+        <v>Login page displayed error message "A session had already been started"</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>26</v>
@@ -6564,15 +6649,15 @@
       </c>
       <c r="B6" s="9">
         <f>'Bug Metrics'!$B6</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="str">
         <f>'Bug Metrics'!$C6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
+        <v xml:space="preserve">Biding </v>
+      </c>
+      <c r="D6" s="10" t="str">
         <f>'Bug Metrics'!$D6</f>
-        <v>0</v>
+        <v>Biding page displayed syntax error, unexpected '}'</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>26</v>
@@ -6588,11 +6673,11 @@
       </c>
       <c r="B7" s="9">
         <f>'Bug Metrics'!$B7</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="str">
         <f>'Bug Metrics'!$C7</f>
-        <v>0</v>
+        <v xml:space="preserve">Biding </v>
       </c>
       <c r="D7" s="10">
         <f>'Bug Metrics'!$D7</f>
@@ -6709,9 +6794,9 @@
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="10" t="str">
         <f>'Bug Metrics'!$D12</f>
-        <v>0</v>
+        <v>After browse and improt a zip file, page displayed synatx error message. Unexpected '}', expecting ';'.</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>26</v>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>Bug Log</t>
   </si>
@@ -112,16 +112,7 @@
     <t>Unresolved</t>
   </si>
   <si>
-    <t>Bootstrap</t>
-  </si>
-  <si>
-    <t>Heatmap</t>
-  </si>
-  <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Popular Place</t>
   </si>
   <si>
     <t>Fixed by (PP Team)</t>
@@ -161,6 +152,9 @@
   </si>
   <si>
     <t>After browse and improt a zip file, page displayed synatx error message. Unexpected '}', expecting ';'.</t>
+  </si>
+  <si>
+    <t>When importing a zip file with missing student.csv, it gave warning of  'invalid argument supplied for foreach()' .</t>
   </si>
 </sst>
 </file>
@@ -310,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -354,9 +348,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -534,49 +525,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4466667</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>257071</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="3048000"/>
-          <a:ext cx="4466667" cy="828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,7 +827,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -955,5537 +903,5516 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="74.5703125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="22" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="22"/>
+    <col min="1" max="1" width="10.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="74.5703125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>33</v>
+      <c r="G2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="D3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="20">
         <v>2</v>
       </c>
-      <c r="G3" s="30">
-        <f>SUM($F3:$F8)</f>
+      <c r="G3" s="29">
+        <f>SUM($F3:$F6)</f>
         <v>5</v>
       </c>
-      <c r="H3" s="25" t="str">
+      <c r="H3" s="24" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!B7,Instructions!B8)</f>
         <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F6" s="20">
         <v>1</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="25" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>7</v>
+      </c>
+      <c r="B7" s="26">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <f>SUM(F7:F13)</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="24" t="str">
+        <f xml:space="preserve"> IF(G7&lt;10,Instructions!B7,Instructions!B8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>8</v>
+      </c>
+      <c r="B8" s="26">
+        <v>2</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="20">
+        <v>2</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>9</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>10</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="E10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>11</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="E11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>12</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="E12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>13</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="E13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>14</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="E14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="29">
+        <f>SUM(F14:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="24" t="str">
+        <f xml:space="preserve"> IF(G14&lt;10,Instructions!B7,Instructions!B8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>15</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25"/>
+      <c r="E15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>16</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
+      <c r="E16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>17</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
+      <c r="E17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>18</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="E18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="29">
+        <f>SUM(F18:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="24" t="str">
+        <f xml:space="preserve"> IF(G18&lt;10,Instructions!B7,Instructions!B8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>19</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="25"/>
+      <c r="E19" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="E20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>21</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="str">
+        <f>IF($E21="Critical", 10, IF($E21="High",5, IF($E21="Low",1,"")))</f>
+        <v/>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>22</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="str">
+        <f>IF($E22="Critical", 10, IF($E22="High",5, IF($E22="Low",1,"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>28</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="str">
+        <f t="shared" ref="F28:F198" si="0">IF($E28="Critical", 10, IF($E28="High",5, IF($E28="Low",1,"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>29</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>30</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
+        <v>31</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
+        <v>32</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="20">
+        <v>33</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="20">
+        <v>34</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="20">
+        <v>35</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>36</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="B37" s="26"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>38</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
         <v>39</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="21">
-        <v>1</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="B39" s="26"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="20">
         <v>40</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="B40" s="26"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="20">
         <v>41</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <v>5</v>
-      </c>
-      <c r="B7" s="27">
-        <v>1</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>6</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
-        <v>7</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="30">
-        <f>SUM(F9:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="25" t="str">
-        <f xml:space="preserve"> IF(G9&lt;10,Instructions!B7,Instructions!B8)</f>
-        <v>Use the planned debugging time in the iteration.</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
-        <v>8</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
-        <v>9</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <v>10</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="26" t="s">
+      <c r="B41" s="26"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
         <v>42</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="B42" s="26"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="20">
         <v>43</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
-        <v>11</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
-      <c r="E13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
-        <v>12</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="26"/>
-      <c r="E14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>13</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="26"/>
-      <c r="E15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
-        <v>14</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="26"/>
-      <c r="E16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="30">
-        <f>SUM(F16:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="25" t="str">
-        <f xml:space="preserve"> IF(G16&lt;10,Instructions!B7,Instructions!B8)</f>
-        <v>Use the planned debugging time in the iteration.</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>15</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="26"/>
-      <c r="E17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
-        <v>16</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="26"/>
-      <c r="E18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
-        <v>17</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="26"/>
-      <c r="E19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
-        <v>18</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="26"/>
-      <c r="E20" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="30">
-        <f>SUM(F20:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="25" t="str">
-        <f xml:space="preserve"> IF(G20&lt;10,Instructions!B7,Instructions!B8)</f>
-        <v>Use the planned debugging time in the iteration.</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="26"/>
-      <c r="E21" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
-        <v>20</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="26"/>
-      <c r="E22" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
-        <v>21</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="26"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="str">
-        <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
-        <v/>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
-        <v>22</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="26"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21" t="str">
-        <f>IF($E24="Critical", 10, IF($E24="High",5, IF($E24="Low",1,"")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
-        <v>28</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21" t="str">
-        <f t="shared" ref="F30:F200" si="0">IF($E30="Critical", 10, IF($E30="High",5, IF($E30="Low",1,"")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
-        <v>29</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
-        <v>30</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
-        <v>31</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
-        <v>32</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
-        <v>33</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
-        <v>34</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="21">
-        <v>35</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="21">
-        <v>36</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
-        <v>37</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="21">
-        <v>38</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
-        <v>39</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
-        <v>40</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="21">
-        <v>41</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21" t="str">
+      <c r="B43" s="26"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="21">
-        <v>42</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21" t="str">
+      <c r="A44" s="20">
+        <v>44</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="21">
-        <v>43</v>
-      </c>
-      <c r="B45" s="27"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21" t="str">
+      <c r="A45" s="20">
+        <v>45</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="21">
-        <v>44</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21" t="str">
+      <c r="A46" s="20">
+        <v>46</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="21">
-        <v>45</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21" t="str">
+      <c r="A47" s="20">
+        <v>47</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="21">
-        <v>46</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21" t="str">
+      <c r="A48" s="20">
+        <v>48</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="21">
-        <v>47</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21" t="str">
+      <c r="A49" s="20">
+        <v>49</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="21">
-        <v>48</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21" t="str">
+      <c r="A50" s="20">
+        <v>50</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="21">
-        <v>49</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21" t="str">
+      <c r="A51" s="20">
+        <v>51</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="21">
-        <v>50</v>
-      </c>
-      <c r="B52" s="27"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21" t="str">
+      <c r="A52" s="20">
+        <v>52</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="21">
-        <v>51</v>
-      </c>
-      <c r="B53" s="27"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21" t="str">
+      <c r="A53" s="20">
+        <v>53</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="21">
-        <v>52</v>
-      </c>
-      <c r="B54" s="27"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21" t="str">
+      <c r="A54" s="20">
+        <v>54</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="21">
-        <v>53</v>
-      </c>
-      <c r="B55" s="27"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21" t="str">
+      <c r="A55" s="20">
+        <v>55</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="21">
-        <v>54</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21" t="str">
+      <c r="A56" s="20">
+        <v>56</v>
+      </c>
+      <c r="B56" s="26"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="21">
-        <v>55</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21" t="str">
+      <c r="A57" s="20">
+        <v>57</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="21">
-        <v>56</v>
-      </c>
-      <c r="B58" s="27"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21" t="str">
+      <c r="A58" s="20">
+        <v>58</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="21">
-        <v>57</v>
-      </c>
-      <c r="B59" s="27"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21" t="str">
+      <c r="A59" s="20">
+        <v>59</v>
+      </c>
+      <c r="B59" s="26"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="21">
-        <v>58</v>
-      </c>
-      <c r="B60" s="27"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21" t="str">
+      <c r="A60" s="20">
+        <v>60</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="21">
-        <v>59</v>
-      </c>
-      <c r="B61" s="27"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21" t="str">
+      <c r="A61" s="20">
+        <v>61</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="21">
-        <v>60</v>
-      </c>
-      <c r="B62" s="27"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21" t="str">
+      <c r="A62" s="20">
+        <v>62</v>
+      </c>
+      <c r="B62" s="26"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="21">
-        <v>61</v>
-      </c>
-      <c r="B63" s="27"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21" t="str">
+      <c r="A63" s="20">
+        <v>63</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="21">
-        <v>62</v>
-      </c>
-      <c r="B64" s="27"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21" t="str">
+      <c r="A64" s="20">
+        <v>64</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="21">
-        <v>63</v>
-      </c>
-      <c r="B65" s="27"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21" t="str">
+      <c r="A65" s="20">
+        <v>65</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="21">
-        <v>64</v>
-      </c>
-      <c r="B66" s="27"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21" t="str">
+      <c r="A66" s="20">
+        <v>66</v>
+      </c>
+      <c r="B66" s="26"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="21">
-        <v>65</v>
-      </c>
-      <c r="B67" s="27"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21" t="str">
+      <c r="A67" s="20">
+        <v>67</v>
+      </c>
+      <c r="B67" s="26"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="21">
-        <v>66</v>
-      </c>
-      <c r="B68" s="27"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21" t="str">
+      <c r="A68" s="20">
+        <v>68</v>
+      </c>
+      <c r="B68" s="26"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="21">
-        <v>67</v>
-      </c>
-      <c r="B69" s="27"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21" t="str">
+      <c r="A69" s="20">
+        <v>69</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="21">
-        <v>68</v>
-      </c>
-      <c r="B70" s="27"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21" t="str">
+      <c r="A70" s="20">
+        <v>70</v>
+      </c>
+      <c r="B70" s="26"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="21">
-        <v>69</v>
-      </c>
-      <c r="B71" s="27"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21" t="str">
+      <c r="A71" s="20">
+        <v>71</v>
+      </c>
+      <c r="B71" s="26"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="21">
-        <v>70</v>
-      </c>
-      <c r="B72" s="27"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21" t="str">
+      <c r="A72" s="20">
+        <v>72</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="21">
-        <v>71</v>
-      </c>
-      <c r="B73" s="27"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21" t="str">
+      <c r="A73" s="20">
+        <v>73</v>
+      </c>
+      <c r="B73" s="26"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="21">
-        <v>72</v>
-      </c>
-      <c r="B74" s="27"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21" t="str">
+      <c r="A74" s="20">
+        <v>74</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="21">
-        <v>73</v>
-      </c>
-      <c r="B75" s="27"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21" t="str">
+      <c r="A75" s="20">
+        <v>75</v>
+      </c>
+      <c r="B75" s="26"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="21">
-        <v>74</v>
-      </c>
-      <c r="B76" s="27"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21" t="str">
+      <c r="A76" s="20">
+        <v>76</v>
+      </c>
+      <c r="B76" s="26"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="21">
-        <v>75</v>
-      </c>
-      <c r="B77" s="27"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21" t="str">
+      <c r="A77" s="20">
+        <v>77</v>
+      </c>
+      <c r="B77" s="26"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21">
-        <v>76</v>
-      </c>
-      <c r="B78" s="27"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21" t="str">
+      <c r="A78" s="20">
+        <v>78</v>
+      </c>
+      <c r="B78" s="26"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21">
-        <v>77</v>
-      </c>
-      <c r="B79" s="27"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21" t="str">
+      <c r="A79" s="20">
+        <v>79</v>
+      </c>
+      <c r="B79" s="26"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="21">
-        <v>78</v>
-      </c>
-      <c r="B80" s="27"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21" t="str">
+      <c r="A80" s="20">
+        <v>80</v>
+      </c>
+      <c r="B80" s="26"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="21">
-        <v>79</v>
-      </c>
-      <c r="B81" s="27"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21" t="str">
+      <c r="A81" s="20">
+        <v>81</v>
+      </c>
+      <c r="B81" s="26"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="21">
-        <v>80</v>
-      </c>
-      <c r="B82" s="27"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21" t="str">
+      <c r="A82" s="20">
+        <v>82</v>
+      </c>
+      <c r="B82" s="26"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="21">
-        <v>81</v>
-      </c>
-      <c r="B83" s="27"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21" t="str">
+      <c r="A83" s="20">
+        <v>83</v>
+      </c>
+      <c r="B83" s="26"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="21">
-        <v>82</v>
-      </c>
-      <c r="B84" s="27"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21" t="str">
+      <c r="A84" s="20">
+        <v>84</v>
+      </c>
+      <c r="B84" s="26"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="21">
-        <v>83</v>
-      </c>
-      <c r="B85" s="27"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21" t="str">
+      <c r="A85" s="20">
+        <v>85</v>
+      </c>
+      <c r="B85" s="26"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="21">
-        <v>84</v>
-      </c>
-      <c r="B86" s="27"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21" t="str">
+      <c r="A86" s="20">
+        <v>86</v>
+      </c>
+      <c r="B86" s="26"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="21">
-        <v>85</v>
-      </c>
-      <c r="B87" s="27"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21" t="str">
+      <c r="A87" s="20">
+        <v>87</v>
+      </c>
+      <c r="B87" s="26"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="21">
-        <v>86</v>
-      </c>
-      <c r="B88" s="27"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21" t="str">
+      <c r="A88" s="20">
+        <v>88</v>
+      </c>
+      <c r="B88" s="26"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="21">
-        <v>87</v>
-      </c>
-      <c r="B89" s="27"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21" t="str">
+      <c r="A89" s="20">
+        <v>89</v>
+      </c>
+      <c r="B89" s="26"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="21">
-        <v>88</v>
-      </c>
-      <c r="B90" s="27"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21" t="str">
+      <c r="A90" s="20">
+        <v>90</v>
+      </c>
+      <c r="B90" s="26"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="21">
-        <v>89</v>
-      </c>
-      <c r="B91" s="27"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21" t="str">
+      <c r="A91" s="20">
+        <v>91</v>
+      </c>
+      <c r="B91" s="26"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="21">
-        <v>90</v>
-      </c>
-      <c r="B92" s="27"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21" t="str">
+      <c r="A92" s="20">
+        <v>92</v>
+      </c>
+      <c r="B92" s="26"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="21">
-        <v>91</v>
-      </c>
-      <c r="B93" s="27"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21" t="str">
+      <c r="A93" s="20">
+        <v>93</v>
+      </c>
+      <c r="B93" s="26"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="21">
-        <v>92</v>
-      </c>
-      <c r="B94" s="27"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21" t="str">
+      <c r="A94" s="20">
+        <v>94</v>
+      </c>
+      <c r="B94" s="26"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="21">
-        <v>93</v>
-      </c>
-      <c r="B95" s="27"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21" t="str">
+      <c r="A95" s="20">
+        <v>95</v>
+      </c>
+      <c r="B95" s="26"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="21">
-        <v>94</v>
-      </c>
-      <c r="B96" s="27"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21" t="str">
+      <c r="A96" s="20">
+        <v>96</v>
+      </c>
+      <c r="B96" s="26"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="21">
-        <v>95</v>
-      </c>
-      <c r="B97" s="27"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21" t="str">
+      <c r="A97" s="20">
+        <v>97</v>
+      </c>
+      <c r="B97" s="26"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="21">
-        <v>96</v>
-      </c>
-      <c r="B98" s="27"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21" t="str">
+      <c r="A98" s="20">
+        <v>98</v>
+      </c>
+      <c r="B98" s="26"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="21">
-        <v>97</v>
-      </c>
-      <c r="B99" s="27"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21" t="str">
+      <c r="A99" s="20">
+        <v>99</v>
+      </c>
+      <c r="B99" s="26"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="21">
-        <v>98</v>
-      </c>
-      <c r="B100" s="27"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21" t="str">
+      <c r="A100" s="20">
+        <v>100</v>
+      </c>
+      <c r="B100" s="26"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="21">
-        <v>99</v>
-      </c>
-      <c r="B101" s="27"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21" t="str">
+      <c r="A101" s="20">
+        <v>101</v>
+      </c>
+      <c r="B101" s="26"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="21">
-        <v>100</v>
-      </c>
-      <c r="B102" s="27"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21" t="str">
+      <c r="A102" s="20">
+        <v>102</v>
+      </c>
+      <c r="B102" s="26"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="21">
-        <v>101</v>
-      </c>
-      <c r="B103" s="27"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21" t="str">
+      <c r="A103" s="20">
+        <v>103</v>
+      </c>
+      <c r="B103" s="26"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="21">
-        <v>102</v>
-      </c>
-      <c r="B104" s="27"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21" t="str">
+      <c r="A104" s="20">
+        <v>104</v>
+      </c>
+      <c r="B104" s="26"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="21">
-        <v>103</v>
-      </c>
-      <c r="B105" s="27"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21" t="str">
+      <c r="A105" s="20">
+        <v>105</v>
+      </c>
+      <c r="B105" s="26"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="21">
-        <v>104</v>
-      </c>
-      <c r="B106" s="27"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21" t="str">
+      <c r="A106" s="20">
+        <v>106</v>
+      </c>
+      <c r="B106" s="26"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="21">
-        <v>105</v>
-      </c>
-      <c r="B107" s="27"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21" t="str">
+      <c r="A107" s="20">
+        <v>107</v>
+      </c>
+      <c r="B107" s="26"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="21">
-        <v>106</v>
-      </c>
-      <c r="B108" s="27"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21" t="str">
+      <c r="A108" s="20">
+        <v>108</v>
+      </c>
+      <c r="B108" s="26"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="21">
-        <v>107</v>
-      </c>
-      <c r="B109" s="27"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21" t="str">
+      <c r="A109" s="20">
+        <v>109</v>
+      </c>
+      <c r="B109" s="26"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="21">
-        <v>108</v>
-      </c>
-      <c r="B110" s="27"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="21" t="str">
+      <c r="A110" s="20">
+        <v>110</v>
+      </c>
+      <c r="B110" s="26"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="21">
-        <v>109</v>
-      </c>
-      <c r="B111" s="27"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21" t="str">
+      <c r="A111" s="20">
+        <v>111</v>
+      </c>
+      <c r="B111" s="26"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="21">
-        <v>110</v>
-      </c>
-      <c r="B112" s="27"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21" t="str">
+      <c r="A112" s="20">
+        <v>112</v>
+      </c>
+      <c r="B112" s="26"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="21">
-        <v>111</v>
-      </c>
-      <c r="B113" s="27"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21" t="str">
+      <c r="A113" s="20">
+        <v>113</v>
+      </c>
+      <c r="B113" s="26"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="21">
-        <v>112</v>
-      </c>
-      <c r="B114" s="27"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21" t="str">
+      <c r="A114" s="20">
+        <v>114</v>
+      </c>
+      <c r="B114" s="26"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="21">
-        <v>113</v>
-      </c>
-      <c r="B115" s="27"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21" t="str">
+      <c r="A115" s="20">
+        <v>115</v>
+      </c>
+      <c r="B115" s="26"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="21">
-        <v>114</v>
-      </c>
-      <c r="B116" s="27"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21" t="str">
+      <c r="A116" s="20">
+        <v>116</v>
+      </c>
+      <c r="B116" s="26"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="21">
-        <v>115</v>
-      </c>
-      <c r="B117" s="27"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21" t="str">
+      <c r="A117" s="20">
+        <v>117</v>
+      </c>
+      <c r="B117" s="26"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="21">
-        <v>116</v>
-      </c>
-      <c r="B118" s="27"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21" t="str">
+      <c r="A118" s="20">
+        <v>118</v>
+      </c>
+      <c r="B118" s="26"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="21">
-        <v>117</v>
-      </c>
-      <c r="B119" s="27"/>
-      <c r="E119" s="21"/>
-      <c r="F119" s="21" t="str">
+      <c r="A119" s="20">
+        <v>119</v>
+      </c>
+      <c r="B119" s="26"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="21">
-        <v>118</v>
-      </c>
-      <c r="B120" s="27"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21" t="str">
+      <c r="A120" s="20">
+        <v>120</v>
+      </c>
+      <c r="B120" s="26"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="21">
-        <v>119</v>
-      </c>
-      <c r="B121" s="27"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21" t="str">
+      <c r="A121" s="20">
+        <v>121</v>
+      </c>
+      <c r="B121" s="26"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="21">
-        <v>120</v>
-      </c>
-      <c r="B122" s="27"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21" t="str">
+      <c r="A122" s="20">
+        <v>122</v>
+      </c>
+      <c r="B122" s="26"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="21">
-        <v>121</v>
-      </c>
-      <c r="B123" s="27"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21" t="str">
+      <c r="A123" s="20">
+        <v>123</v>
+      </c>
+      <c r="B123" s="26"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="21">
-        <v>122</v>
-      </c>
-      <c r="B124" s="27"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21" t="str">
+      <c r="A124" s="20">
+        <v>124</v>
+      </c>
+      <c r="B124" s="26"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="21">
-        <v>123</v>
-      </c>
-      <c r="B125" s="27"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21" t="str">
+      <c r="A125" s="20">
+        <v>125</v>
+      </c>
+      <c r="B125" s="26"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="21">
-        <v>124</v>
-      </c>
-      <c r="B126" s="27"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21" t="str">
+      <c r="A126" s="20">
+        <v>126</v>
+      </c>
+      <c r="B126" s="26"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="21">
-        <v>125</v>
-      </c>
-      <c r="B127" s="27"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21" t="str">
+      <c r="A127" s="20">
+        <v>127</v>
+      </c>
+      <c r="B127" s="26"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="21">
-        <v>126</v>
-      </c>
-      <c r="B128" s="27"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21" t="str">
+      <c r="A128" s="20">
+        <v>128</v>
+      </c>
+      <c r="B128" s="26"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="21">
-        <v>127</v>
-      </c>
-      <c r="B129" s="27"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21" t="str">
+      <c r="A129" s="20">
+        <v>129</v>
+      </c>
+      <c r="B129" s="26"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="21">
-        <v>128</v>
-      </c>
-      <c r="B130" s="27"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21" t="str">
+      <c r="A130" s="20">
+        <v>130</v>
+      </c>
+      <c r="B130" s="26"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="21">
-        <v>129</v>
-      </c>
-      <c r="B131" s="27"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="21" t="str">
+      <c r="A131" s="20">
+        <v>131</v>
+      </c>
+      <c r="B131" s="26"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="21">
-        <v>130</v>
-      </c>
-      <c r="B132" s="27"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21" t="str">
+      <c r="A132" s="20">
+        <v>132</v>
+      </c>
+      <c r="B132" s="26"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="21">
-        <v>131</v>
-      </c>
-      <c r="B133" s="27"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21" t="str">
+      <c r="A133" s="20">
+        <v>133</v>
+      </c>
+      <c r="B133" s="26"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="21">
-        <v>132</v>
-      </c>
-      <c r="B134" s="27"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21" t="str">
+      <c r="A134" s="20">
+        <v>134</v>
+      </c>
+      <c r="B134" s="26"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="21">
-        <v>133</v>
-      </c>
-      <c r="B135" s="27"/>
-      <c r="E135" s="21"/>
-      <c r="F135" s="21" t="str">
+      <c r="A135" s="20">
+        <v>135</v>
+      </c>
+      <c r="B135" s="26"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="21">
-        <v>134</v>
-      </c>
-      <c r="B136" s="27"/>
-      <c r="E136" s="21"/>
-      <c r="F136" s="21" t="str">
+      <c r="A136" s="20">
+        <v>136</v>
+      </c>
+      <c r="B136" s="26"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="21">
-        <v>135</v>
-      </c>
-      <c r="B137" s="27"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21" t="str">
+      <c r="A137" s="20">
+        <v>137</v>
+      </c>
+      <c r="B137" s="26"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="21">
-        <v>136</v>
-      </c>
-      <c r="B138" s="27"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21" t="str">
+      <c r="A138" s="20">
+        <v>138</v>
+      </c>
+      <c r="B138" s="26"/>
+      <c r="E138" s="20"/>
+      <c r="F138" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="21">
-        <v>137</v>
-      </c>
-      <c r="B139" s="27"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21" t="str">
+      <c r="A139" s="20">
+        <v>139</v>
+      </c>
+      <c r="B139" s="26"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="21">
-        <v>138</v>
-      </c>
-      <c r="B140" s="27"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21" t="str">
+      <c r="A140" s="20">
+        <v>140</v>
+      </c>
+      <c r="B140" s="26"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="21">
-        <v>139</v>
-      </c>
-      <c r="B141" s="27"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21" t="str">
+      <c r="A141" s="20">
+        <v>141</v>
+      </c>
+      <c r="B141" s="26"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="21">
-        <v>140</v>
-      </c>
-      <c r="B142" s="27"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21" t="str">
+      <c r="A142" s="20">
+        <v>142</v>
+      </c>
+      <c r="B142" s="26"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="21">
-        <v>141</v>
-      </c>
-      <c r="B143" s="27"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21" t="str">
+      <c r="A143" s="20">
+        <v>143</v>
+      </c>
+      <c r="B143" s="26"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="21">
-        <v>142</v>
-      </c>
-      <c r="B144" s="27"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="21" t="str">
+      <c r="A144" s="20">
+        <v>144</v>
+      </c>
+      <c r="B144" s="26"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="21">
-        <v>143</v>
-      </c>
-      <c r="B145" s="27"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21" t="str">
+      <c r="A145" s="20">
+        <v>145</v>
+      </c>
+      <c r="B145" s="26"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="21">
-        <v>144</v>
-      </c>
-      <c r="B146" s="27"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21" t="str">
+      <c r="A146" s="20">
+        <v>146</v>
+      </c>
+      <c r="B146" s="26"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="21">
-        <v>145</v>
-      </c>
-      <c r="B147" s="27"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21" t="str">
+      <c r="A147" s="20">
+        <v>147</v>
+      </c>
+      <c r="B147" s="26"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="21">
-        <v>146</v>
-      </c>
-      <c r="B148" s="27"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21" t="str">
+      <c r="A148" s="20">
+        <v>148</v>
+      </c>
+      <c r="B148" s="26"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="21">
-        <v>147</v>
-      </c>
-      <c r="B149" s="27"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21" t="str">
+      <c r="A149" s="20">
+        <v>149</v>
+      </c>
+      <c r="B149" s="26"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="21">
-        <v>148</v>
-      </c>
-      <c r="B150" s="27"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21" t="str">
+      <c r="A150" s="20">
+        <v>150</v>
+      </c>
+      <c r="B150" s="26"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="21">
-        <v>149</v>
-      </c>
-      <c r="B151" s="27"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21" t="str">
+      <c r="A151" s="20">
+        <v>151</v>
+      </c>
+      <c r="B151" s="26"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="21">
-        <v>150</v>
-      </c>
-      <c r="B152" s="27"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21" t="str">
+      <c r="A152" s="20">
+        <v>152</v>
+      </c>
+      <c r="B152" s="26"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="21">
-        <v>151</v>
-      </c>
-      <c r="B153" s="27"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21" t="str">
+      <c r="A153" s="20">
+        <v>153</v>
+      </c>
+      <c r="B153" s="26"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="21">
-        <v>152</v>
-      </c>
-      <c r="B154" s="27"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="21" t="str">
+      <c r="A154" s="20">
+        <v>154</v>
+      </c>
+      <c r="B154" s="26"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="21">
-        <v>153</v>
-      </c>
-      <c r="B155" s="27"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21" t="str">
+      <c r="A155" s="20">
+        <v>155</v>
+      </c>
+      <c r="B155" s="26"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="21">
-        <v>154</v>
-      </c>
-      <c r="B156" s="27"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21" t="str">
+      <c r="A156" s="20">
+        <v>156</v>
+      </c>
+      <c r="B156" s="26"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="21">
-        <v>155</v>
-      </c>
-      <c r="B157" s="27"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21" t="str">
+      <c r="A157" s="20">
+        <v>157</v>
+      </c>
+      <c r="B157" s="26"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="21">
-        <v>156</v>
-      </c>
-      <c r="B158" s="27"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21" t="str">
+      <c r="A158" s="20">
+        <v>158</v>
+      </c>
+      <c r="B158" s="26"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="21">
-        <v>157</v>
-      </c>
-      <c r="B159" s="27"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21" t="str">
+      <c r="A159" s="20">
+        <v>159</v>
+      </c>
+      <c r="B159" s="26"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="21">
-        <v>158</v>
-      </c>
-      <c r="B160" s="27"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21" t="str">
+      <c r="A160" s="20">
+        <v>160</v>
+      </c>
+      <c r="B160" s="26"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="21">
-        <v>159</v>
-      </c>
-      <c r="B161" s="27"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21" t="str">
+      <c r="A161" s="20">
+        <v>161</v>
+      </c>
+      <c r="B161" s="26"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="21">
-        <v>160</v>
-      </c>
-      <c r="B162" s="27"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21" t="str">
+      <c r="A162" s="20">
+        <v>162</v>
+      </c>
+      <c r="B162" s="26"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="21">
-        <v>161</v>
-      </c>
-      <c r="B163" s="27"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21" t="str">
+      <c r="A163" s="20">
+        <v>163</v>
+      </c>
+      <c r="B163" s="26"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="21">
-        <v>162</v>
-      </c>
-      <c r="B164" s="27"/>
-      <c r="E164" s="21"/>
-      <c r="F164" s="21" t="str">
+      <c r="A164" s="20">
+        <v>164</v>
+      </c>
+      <c r="B164" s="26"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="21">
-        <v>163</v>
-      </c>
-      <c r="B165" s="27"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21" t="str">
+      <c r="A165" s="20">
+        <v>165</v>
+      </c>
+      <c r="B165" s="26"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="21">
-        <v>164</v>
-      </c>
-      <c r="B166" s="27"/>
-      <c r="E166" s="21"/>
-      <c r="F166" s="21" t="str">
+      <c r="A166" s="20">
+        <v>166</v>
+      </c>
+      <c r="B166" s="26"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="21">
-        <v>165</v>
-      </c>
-      <c r="B167" s="27"/>
-      <c r="E167" s="21"/>
-      <c r="F167" s="21" t="str">
+      <c r="A167" s="20">
+        <v>167</v>
+      </c>
+      <c r="B167" s="26"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="21">
-        <v>166</v>
-      </c>
-      <c r="B168" s="27"/>
-      <c r="E168" s="21"/>
-      <c r="F168" s="21" t="str">
+      <c r="A168" s="20">
+        <v>168</v>
+      </c>
+      <c r="B168" s="26"/>
+      <c r="E168" s="20"/>
+      <c r="F168" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="21">
-        <v>167</v>
-      </c>
-      <c r="B169" s="27"/>
-      <c r="E169" s="21"/>
-      <c r="F169" s="21" t="str">
+      <c r="A169" s="20">
+        <v>169</v>
+      </c>
+      <c r="B169" s="26"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="21">
-        <v>168</v>
-      </c>
-      <c r="B170" s="27"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="21" t="str">
+      <c r="A170" s="20">
+        <v>170</v>
+      </c>
+      <c r="B170" s="26"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="21">
-        <v>169</v>
-      </c>
-      <c r="B171" s="27"/>
-      <c r="E171" s="21"/>
-      <c r="F171" s="21" t="str">
+      <c r="A171" s="20">
+        <v>171</v>
+      </c>
+      <c r="B171" s="26"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="21">
-        <v>170</v>
-      </c>
-      <c r="B172" s="27"/>
-      <c r="E172" s="21"/>
-      <c r="F172" s="21" t="str">
+      <c r="A172" s="20">
+        <v>172</v>
+      </c>
+      <c r="B172" s="26"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="21">
-        <v>171</v>
-      </c>
-      <c r="B173" s="27"/>
-      <c r="E173" s="21"/>
-      <c r="F173" s="21" t="str">
+      <c r="A173" s="20">
+        <v>173</v>
+      </c>
+      <c r="B173" s="26"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="21">
-        <v>172</v>
-      </c>
-      <c r="B174" s="27"/>
-      <c r="E174" s="21"/>
-      <c r="F174" s="21" t="str">
+      <c r="A174" s="20">
+        <v>174</v>
+      </c>
+      <c r="B174" s="26"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="21">
-        <v>173</v>
-      </c>
-      <c r="B175" s="27"/>
-      <c r="E175" s="21"/>
-      <c r="F175" s="21" t="str">
+      <c r="A175" s="20">
+        <v>175</v>
+      </c>
+      <c r="B175" s="26"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="21">
-        <v>174</v>
-      </c>
-      <c r="B176" s="27"/>
-      <c r="E176" s="21"/>
-      <c r="F176" s="21" t="str">
+      <c r="A176" s="20">
+        <v>176</v>
+      </c>
+      <c r="B176" s="26"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="21">
-        <v>175</v>
-      </c>
-      <c r="B177" s="27"/>
-      <c r="E177" s="21"/>
-      <c r="F177" s="21" t="str">
+      <c r="A177" s="20">
+        <v>177</v>
+      </c>
+      <c r="B177" s="26"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="21">
-        <v>176</v>
-      </c>
-      <c r="B178" s="27"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21" t="str">
+      <c r="A178" s="20">
+        <v>178</v>
+      </c>
+      <c r="B178" s="26"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="21">
-        <v>177</v>
-      </c>
-      <c r="B179" s="27"/>
-      <c r="E179" s="21"/>
-      <c r="F179" s="21" t="str">
+      <c r="A179" s="20">
+        <v>179</v>
+      </c>
+      <c r="B179" s="26"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="21">
-        <v>178</v>
-      </c>
-      <c r="B180" s="27"/>
-      <c r="E180" s="21"/>
-      <c r="F180" s="21" t="str">
+      <c r="A180" s="20">
+        <v>180</v>
+      </c>
+      <c r="B180" s="26"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="21">
-        <v>179</v>
-      </c>
-      <c r="B181" s="27"/>
-      <c r="E181" s="21"/>
-      <c r="F181" s="21" t="str">
+      <c r="A181" s="20">
+        <v>181</v>
+      </c>
+      <c r="B181" s="26"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="21">
-        <v>180</v>
-      </c>
-      <c r="B182" s="27"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21" t="str">
+      <c r="A182" s="20">
+        <v>182</v>
+      </c>
+      <c r="B182" s="26"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="21">
-        <v>181</v>
-      </c>
-      <c r="B183" s="27"/>
-      <c r="E183" s="21"/>
-      <c r="F183" s="21" t="str">
+      <c r="A183" s="20">
+        <v>183</v>
+      </c>
+      <c r="B183" s="26"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="21">
-        <v>182</v>
-      </c>
-      <c r="B184" s="27"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="21" t="str">
+      <c r="A184" s="20">
+        <v>184</v>
+      </c>
+      <c r="B184" s="26"/>
+      <c r="E184" s="20"/>
+      <c r="F184" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="21">
-        <v>183</v>
-      </c>
-      <c r="B185" s="27"/>
-      <c r="E185" s="21"/>
-      <c r="F185" s="21" t="str">
+      <c r="A185" s="20">
+        <v>185</v>
+      </c>
+      <c r="B185" s="26"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="21">
-        <v>184</v>
-      </c>
-      <c r="B186" s="27"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="21" t="str">
+      <c r="A186" s="20">
+        <v>186</v>
+      </c>
+      <c r="B186" s="26"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="21">
-        <v>185</v>
-      </c>
-      <c r="B187" s="27"/>
-      <c r="E187" s="21"/>
-      <c r="F187" s="21" t="str">
+      <c r="A187" s="20">
+        <v>187</v>
+      </c>
+      <c r="B187" s="26"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="21">
-        <v>186</v>
-      </c>
-      <c r="B188" s="27"/>
-      <c r="E188" s="21"/>
-      <c r="F188" s="21" t="str">
+      <c r="A188" s="20">
+        <v>188</v>
+      </c>
+      <c r="B188" s="26"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="21">
-        <v>187</v>
-      </c>
-      <c r="B189" s="27"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="21" t="str">
+      <c r="A189" s="20">
+        <v>189</v>
+      </c>
+      <c r="B189" s="26"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="21">
-        <v>188</v>
-      </c>
-      <c r="B190" s="27"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="21" t="str">
+      <c r="A190" s="20">
+        <v>190</v>
+      </c>
+      <c r="B190" s="26"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="21">
-        <v>189</v>
-      </c>
-      <c r="B191" s="27"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="21" t="str">
+      <c r="A191" s="20">
+        <v>191</v>
+      </c>
+      <c r="B191" s="26"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="21">
-        <v>190</v>
-      </c>
-      <c r="B192" s="27"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21" t="str">
+      <c r="A192" s="20">
+        <v>192</v>
+      </c>
+      <c r="B192" s="26"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="21">
-        <v>191</v>
-      </c>
-      <c r="B193" s="27"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="21" t="str">
+      <c r="A193" s="20">
+        <v>193</v>
+      </c>
+      <c r="B193" s="26"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="21">
-        <v>192</v>
-      </c>
-      <c r="B194" s="27"/>
-      <c r="E194" s="21"/>
-      <c r="F194" s="21" t="str">
+      <c r="A194" s="20">
+        <v>194</v>
+      </c>
+      <c r="B194" s="26"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="21">
-        <v>193</v>
-      </c>
-      <c r="B195" s="27"/>
-      <c r="E195" s="21"/>
-      <c r="F195" s="21" t="str">
+      <c r="A195" s="20">
+        <v>195</v>
+      </c>
+      <c r="B195" s="26"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="21">
-        <v>194</v>
-      </c>
-      <c r="B196" s="27"/>
-      <c r="E196" s="21"/>
-      <c r="F196" s="21" t="str">
+      <c r="A196" s="20">
+        <v>196</v>
+      </c>
+      <c r="B196" s="26"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="21">
-        <v>195</v>
-      </c>
-      <c r="B197" s="27"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="21" t="str">
+      <c r="A197" s="20">
+        <v>197</v>
+      </c>
+      <c r="B197" s="26"/>
+      <c r="E197" s="20"/>
+      <c r="F197" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="21">
-        <v>196</v>
-      </c>
-      <c r="B198" s="27"/>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="21">
-        <v>197</v>
-      </c>
-      <c r="B199" s="27"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="21">
+      <c r="A198" s="20">
         <v>198</v>
       </c>
-      <c r="B200" s="27"/>
-      <c r="E200" s="21"/>
-      <c r="F200" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B198" s="26"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="27"/>
-      <c r="B201" s="27"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="27"/>
-      <c r="B202" s="27"/>
+      <c r="A202" s="26"/>
+      <c r="B202" s="26"/>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="27"/>
-      <c r="B203" s="27"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="26"/>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="27"/>
-      <c r="B204" s="27"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="26"/>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="27"/>
-      <c r="B205" s="27"/>
+      <c r="A205" s="26"/>
+      <c r="B205" s="26"/>
     </row>
     <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="27"/>
-      <c r="B206" s="27"/>
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
     </row>
     <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="27"/>
-      <c r="B207" s="27"/>
+      <c r="A207" s="26"/>
+      <c r="B207" s="26"/>
     </row>
     <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="27"/>
-      <c r="B208" s="27"/>
+      <c r="A208" s="26"/>
+      <c r="B208" s="26"/>
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="27"/>
-      <c r="B209" s="27"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="26"/>
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="27"/>
-      <c r="B210" s="27"/>
+      <c r="A210" s="26"/>
+      <c r="B210" s="26"/>
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="27"/>
-      <c r="B211" s="27"/>
+      <c r="A211" s="26"/>
+      <c r="B211" s="26"/>
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="27"/>
-      <c r="B212" s="27"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="27"/>
-      <c r="B213" s="27"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="26"/>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="27"/>
-      <c r="B214" s="27"/>
+      <c r="A214" s="26"/>
+      <c r="B214" s="26"/>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="27"/>
-      <c r="B215" s="27"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="27"/>
-      <c r="B216" s="27"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="27"/>
-      <c r="B217" s="27"/>
+      <c r="A217" s="26"/>
+      <c r="B217" s="26"/>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="27"/>
-      <c r="B218" s="27"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="26"/>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="27"/>
-      <c r="B219" s="27"/>
+      <c r="A219" s="26"/>
+      <c r="B219" s="26"/>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="27"/>
-      <c r="B220" s="27"/>
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="27"/>
-      <c r="B221" s="27"/>
+      <c r="A221" s="26"/>
+      <c r="B221" s="26"/>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="27"/>
-      <c r="B222" s="27"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="27"/>
-      <c r="B223" s="27"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="26"/>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="27"/>
-      <c r="B224" s="27"/>
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="27"/>
-      <c r="B225" s="27"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="26"/>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="27"/>
-      <c r="B226" s="27"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="26"/>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="27"/>
-      <c r="B227" s="27"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="27"/>
-      <c r="B228" s="27"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="27"/>
-      <c r="B229" s="27"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="27"/>
-      <c r="B230" s="27"/>
+      <c r="A230" s="26"/>
+      <c r="B230" s="26"/>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="27"/>
-      <c r="B231" s="27"/>
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="27"/>
-      <c r="B232" s="27"/>
+      <c r="A232" s="26"/>
+      <c r="B232" s="26"/>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="27"/>
-      <c r="B233" s="27"/>
+      <c r="A233" s="26"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="27"/>
-      <c r="B234" s="27"/>
+      <c r="A234" s="26"/>
+      <c r="B234" s="26"/>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="27"/>
-      <c r="B235" s="27"/>
+      <c r="A235" s="26"/>
+      <c r="B235" s="26"/>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="27"/>
-      <c r="B236" s="27"/>
+      <c r="A236" s="26"/>
+      <c r="B236" s="26"/>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="27"/>
-      <c r="B237" s="27"/>
+      <c r="A237" s="26"/>
+      <c r="B237" s="26"/>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="27"/>
-      <c r="B238" s="27"/>
+      <c r="A238" s="26"/>
+      <c r="B238" s="26"/>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="27"/>
-      <c r="B239" s="27"/>
+      <c r="A239" s="26"/>
+      <c r="B239" s="26"/>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="27"/>
-      <c r="B240" s="27"/>
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
     </row>
     <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27"/>
+      <c r="A241" s="26"/>
+      <c r="B241" s="26"/>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="27"/>
-      <c r="B242" s="27"/>
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="27"/>
-      <c r="B243" s="27"/>
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="27"/>
-      <c r="B244" s="27"/>
+      <c r="A244" s="26"/>
+      <c r="B244" s="26"/>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="27"/>
-      <c r="B245" s="27"/>
+      <c r="A245" s="26"/>
+      <c r="B245" s="26"/>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="27"/>
-      <c r="B246" s="27"/>
+      <c r="A246" s="26"/>
+      <c r="B246" s="26"/>
     </row>
     <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="27"/>
-      <c r="B247" s="27"/>
+      <c r="A247" s="26"/>
+      <c r="B247" s="26"/>
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="27"/>
-      <c r="B248" s="27"/>
+      <c r="A248" s="26"/>
+      <c r="B248" s="26"/>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="27"/>
-      <c r="B249" s="27"/>
+      <c r="A249" s="26"/>
+      <c r="B249" s="26"/>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="27"/>
-      <c r="B250" s="27"/>
+      <c r="A250" s="26"/>
+      <c r="B250" s="26"/>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="27"/>
-      <c r="B251" s="27"/>
+      <c r="A251" s="26"/>
+      <c r="B251" s="26"/>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="27"/>
-      <c r="B252" s="27"/>
+      <c r="A252" s="26"/>
+      <c r="B252" s="26"/>
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="27"/>
-      <c r="B253" s="27"/>
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="27"/>
-      <c r="B254" s="27"/>
+      <c r="A254" s="26"/>
+      <c r="B254" s="26"/>
     </row>
     <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="27"/>
-      <c r="B255" s="27"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
     </row>
     <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="27"/>
-      <c r="B256" s="27"/>
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
     </row>
     <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="27"/>
-      <c r="B257" s="27"/>
+      <c r="A257" s="26"/>
+      <c r="B257" s="26"/>
     </row>
     <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="27"/>
-      <c r="B258" s="27"/>
+      <c r="A258" s="26"/>
+      <c r="B258" s="26"/>
     </row>
     <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="27"/>
-      <c r="B259" s="27"/>
+      <c r="A259" s="26"/>
+      <c r="B259" s="26"/>
     </row>
     <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="27"/>
-      <c r="B260" s="27"/>
+      <c r="A260" s="26"/>
+      <c r="B260" s="26"/>
     </row>
     <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="27"/>
-      <c r="B261" s="27"/>
+      <c r="A261" s="26"/>
+      <c r="B261" s="26"/>
     </row>
     <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="27"/>
-      <c r="B262" s="27"/>
+      <c r="A262" s="26"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="27"/>
-      <c r="B263" s="27"/>
+      <c r="A263" s="26"/>
+      <c r="B263" s="26"/>
     </row>
     <row r="264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="27"/>
-      <c r="B264" s="27"/>
+      <c r="A264" s="26"/>
+      <c r="B264" s="26"/>
     </row>
     <row r="265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="27"/>
-      <c r="B265" s="27"/>
+      <c r="A265" s="26"/>
+      <c r="B265" s="26"/>
     </row>
     <row r="266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="27"/>
-      <c r="B266" s="27"/>
+      <c r="A266" s="26"/>
+      <c r="B266" s="26"/>
     </row>
     <row r="267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="27"/>
-      <c r="B267" s="27"/>
+      <c r="A267" s="26"/>
+      <c r="B267" s="26"/>
     </row>
     <row r="268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="27"/>
-      <c r="B268" s="27"/>
+      <c r="A268" s="26"/>
+      <c r="B268" s="26"/>
     </row>
     <row r="269" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="27"/>
-      <c r="B269" s="27"/>
+      <c r="A269" s="26"/>
+      <c r="B269" s="26"/>
     </row>
     <row r="270" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="27"/>
-      <c r="B270" s="27"/>
+      <c r="A270" s="26"/>
+      <c r="B270" s="26"/>
     </row>
     <row r="271" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="27"/>
-      <c r="B271" s="27"/>
+      <c r="A271" s="26"/>
+      <c r="B271" s="26"/>
     </row>
     <row r="272" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="27"/>
-      <c r="B272" s="27"/>
+      <c r="A272" s="26"/>
+      <c r="B272" s="26"/>
     </row>
     <row r="273" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="27"/>
-      <c r="B273" s="27"/>
+      <c r="A273" s="26"/>
+      <c r="B273" s="26"/>
     </row>
     <row r="274" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="27"/>
-      <c r="B274" s="27"/>
+      <c r="A274" s="26"/>
+      <c r="B274" s="26"/>
     </row>
     <row r="275" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="27"/>
-      <c r="B275" s="27"/>
+      <c r="A275" s="26"/>
+      <c r="B275" s="26"/>
     </row>
     <row r="276" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="27"/>
-      <c r="B276" s="27"/>
+      <c r="A276" s="26"/>
+      <c r="B276" s="26"/>
     </row>
     <row r="277" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="27"/>
-      <c r="B277" s="27"/>
+      <c r="A277" s="26"/>
+      <c r="B277" s="26"/>
     </row>
     <row r="278" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="27"/>
-      <c r="B278" s="27"/>
+      <c r="A278" s="26"/>
+      <c r="B278" s="26"/>
     </row>
     <row r="279" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="27"/>
-      <c r="B279" s="27"/>
+      <c r="A279" s="26"/>
+      <c r="B279" s="26"/>
     </row>
     <row r="280" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="27"/>
-      <c r="B280" s="27"/>
+      <c r="A280" s="26"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="27"/>
-      <c r="B281" s="27"/>
+      <c r="A281" s="26"/>
+      <c r="B281" s="26"/>
     </row>
     <row r="282" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="27"/>
-      <c r="B282" s="27"/>
+      <c r="A282" s="26"/>
+      <c r="B282" s="26"/>
     </row>
     <row r="283" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="27"/>
-      <c r="B283" s="27"/>
+      <c r="A283" s="26"/>
+      <c r="B283" s="26"/>
     </row>
     <row r="284" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="27"/>
-      <c r="B284" s="27"/>
+      <c r="A284" s="26"/>
+      <c r="B284" s="26"/>
     </row>
     <row r="285" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="27"/>
-      <c r="B285" s="27"/>
+      <c r="A285" s="26"/>
+      <c r="B285" s="26"/>
     </row>
     <row r="286" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="27"/>
-      <c r="B286" s="27"/>
+      <c r="A286" s="26"/>
+      <c r="B286" s="26"/>
     </row>
     <row r="287" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="27"/>
-      <c r="B287" s="27"/>
+      <c r="A287" s="26"/>
+      <c r="B287" s="26"/>
     </row>
     <row r="288" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="27"/>
-      <c r="B288" s="27"/>
+      <c r="A288" s="26"/>
+      <c r="B288" s="26"/>
     </row>
     <row r="289" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="27"/>
-      <c r="B289" s="27"/>
+      <c r="A289" s="26"/>
+      <c r="B289" s="26"/>
     </row>
     <row r="290" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="27"/>
-      <c r="B290" s="27"/>
+      <c r="A290" s="26"/>
+      <c r="B290" s="26"/>
     </row>
     <row r="291" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="27"/>
-      <c r="B291" s="27"/>
+      <c r="A291" s="26"/>
+      <c r="B291" s="26"/>
     </row>
     <row r="292" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="27"/>
-      <c r="B292" s="27"/>
+      <c r="A292" s="26"/>
+      <c r="B292" s="26"/>
     </row>
     <row r="293" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="27"/>
-      <c r="B293" s="27"/>
+      <c r="A293" s="26"/>
+      <c r="B293" s="26"/>
     </row>
     <row r="294" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="27"/>
-      <c r="B294" s="27"/>
+      <c r="A294" s="26"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="27"/>
-      <c r="B295" s="27"/>
+      <c r="A295" s="26"/>
+      <c r="B295" s="26"/>
     </row>
     <row r="296" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="27"/>
-      <c r="B296" s="27"/>
+      <c r="A296" s="26"/>
+      <c r="B296" s="26"/>
     </row>
     <row r="297" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="27"/>
-      <c r="B297" s="27"/>
+      <c r="A297" s="26"/>
+      <c r="B297" s="26"/>
     </row>
     <row r="298" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="27"/>
-      <c r="B298" s="27"/>
+      <c r="A298" s="26"/>
+      <c r="B298" s="26"/>
     </row>
     <row r="299" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="27"/>
-      <c r="B299" s="27"/>
+      <c r="A299" s="26"/>
+      <c r="B299" s="26"/>
     </row>
     <row r="300" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="27"/>
-      <c r="B300" s="27"/>
+      <c r="A300" s="26"/>
+      <c r="B300" s="26"/>
     </row>
     <row r="301" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="27"/>
-      <c r="B301" s="27"/>
+      <c r="A301" s="26"/>
+      <c r="B301" s="26"/>
     </row>
     <row r="302" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="27"/>
-      <c r="B302" s="27"/>
+      <c r="A302" s="26"/>
+      <c r="B302" s="26"/>
     </row>
     <row r="303" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="27"/>
-      <c r="B303" s="27"/>
+      <c r="A303" s="26"/>
+      <c r="B303" s="26"/>
     </row>
     <row r="304" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="27"/>
-      <c r="B304" s="27"/>
+      <c r="A304" s="26"/>
+      <c r="B304" s="26"/>
     </row>
     <row r="305" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="27"/>
-      <c r="B305" s="27"/>
+      <c r="A305" s="26"/>
+      <c r="B305" s="26"/>
     </row>
     <row r="306" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="27"/>
-      <c r="B306" s="27"/>
+      <c r="A306" s="26"/>
+      <c r="B306" s="26"/>
     </row>
     <row r="307" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="27"/>
-      <c r="B307" s="27"/>
+      <c r="A307" s="26"/>
+      <c r="B307" s="26"/>
     </row>
     <row r="308" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="27"/>
-      <c r="B308" s="27"/>
+      <c r="A308" s="26"/>
+      <c r="B308" s="26"/>
     </row>
     <row r="309" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="27"/>
-      <c r="B309" s="27"/>
+      <c r="A309" s="26"/>
+      <c r="B309" s="26"/>
     </row>
     <row r="310" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="27"/>
-      <c r="B310" s="27"/>
+      <c r="A310" s="26"/>
+      <c r="B310" s="26"/>
     </row>
     <row r="311" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="27"/>
-      <c r="B311" s="27"/>
+      <c r="A311" s="26"/>
+      <c r="B311" s="26"/>
     </row>
     <row r="312" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="27"/>
-      <c r="B312" s="27"/>
+      <c r="A312" s="26"/>
+      <c r="B312" s="26"/>
     </row>
     <row r="313" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="27"/>
-      <c r="B313" s="27"/>
+      <c r="A313" s="26"/>
+      <c r="B313" s="26"/>
     </row>
     <row r="314" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="27"/>
-      <c r="B314" s="27"/>
+      <c r="A314" s="26"/>
+      <c r="B314" s="26"/>
     </row>
     <row r="315" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="27"/>
-      <c r="B315" s="27"/>
+      <c r="A315" s="26"/>
+      <c r="B315" s="26"/>
     </row>
     <row r="316" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="27"/>
-      <c r="B316" s="27"/>
+      <c r="A316" s="26"/>
+      <c r="B316" s="26"/>
     </row>
     <row r="317" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="27"/>
-      <c r="B317" s="27"/>
+      <c r="A317" s="26"/>
+      <c r="B317" s="26"/>
     </row>
     <row r="318" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="27"/>
-      <c r="B318" s="27"/>
+      <c r="A318" s="26"/>
+      <c r="B318" s="26"/>
     </row>
     <row r="319" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="27"/>
-      <c r="B319" s="27"/>
+      <c r="A319" s="26"/>
+      <c r="B319" s="26"/>
     </row>
     <row r="320" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="27"/>
-      <c r="B320" s="27"/>
+      <c r="A320" s="26"/>
+      <c r="B320" s="26"/>
     </row>
     <row r="321" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="27"/>
-      <c r="B321" s="27"/>
+      <c r="A321" s="26"/>
+      <c r="B321" s="26"/>
     </row>
     <row r="322" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="27"/>
-      <c r="B322" s="27"/>
+      <c r="A322" s="26"/>
+      <c r="B322" s="26"/>
     </row>
     <row r="323" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="27"/>
-      <c r="B323" s="27"/>
+      <c r="A323" s="26"/>
+      <c r="B323" s="26"/>
     </row>
     <row r="324" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="27"/>
-      <c r="B324" s="27"/>
+      <c r="A324" s="26"/>
+      <c r="B324" s="26"/>
     </row>
     <row r="325" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="27"/>
-      <c r="B325" s="27"/>
+      <c r="A325" s="26"/>
+      <c r="B325" s="26"/>
     </row>
     <row r="326" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="27"/>
-      <c r="B326" s="27"/>
+      <c r="A326" s="26"/>
+      <c r="B326" s="26"/>
     </row>
     <row r="327" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="27"/>
-      <c r="B327" s="27"/>
+      <c r="A327" s="26"/>
+      <c r="B327" s="26"/>
     </row>
     <row r="328" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="27"/>
-      <c r="B328" s="27"/>
+      <c r="A328" s="26"/>
+      <c r="B328" s="26"/>
     </row>
     <row r="329" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="27"/>
-      <c r="B329" s="27"/>
+      <c r="A329" s="26"/>
+      <c r="B329" s="26"/>
     </row>
     <row r="330" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="27"/>
-      <c r="B330" s="27"/>
+      <c r="A330" s="26"/>
+      <c r="B330" s="26"/>
     </row>
     <row r="331" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="27"/>
-      <c r="B331" s="27"/>
+      <c r="A331" s="26"/>
+      <c r="B331" s="26"/>
     </row>
     <row r="332" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="27"/>
-      <c r="B332" s="27"/>
+      <c r="A332" s="26"/>
+      <c r="B332" s="26"/>
     </row>
     <row r="333" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="27"/>
-      <c r="B333" s="27"/>
+      <c r="A333" s="26"/>
+      <c r="B333" s="26"/>
     </row>
     <row r="334" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="27"/>
-      <c r="B334" s="27"/>
+      <c r="A334" s="26"/>
+      <c r="B334" s="26"/>
     </row>
     <row r="335" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="27"/>
-      <c r="B335" s="27"/>
+      <c r="A335" s="26"/>
+      <c r="B335" s="26"/>
     </row>
     <row r="336" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="27"/>
-      <c r="B336" s="27"/>
+      <c r="A336" s="26"/>
+      <c r="B336" s="26"/>
     </row>
     <row r="337" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="27"/>
-      <c r="B337" s="27"/>
+      <c r="A337" s="26"/>
+      <c r="B337" s="26"/>
     </row>
     <row r="338" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="27"/>
-      <c r="B338" s="27"/>
+      <c r="A338" s="26"/>
+      <c r="B338" s="26"/>
     </row>
     <row r="339" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="27"/>
-      <c r="B339" s="27"/>
+      <c r="A339" s="26"/>
+      <c r="B339" s="26"/>
     </row>
     <row r="340" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="27"/>
-      <c r="B340" s="27"/>
+      <c r="A340" s="26"/>
+      <c r="B340" s="26"/>
     </row>
     <row r="341" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="27"/>
-      <c r="B341" s="27"/>
+      <c r="A341" s="26"/>
+      <c r="B341" s="26"/>
     </row>
     <row r="342" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="27"/>
-      <c r="B342" s="27"/>
+      <c r="A342" s="26"/>
+      <c r="B342" s="26"/>
     </row>
     <row r="343" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="27"/>
-      <c r="B343" s="27"/>
+      <c r="A343" s="26"/>
+      <c r="B343" s="26"/>
     </row>
     <row r="344" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="27"/>
-      <c r="B344" s="27"/>
+      <c r="A344" s="26"/>
+      <c r="B344" s="26"/>
     </row>
     <row r="345" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="27"/>
-      <c r="B345" s="27"/>
+      <c r="A345" s="26"/>
+      <c r="B345" s="26"/>
     </row>
     <row r="346" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="27"/>
-      <c r="B346" s="27"/>
+      <c r="A346" s="26"/>
+      <c r="B346" s="26"/>
     </row>
     <row r="347" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="27"/>
-      <c r="B347" s="27"/>
+      <c r="A347" s="26"/>
+      <c r="B347" s="26"/>
     </row>
     <row r="348" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="27"/>
-      <c r="B348" s="27"/>
+      <c r="A348" s="26"/>
+      <c r="B348" s="26"/>
     </row>
     <row r="349" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="27"/>
-      <c r="B349" s="27"/>
+      <c r="A349" s="26"/>
+      <c r="B349" s="26"/>
     </row>
     <row r="350" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="27"/>
-      <c r="B350" s="27"/>
+      <c r="A350" s="26"/>
+      <c r="B350" s="26"/>
     </row>
     <row r="351" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="27"/>
-      <c r="B351" s="27"/>
+      <c r="A351" s="26"/>
+      <c r="B351" s="26"/>
     </row>
     <row r="352" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="27"/>
-      <c r="B352" s="27"/>
+      <c r="A352" s="26"/>
+      <c r="B352" s="26"/>
     </row>
     <row r="353" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="27"/>
-      <c r="B353" s="27"/>
+      <c r="A353" s="26"/>
+      <c r="B353" s="26"/>
     </row>
     <row r="354" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="27"/>
-      <c r="B354" s="27"/>
+      <c r="A354" s="26"/>
+      <c r="B354" s="26"/>
     </row>
     <row r="355" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="27"/>
-      <c r="B355" s="27"/>
+      <c r="A355" s="26"/>
+      <c r="B355" s="26"/>
     </row>
     <row r="356" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="27"/>
-      <c r="B356" s="27"/>
+      <c r="A356" s="26"/>
+      <c r="B356" s="26"/>
     </row>
     <row r="357" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="27"/>
-      <c r="B357" s="27"/>
+      <c r="A357" s="26"/>
+      <c r="B357" s="26"/>
     </row>
     <row r="358" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="27"/>
-      <c r="B358" s="27"/>
+      <c r="A358" s="26"/>
+      <c r="B358" s="26"/>
     </row>
     <row r="359" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="27"/>
-      <c r="B359" s="27"/>
+      <c r="A359" s="26"/>
+      <c r="B359" s="26"/>
     </row>
     <row r="360" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="27"/>
-      <c r="B360" s="27"/>
+      <c r="A360" s="26"/>
+      <c r="B360" s="26"/>
     </row>
     <row r="361" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="27"/>
-      <c r="B361" s="27"/>
+      <c r="A361" s="26"/>
+      <c r="B361" s="26"/>
     </row>
     <row r="362" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="27"/>
-      <c r="B362" s="27"/>
+      <c r="A362" s="26"/>
+      <c r="B362" s="26"/>
     </row>
     <row r="363" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="27"/>
-      <c r="B363" s="27"/>
+      <c r="A363" s="26"/>
+      <c r="B363" s="26"/>
     </row>
     <row r="364" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="27"/>
-      <c r="B364" s="27"/>
+      <c r="A364" s="26"/>
+      <c r="B364" s="26"/>
     </row>
     <row r="365" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="27"/>
-      <c r="B365" s="27"/>
+      <c r="A365" s="26"/>
+      <c r="B365" s="26"/>
     </row>
     <row r="366" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="27"/>
-      <c r="B366" s="27"/>
+      <c r="A366" s="26"/>
+      <c r="B366" s="26"/>
     </row>
     <row r="367" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="27"/>
-      <c r="B367" s="27"/>
+      <c r="A367" s="26"/>
+      <c r="B367" s="26"/>
     </row>
     <row r="368" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="27"/>
-      <c r="B368" s="27"/>
+      <c r="A368" s="26"/>
+      <c r="B368" s="26"/>
     </row>
     <row r="369" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="27"/>
-      <c r="B369" s="27"/>
+      <c r="A369" s="26"/>
+      <c r="B369" s="26"/>
     </row>
     <row r="370" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="27"/>
-      <c r="B370" s="27"/>
+      <c r="A370" s="26"/>
+      <c r="B370" s="26"/>
     </row>
     <row r="371" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="27"/>
-      <c r="B371" s="27"/>
+      <c r="A371" s="26"/>
+      <c r="B371" s="26"/>
     </row>
     <row r="372" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="27"/>
-      <c r="B372" s="27"/>
+      <c r="A372" s="26"/>
+      <c r="B372" s="26"/>
     </row>
     <row r="373" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="27"/>
-      <c r="B373" s="27"/>
+      <c r="A373" s="26"/>
+      <c r="B373" s="26"/>
     </row>
     <row r="374" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="27"/>
-      <c r="B374" s="27"/>
+      <c r="A374" s="26"/>
+      <c r="B374" s="26"/>
     </row>
     <row r="375" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="27"/>
-      <c r="B375" s="27"/>
+      <c r="A375" s="26"/>
+      <c r="B375" s="26"/>
     </row>
     <row r="376" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="27"/>
-      <c r="B376" s="27"/>
+      <c r="A376" s="26"/>
+      <c r="B376" s="26"/>
     </row>
     <row r="377" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="27"/>
-      <c r="B377" s="27"/>
+      <c r="A377" s="26"/>
+      <c r="B377" s="26"/>
     </row>
     <row r="378" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="27"/>
-      <c r="B378" s="27"/>
+      <c r="A378" s="26"/>
+      <c r="B378" s="26"/>
     </row>
     <row r="379" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="27"/>
-      <c r="B379" s="27"/>
+      <c r="A379" s="26"/>
+      <c r="B379" s="26"/>
     </row>
     <row r="380" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="27"/>
-      <c r="B380" s="27"/>
+      <c r="A380" s="26"/>
+      <c r="B380" s="26"/>
     </row>
     <row r="381" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="27"/>
-      <c r="B381" s="27"/>
+      <c r="A381" s="26"/>
+      <c r="B381" s="26"/>
     </row>
     <row r="382" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="27"/>
-      <c r="B382" s="27"/>
+      <c r="A382" s="26"/>
+      <c r="B382" s="26"/>
     </row>
     <row r="383" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="27"/>
-      <c r="B383" s="27"/>
+      <c r="A383" s="26"/>
+      <c r="B383" s="26"/>
     </row>
     <row r="384" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="27"/>
-      <c r="B384" s="27"/>
+      <c r="A384" s="26"/>
+      <c r="B384" s="26"/>
     </row>
     <row r="385" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="27"/>
-      <c r="B385" s="27"/>
+      <c r="A385" s="26"/>
+      <c r="B385" s="26"/>
     </row>
     <row r="386" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="27"/>
-      <c r="B386" s="27"/>
+      <c r="A386" s="26"/>
+      <c r="B386" s="26"/>
     </row>
     <row r="387" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="27"/>
-      <c r="B387" s="27"/>
+      <c r="A387" s="26"/>
+      <c r="B387" s="26"/>
     </row>
     <row r="388" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="27"/>
-      <c r="B388" s="27"/>
+      <c r="A388" s="26"/>
+      <c r="B388" s="26"/>
     </row>
     <row r="389" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="27"/>
-      <c r="B389" s="27"/>
+      <c r="A389" s="26"/>
+      <c r="B389" s="26"/>
     </row>
     <row r="390" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="27"/>
-      <c r="B390" s="27"/>
+      <c r="A390" s="26"/>
+      <c r="B390" s="26"/>
     </row>
     <row r="391" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="27"/>
-      <c r="B391" s="27"/>
+      <c r="A391" s="26"/>
+      <c r="B391" s="26"/>
     </row>
     <row r="392" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="27"/>
-      <c r="B392" s="27"/>
+      <c r="A392" s="26"/>
+      <c r="B392" s="26"/>
     </row>
     <row r="393" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="27"/>
-      <c r="B393" s="27"/>
+      <c r="A393" s="26"/>
+      <c r="B393" s="26"/>
     </row>
     <row r="394" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="27"/>
-      <c r="B394" s="27"/>
+      <c r="A394" s="26"/>
+      <c r="B394" s="26"/>
     </row>
     <row r="395" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="27"/>
-      <c r="B395" s="27"/>
+      <c r="A395" s="26"/>
+      <c r="B395" s="26"/>
     </row>
     <row r="396" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="27"/>
-      <c r="B396" s="27"/>
+      <c r="A396" s="26"/>
+      <c r="B396" s="26"/>
     </row>
     <row r="397" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="27"/>
-      <c r="B397" s="27"/>
+      <c r="A397" s="26"/>
+      <c r="B397" s="26"/>
     </row>
     <row r="398" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="27"/>
-      <c r="B398" s="27"/>
+      <c r="A398" s="26"/>
+      <c r="B398" s="26"/>
     </row>
     <row r="399" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="27"/>
-      <c r="B399" s="27"/>
+      <c r="A399" s="26"/>
+      <c r="B399" s="26"/>
     </row>
     <row r="400" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="27"/>
-      <c r="B400" s="27"/>
+      <c r="A400" s="26"/>
+      <c r="B400" s="26"/>
     </row>
     <row r="401" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="27"/>
-      <c r="B401" s="27"/>
+      <c r="A401" s="26"/>
+      <c r="B401" s="26"/>
     </row>
     <row r="402" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="27"/>
-      <c r="B402" s="27"/>
+      <c r="A402" s="26"/>
+      <c r="B402" s="26"/>
     </row>
     <row r="403" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="27"/>
-      <c r="B403" s="27"/>
+      <c r="A403" s="26"/>
+      <c r="B403" s="26"/>
     </row>
     <row r="404" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="27"/>
-      <c r="B404" s="27"/>
+      <c r="A404" s="26"/>
+      <c r="B404" s="26"/>
     </row>
     <row r="405" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="27"/>
-      <c r="B405" s="27"/>
+      <c r="A405" s="26"/>
+      <c r="B405" s="26"/>
     </row>
     <row r="406" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="27"/>
-      <c r="B406" s="27"/>
+      <c r="A406" s="26"/>
+      <c r="B406" s="26"/>
     </row>
     <row r="407" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="27"/>
-      <c r="B407" s="27"/>
+      <c r="A407" s="26"/>
+      <c r="B407" s="26"/>
     </row>
     <row r="408" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="27"/>
-      <c r="B408" s="27"/>
+      <c r="A408" s="26"/>
+      <c r="B408" s="26"/>
     </row>
     <row r="409" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="27"/>
-      <c r="B409" s="27"/>
+      <c r="A409" s="26"/>
+      <c r="B409" s="26"/>
     </row>
     <row r="410" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="27"/>
-      <c r="B410" s="27"/>
+      <c r="A410" s="26"/>
+      <c r="B410" s="26"/>
     </row>
     <row r="411" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="27"/>
-      <c r="B411" s="27"/>
+      <c r="A411" s="26"/>
+      <c r="B411" s="26"/>
     </row>
     <row r="412" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A412" s="27"/>
-      <c r="B412" s="27"/>
+      <c r="A412" s="26"/>
+      <c r="B412" s="26"/>
     </row>
     <row r="413" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="27"/>
-      <c r="B413" s="27"/>
+      <c r="A413" s="26"/>
+      <c r="B413" s="26"/>
     </row>
     <row r="414" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="27"/>
-      <c r="B414" s="27"/>
+      <c r="A414" s="26"/>
+      <c r="B414" s="26"/>
     </row>
     <row r="415" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A415" s="27"/>
-      <c r="B415" s="27"/>
+      <c r="A415" s="26"/>
+      <c r="B415" s="26"/>
     </row>
     <row r="416" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="27"/>
-      <c r="B416" s="27"/>
+      <c r="A416" s="26"/>
+      <c r="B416" s="26"/>
     </row>
     <row r="417" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="27"/>
-      <c r="B417" s="27"/>
+      <c r="A417" s="26"/>
+      <c r="B417" s="26"/>
     </row>
     <row r="418" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="27"/>
-      <c r="B418" s="27"/>
+      <c r="A418" s="26"/>
+      <c r="B418" s="26"/>
     </row>
     <row r="419" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="27"/>
-      <c r="B419" s="27"/>
+      <c r="A419" s="26"/>
+      <c r="B419" s="26"/>
     </row>
     <row r="420" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="27"/>
-      <c r="B420" s="27"/>
+      <c r="A420" s="26"/>
+      <c r="B420" s="26"/>
     </row>
     <row r="421" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="27"/>
-      <c r="B421" s="27"/>
+      <c r="A421" s="26"/>
+      <c r="B421" s="26"/>
     </row>
     <row r="422" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="27"/>
-      <c r="B422" s="27"/>
+      <c r="A422" s="26"/>
+      <c r="B422" s="26"/>
     </row>
     <row r="423" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="27"/>
-      <c r="B423" s="27"/>
+      <c r="A423" s="26"/>
+      <c r="B423" s="26"/>
     </row>
     <row r="424" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="27"/>
-      <c r="B424" s="27"/>
+      <c r="A424" s="26"/>
+      <c r="B424" s="26"/>
     </row>
     <row r="425" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="27"/>
-      <c r="B425" s="27"/>
+      <c r="A425" s="26"/>
+      <c r="B425" s="26"/>
     </row>
     <row r="426" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="27"/>
-      <c r="B426" s="27"/>
+      <c r="A426" s="26"/>
+      <c r="B426" s="26"/>
     </row>
     <row r="427" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="27"/>
-      <c r="B427" s="27"/>
+      <c r="A427" s="26"/>
+      <c r="B427" s="26"/>
     </row>
     <row r="428" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="27"/>
-      <c r="B428" s="27"/>
+      <c r="A428" s="26"/>
+      <c r="B428" s="26"/>
     </row>
     <row r="429" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="27"/>
-      <c r="B429" s="27"/>
+      <c r="A429" s="26"/>
+      <c r="B429" s="26"/>
     </row>
     <row r="430" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="27"/>
-      <c r="B430" s="27"/>
+      <c r="A430" s="26"/>
+      <c r="B430" s="26"/>
     </row>
     <row r="431" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="27"/>
-      <c r="B431" s="27"/>
+      <c r="A431" s="26"/>
+      <c r="B431" s="26"/>
     </row>
     <row r="432" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="27"/>
-      <c r="B432" s="27"/>
+      <c r="A432" s="26"/>
+      <c r="B432" s="26"/>
     </row>
     <row r="433" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="27"/>
-      <c r="B433" s="27"/>
+      <c r="A433" s="26"/>
+      <c r="B433" s="26"/>
     </row>
     <row r="434" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="27"/>
-      <c r="B434" s="27"/>
+      <c r="A434" s="26"/>
+      <c r="B434" s="26"/>
     </row>
     <row r="435" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="27"/>
-      <c r="B435" s="27"/>
+      <c r="A435" s="26"/>
+      <c r="B435" s="26"/>
     </row>
     <row r="436" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="27"/>
-      <c r="B436" s="27"/>
+      <c r="A436" s="26"/>
+      <c r="B436" s="26"/>
     </row>
     <row r="437" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="27"/>
-      <c r="B437" s="27"/>
+      <c r="A437" s="26"/>
+      <c r="B437" s="26"/>
     </row>
     <row r="438" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="27"/>
-      <c r="B438" s="27"/>
+      <c r="A438" s="26"/>
+      <c r="B438" s="26"/>
     </row>
     <row r="439" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="27"/>
-      <c r="B439" s="27"/>
+      <c r="A439" s="26"/>
+      <c r="B439" s="26"/>
     </row>
     <row r="440" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="27"/>
-      <c r="B440" s="27"/>
+      <c r="A440" s="26"/>
+      <c r="B440" s="26"/>
     </row>
     <row r="441" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="27"/>
-      <c r="B441" s="27"/>
+      <c r="A441" s="26"/>
+      <c r="B441" s="26"/>
     </row>
     <row r="442" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="27"/>
-      <c r="B442" s="27"/>
+      <c r="A442" s="26"/>
+      <c r="B442" s="26"/>
     </row>
     <row r="443" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="27"/>
-      <c r="B443" s="27"/>
+      <c r="A443" s="26"/>
+      <c r="B443" s="26"/>
     </row>
     <row r="444" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="27"/>
-      <c r="B444" s="27"/>
+      <c r="A444" s="26"/>
+      <c r="B444" s="26"/>
     </row>
     <row r="445" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="27"/>
-      <c r="B445" s="27"/>
+      <c r="A445" s="26"/>
+      <c r="B445" s="26"/>
     </row>
     <row r="446" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="27"/>
-      <c r="B446" s="27"/>
+      <c r="A446" s="26"/>
+      <c r="B446" s="26"/>
     </row>
     <row r="447" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="27"/>
-      <c r="B447" s="27"/>
+      <c r="A447" s="26"/>
+      <c r="B447" s="26"/>
     </row>
     <row r="448" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="27"/>
-      <c r="B448" s="27"/>
+      <c r="A448" s="26"/>
+      <c r="B448" s="26"/>
     </row>
     <row r="449" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="27"/>
-      <c r="B449" s="27"/>
+      <c r="A449" s="26"/>
+      <c r="B449" s="26"/>
     </row>
     <row r="450" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="27"/>
-      <c r="B450" s="27"/>
+      <c r="A450" s="26"/>
+      <c r="B450" s="26"/>
     </row>
     <row r="451" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="27"/>
-      <c r="B451" s="27"/>
+      <c r="A451" s="26"/>
+      <c r="B451" s="26"/>
     </row>
     <row r="452" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="27"/>
-      <c r="B452" s="27"/>
+      <c r="A452" s="26"/>
+      <c r="B452" s="26"/>
     </row>
     <row r="453" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="27"/>
-      <c r="B453" s="27"/>
+      <c r="A453" s="26"/>
+      <c r="B453" s="26"/>
     </row>
     <row r="454" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="27"/>
-      <c r="B454" s="27"/>
+      <c r="A454" s="26"/>
+      <c r="B454" s="26"/>
     </row>
     <row r="455" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="27"/>
-      <c r="B455" s="27"/>
+      <c r="A455" s="26"/>
+      <c r="B455" s="26"/>
     </row>
     <row r="456" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="27"/>
-      <c r="B456" s="27"/>
+      <c r="A456" s="26"/>
+      <c r="B456" s="26"/>
     </row>
     <row r="457" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="27"/>
-      <c r="B457" s="27"/>
+      <c r="A457" s="26"/>
+      <c r="B457" s="26"/>
     </row>
     <row r="458" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="27"/>
-      <c r="B458" s="27"/>
+      <c r="A458" s="26"/>
+      <c r="B458" s="26"/>
     </row>
     <row r="459" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="27"/>
-      <c r="B459" s="27"/>
+      <c r="A459" s="26"/>
+      <c r="B459" s="26"/>
     </row>
     <row r="460" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="27"/>
-      <c r="B460" s="27"/>
+      <c r="A460" s="26"/>
+      <c r="B460" s="26"/>
     </row>
     <row r="461" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="27"/>
-      <c r="B461" s="27"/>
+      <c r="A461" s="26"/>
+      <c r="B461" s="26"/>
     </row>
     <row r="462" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="27"/>
-      <c r="B462" s="27"/>
+      <c r="A462" s="26"/>
+      <c r="B462" s="26"/>
     </row>
     <row r="463" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="27"/>
-      <c r="B463" s="27"/>
+      <c r="A463" s="26"/>
+      <c r="B463" s="26"/>
     </row>
     <row r="464" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="27"/>
-      <c r="B464" s="27"/>
+      <c r="A464" s="26"/>
+      <c r="B464" s="26"/>
     </row>
     <row r="465" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="27"/>
-      <c r="B465" s="27"/>
+      <c r="A465" s="26"/>
+      <c r="B465" s="26"/>
     </row>
     <row r="466" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="27"/>
-      <c r="B466" s="27"/>
+      <c r="A466" s="26"/>
+      <c r="B466" s="26"/>
     </row>
     <row r="467" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="27"/>
-      <c r="B467" s="27"/>
+      <c r="A467" s="26"/>
+      <c r="B467" s="26"/>
     </row>
     <row r="468" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="27"/>
-      <c r="B468" s="27"/>
+      <c r="A468" s="26"/>
+      <c r="B468" s="26"/>
     </row>
     <row r="469" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="27"/>
-      <c r="B469" s="27"/>
+      <c r="A469" s="26"/>
+      <c r="B469" s="26"/>
     </row>
     <row r="470" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="27"/>
-      <c r="B470" s="27"/>
+      <c r="A470" s="26"/>
+      <c r="B470" s="26"/>
     </row>
     <row r="471" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="27"/>
-      <c r="B471" s="27"/>
+      <c r="A471" s="26"/>
+      <c r="B471" s="26"/>
     </row>
     <row r="472" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="27"/>
-      <c r="B472" s="27"/>
+      <c r="A472" s="26"/>
+      <c r="B472" s="26"/>
     </row>
     <row r="473" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="27"/>
-      <c r="B473" s="27"/>
+      <c r="A473" s="26"/>
+      <c r="B473" s="26"/>
     </row>
     <row r="474" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="27"/>
-      <c r="B474" s="27"/>
+      <c r="A474" s="26"/>
+      <c r="B474" s="26"/>
     </row>
     <row r="475" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="27"/>
-      <c r="B475" s="27"/>
+      <c r="A475" s="26"/>
+      <c r="B475" s="26"/>
     </row>
     <row r="476" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="27"/>
-      <c r="B476" s="27"/>
+      <c r="A476" s="26"/>
+      <c r="B476" s="26"/>
     </row>
     <row r="477" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A477" s="27"/>
-      <c r="B477" s="27"/>
+      <c r="A477" s="26"/>
+      <c r="B477" s="26"/>
     </row>
     <row r="478" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A478" s="27"/>
-      <c r="B478" s="27"/>
+      <c r="A478" s="26"/>
+      <c r="B478" s="26"/>
     </row>
     <row r="479" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="27"/>
-      <c r="B479" s="27"/>
+      <c r="A479" s="26"/>
+      <c r="B479" s="26"/>
     </row>
     <row r="480" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="27"/>
-      <c r="B480" s="27"/>
+      <c r="A480" s="26"/>
+      <c r="B480" s="26"/>
     </row>
     <row r="481" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="27"/>
-      <c r="B481" s="27"/>
+      <c r="A481" s="26"/>
+      <c r="B481" s="26"/>
     </row>
     <row r="482" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="27"/>
-      <c r="B482" s="27"/>
+      <c r="A482" s="26"/>
+      <c r="B482" s="26"/>
     </row>
     <row r="483" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="27"/>
-      <c r="B483" s="27"/>
+      <c r="A483" s="26"/>
+      <c r="B483" s="26"/>
     </row>
     <row r="484" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="27"/>
-      <c r="B484" s="27"/>
+      <c r="A484" s="26"/>
+      <c r="B484" s="26"/>
     </row>
     <row r="485" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="27"/>
-      <c r="B485" s="27"/>
+      <c r="A485" s="26"/>
+      <c r="B485" s="26"/>
     </row>
     <row r="486" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="27"/>
-      <c r="B486" s="27"/>
+      <c r="A486" s="26"/>
+      <c r="B486" s="26"/>
     </row>
     <row r="487" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="27"/>
-      <c r="B487" s="27"/>
+      <c r="A487" s="26"/>
+      <c r="B487" s="26"/>
     </row>
     <row r="488" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A488" s="27"/>
-      <c r="B488" s="27"/>
+      <c r="A488" s="26"/>
+      <c r="B488" s="26"/>
     </row>
     <row r="489" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A489" s="27"/>
-      <c r="B489" s="27"/>
+      <c r="A489" s="26"/>
+      <c r="B489" s="26"/>
     </row>
     <row r="490" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="27"/>
-      <c r="B490" s="27"/>
+      <c r="A490" s="26"/>
+      <c r="B490" s="26"/>
     </row>
     <row r="491" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="27"/>
-      <c r="B491" s="27"/>
+      <c r="A491" s="26"/>
+      <c r="B491" s="26"/>
     </row>
     <row r="492" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="27"/>
-      <c r="B492" s="27"/>
+      <c r="A492" s="26"/>
+      <c r="B492" s="26"/>
     </row>
     <row r="493" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="27"/>
-      <c r="B493" s="27"/>
+      <c r="A493" s="26"/>
+      <c r="B493" s="26"/>
     </row>
     <row r="494" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="27"/>
-      <c r="B494" s="27"/>
+      <c r="A494" s="26"/>
+      <c r="B494" s="26"/>
     </row>
     <row r="495" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="27"/>
-      <c r="B495" s="27"/>
+      <c r="A495" s="26"/>
+      <c r="B495" s="26"/>
     </row>
     <row r="496" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="27"/>
-      <c r="B496" s="27"/>
+      <c r="A496" s="26"/>
+      <c r="B496" s="26"/>
     </row>
     <row r="497" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A497" s="27"/>
-      <c r="B497" s="27"/>
+      <c r="A497" s="26"/>
+      <c r="B497" s="26"/>
     </row>
     <row r="498" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A498" s="27"/>
-      <c r="B498" s="27"/>
+      <c r="A498" s="26"/>
+      <c r="B498" s="26"/>
     </row>
     <row r="499" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A499" s="27"/>
-      <c r="B499" s="27"/>
+      <c r="A499" s="26"/>
+      <c r="B499" s="26"/>
     </row>
     <row r="500" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A500" s="27"/>
-      <c r="B500" s="27"/>
+      <c r="A500" s="26"/>
+      <c r="B500" s="26"/>
     </row>
     <row r="501" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="27"/>
-      <c r="B501" s="27"/>
+      <c r="A501" s="26"/>
+      <c r="B501" s="26"/>
     </row>
     <row r="502" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="27"/>
-      <c r="B502" s="27"/>
+      <c r="A502" s="26"/>
+      <c r="B502" s="26"/>
     </row>
     <row r="503" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="27"/>
-      <c r="B503" s="27"/>
+      <c r="A503" s="26"/>
+      <c r="B503" s="26"/>
     </row>
     <row r="504" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A504" s="27"/>
-      <c r="B504" s="27"/>
+      <c r="A504" s="26"/>
+      <c r="B504" s="26"/>
     </row>
     <row r="505" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A505" s="27"/>
-      <c r="B505" s="27"/>
+      <c r="A505" s="26"/>
+      <c r="B505" s="26"/>
     </row>
     <row r="506" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A506" s="27"/>
-      <c r="B506" s="27"/>
+      <c r="A506" s="26"/>
+      <c r="B506" s="26"/>
     </row>
     <row r="507" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="27"/>
-      <c r="B507" s="27"/>
+      <c r="A507" s="26"/>
+      <c r="B507" s="26"/>
     </row>
     <row r="508" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A508" s="27"/>
-      <c r="B508" s="27"/>
+      <c r="A508" s="26"/>
+      <c r="B508" s="26"/>
     </row>
     <row r="509" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="27"/>
-      <c r="B509" s="27"/>
+      <c r="A509" s="26"/>
+      <c r="B509" s="26"/>
     </row>
     <row r="510" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="27"/>
-      <c r="B510" s="27"/>
+      <c r="A510" s="26"/>
+      <c r="B510" s="26"/>
     </row>
     <row r="511" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="27"/>
-      <c r="B511" s="27"/>
+      <c r="A511" s="26"/>
+      <c r="B511" s="26"/>
     </row>
     <row r="512" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A512" s="27"/>
-      <c r="B512" s="27"/>
+      <c r="A512" s="26"/>
+      <c r="B512" s="26"/>
     </row>
     <row r="513" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A513" s="27"/>
-      <c r="B513" s="27"/>
+      <c r="A513" s="26"/>
+      <c r="B513" s="26"/>
     </row>
     <row r="514" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="27"/>
-      <c r="B514" s="27"/>
+      <c r="A514" s="26"/>
+      <c r="B514" s="26"/>
     </row>
     <row r="515" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="27"/>
-      <c r="B515" s="27"/>
+      <c r="A515" s="26"/>
+      <c r="B515" s="26"/>
     </row>
     <row r="516" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="27"/>
-      <c r="B516" s="27"/>
+      <c r="A516" s="26"/>
+      <c r="B516" s="26"/>
     </row>
     <row r="517" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="27"/>
-      <c r="B517" s="27"/>
+      <c r="A517" s="26"/>
+      <c r="B517" s="26"/>
     </row>
     <row r="518" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="27"/>
-      <c r="B518" s="27"/>
+      <c r="A518" s="26"/>
+      <c r="B518" s="26"/>
     </row>
     <row r="519" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="27"/>
-      <c r="B519" s="27"/>
+      <c r="A519" s="26"/>
+      <c r="B519" s="26"/>
     </row>
     <row r="520" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="27"/>
-      <c r="B520" s="27"/>
+      <c r="A520" s="26"/>
+      <c r="B520" s="26"/>
     </row>
     <row r="521" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="27"/>
-      <c r="B521" s="27"/>
+      <c r="A521" s="26"/>
+      <c r="B521" s="26"/>
     </row>
     <row r="522" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="27"/>
-      <c r="B522" s="27"/>
+      <c r="A522" s="26"/>
+      <c r="B522" s="26"/>
     </row>
     <row r="523" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="27"/>
-      <c r="B523" s="27"/>
+      <c r="A523" s="26"/>
+      <c r="B523" s="26"/>
     </row>
     <row r="524" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="27"/>
-      <c r="B524" s="27"/>
+      <c r="A524" s="26"/>
+      <c r="B524" s="26"/>
     </row>
     <row r="525" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="27"/>
-      <c r="B525" s="27"/>
+      <c r="A525" s="26"/>
+      <c r="B525" s="26"/>
     </row>
     <row r="526" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="27"/>
-      <c r="B526" s="27"/>
+      <c r="A526" s="26"/>
+      <c r="B526" s="26"/>
     </row>
     <row r="527" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="27"/>
-      <c r="B527" s="27"/>
+      <c r="A527" s="26"/>
+      <c r="B527" s="26"/>
     </row>
     <row r="528" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="27"/>
-      <c r="B528" s="27"/>
+      <c r="A528" s="26"/>
+      <c r="B528" s="26"/>
     </row>
     <row r="529" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="27"/>
-      <c r="B529" s="27"/>
+      <c r="A529" s="26"/>
+      <c r="B529" s="26"/>
     </row>
     <row r="530" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="27"/>
-      <c r="B530" s="27"/>
+      <c r="A530" s="26"/>
+      <c r="B530" s="26"/>
     </row>
     <row r="531" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="27"/>
-      <c r="B531" s="27"/>
+      <c r="A531" s="26"/>
+      <c r="B531" s="26"/>
     </row>
     <row r="532" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="27"/>
-      <c r="B532" s="27"/>
+      <c r="A532" s="26"/>
+      <c r="B532" s="26"/>
     </row>
     <row r="533" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="27"/>
-      <c r="B533" s="27"/>
+      <c r="A533" s="26"/>
+      <c r="B533" s="26"/>
     </row>
     <row r="534" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="27"/>
-      <c r="B534" s="27"/>
+      <c r="A534" s="26"/>
+      <c r="B534" s="26"/>
     </row>
     <row r="535" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="27"/>
-      <c r="B535" s="27"/>
+      <c r="A535" s="26"/>
+      <c r="B535" s="26"/>
     </row>
     <row r="536" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="27"/>
-      <c r="B536" s="27"/>
+      <c r="A536" s="26"/>
+      <c r="B536" s="26"/>
     </row>
     <row r="537" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="27"/>
-      <c r="B537" s="27"/>
+      <c r="A537" s="26"/>
+      <c r="B537" s="26"/>
     </row>
     <row r="538" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A538" s="27"/>
-      <c r="B538" s="27"/>
+      <c r="A538" s="26"/>
+      <c r="B538" s="26"/>
     </row>
     <row r="539" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="27"/>
-      <c r="B539" s="27"/>
+      <c r="A539" s="26"/>
+      <c r="B539" s="26"/>
     </row>
     <row r="540" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="27"/>
-      <c r="B540" s="27"/>
+      <c r="A540" s="26"/>
+      <c r="B540" s="26"/>
     </row>
     <row r="541" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A541" s="27"/>
-      <c r="B541" s="27"/>
+      <c r="A541" s="26"/>
+      <c r="B541" s="26"/>
     </row>
     <row r="542" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A542" s="27"/>
-      <c r="B542" s="27"/>
+      <c r="A542" s="26"/>
+      <c r="B542" s="26"/>
     </row>
     <row r="543" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A543" s="27"/>
-      <c r="B543" s="27"/>
+      <c r="A543" s="26"/>
+      <c r="B543" s="26"/>
     </row>
     <row r="544" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="27"/>
-      <c r="B544" s="27"/>
+      <c r="A544" s="26"/>
+      <c r="B544" s="26"/>
     </row>
     <row r="545" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A545" s="27"/>
-      <c r="B545" s="27"/>
+      <c r="A545" s="26"/>
+      <c r="B545" s="26"/>
     </row>
     <row r="546" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A546" s="27"/>
-      <c r="B546" s="27"/>
+      <c r="A546" s="26"/>
+      <c r="B546" s="26"/>
     </row>
     <row r="547" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="27"/>
-      <c r="B547" s="27"/>
+      <c r="A547" s="26"/>
+      <c r="B547" s="26"/>
     </row>
     <row r="548" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="27"/>
-      <c r="B548" s="27"/>
+      <c r="A548" s="26"/>
+      <c r="B548" s="26"/>
     </row>
     <row r="549" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A549" s="27"/>
-      <c r="B549" s="27"/>
+      <c r="A549" s="26"/>
+      <c r="B549" s="26"/>
     </row>
     <row r="550" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="27"/>
-      <c r="B550" s="27"/>
+      <c r="A550" s="26"/>
+      <c r="B550" s="26"/>
     </row>
     <row r="551" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A551" s="27"/>
-      <c r="B551" s="27"/>
+      <c r="A551" s="26"/>
+      <c r="B551" s="26"/>
     </row>
     <row r="552" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="27"/>
-      <c r="B552" s="27"/>
+      <c r="A552" s="26"/>
+      <c r="B552" s="26"/>
     </row>
     <row r="553" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="27"/>
-      <c r="B553" s="27"/>
+      <c r="A553" s="26"/>
+      <c r="B553" s="26"/>
     </row>
     <row r="554" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="27"/>
-      <c r="B554" s="27"/>
+      <c r="A554" s="26"/>
+      <c r="B554" s="26"/>
     </row>
     <row r="555" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="27"/>
-      <c r="B555" s="27"/>
+      <c r="A555" s="26"/>
+      <c r="B555" s="26"/>
     </row>
     <row r="556" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="27"/>
-      <c r="B556" s="27"/>
+      <c r="A556" s="26"/>
+      <c r="B556" s="26"/>
     </row>
     <row r="557" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="27"/>
-      <c r="B557" s="27"/>
+      <c r="A557" s="26"/>
+      <c r="B557" s="26"/>
     </row>
     <row r="558" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A558" s="27"/>
-      <c r="B558" s="27"/>
+      <c r="A558" s="26"/>
+      <c r="B558" s="26"/>
     </row>
     <row r="559" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A559" s="27"/>
-      <c r="B559" s="27"/>
+      <c r="A559" s="26"/>
+      <c r="B559" s="26"/>
     </row>
     <row r="560" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A560" s="27"/>
-      <c r="B560" s="27"/>
+      <c r="A560" s="26"/>
+      <c r="B560" s="26"/>
     </row>
     <row r="561" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="27"/>
-      <c r="B561" s="27"/>
+      <c r="A561" s="26"/>
+      <c r="B561" s="26"/>
     </row>
     <row r="562" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A562" s="27"/>
-      <c r="B562" s="27"/>
+      <c r="A562" s="26"/>
+      <c r="B562" s="26"/>
     </row>
     <row r="563" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A563" s="27"/>
-      <c r="B563" s="27"/>
+      <c r="A563" s="26"/>
+      <c r="B563" s="26"/>
     </row>
     <row r="564" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A564" s="27"/>
-      <c r="B564" s="27"/>
+      <c r="A564" s="26"/>
+      <c r="B564" s="26"/>
     </row>
     <row r="565" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A565" s="27"/>
-      <c r="B565" s="27"/>
+      <c r="A565" s="26"/>
+      <c r="B565" s="26"/>
     </row>
     <row r="566" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A566" s="27"/>
-      <c r="B566" s="27"/>
+      <c r="A566" s="26"/>
+      <c r="B566" s="26"/>
     </row>
     <row r="567" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="27"/>
-      <c r="B567" s="27"/>
+      <c r="A567" s="26"/>
+      <c r="B567" s="26"/>
     </row>
     <row r="568" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="27"/>
-      <c r="B568" s="27"/>
+      <c r="A568" s="26"/>
+      <c r="B568" s="26"/>
     </row>
     <row r="569" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="27"/>
-      <c r="B569" s="27"/>
+      <c r="A569" s="26"/>
+      <c r="B569" s="26"/>
     </row>
     <row r="570" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A570" s="27"/>
-      <c r="B570" s="27"/>
+      <c r="A570" s="26"/>
+      <c r="B570" s="26"/>
     </row>
     <row r="571" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="27"/>
-      <c r="B571" s="27"/>
+      <c r="A571" s="26"/>
+      <c r="B571" s="26"/>
     </row>
     <row r="572" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A572" s="27"/>
-      <c r="B572" s="27"/>
+      <c r="A572" s="26"/>
+      <c r="B572" s="26"/>
     </row>
     <row r="573" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A573" s="27"/>
-      <c r="B573" s="27"/>
+      <c r="A573" s="26"/>
+      <c r="B573" s="26"/>
     </row>
     <row r="574" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A574" s="27"/>
-      <c r="B574" s="27"/>
+      <c r="A574" s="26"/>
+      <c r="B574" s="26"/>
     </row>
     <row r="575" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A575" s="27"/>
-      <c r="B575" s="27"/>
+      <c r="A575" s="26"/>
+      <c r="B575" s="26"/>
     </row>
     <row r="576" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A576" s="27"/>
-      <c r="B576" s="27"/>
+      <c r="A576" s="26"/>
+      <c r="B576" s="26"/>
     </row>
     <row r="577" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A577" s="27"/>
-      <c r="B577" s="27"/>
+      <c r="A577" s="26"/>
+      <c r="B577" s="26"/>
     </row>
     <row r="578" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="27"/>
-      <c r="B578" s="27"/>
+      <c r="A578" s="26"/>
+      <c r="B578" s="26"/>
     </row>
     <row r="579" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A579" s="27"/>
-      <c r="B579" s="27"/>
+      <c r="A579" s="26"/>
+      <c r="B579" s="26"/>
     </row>
     <row r="580" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A580" s="27"/>
-      <c r="B580" s="27"/>
+      <c r="A580" s="26"/>
+      <c r="B580" s="26"/>
     </row>
     <row r="581" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A581" s="27"/>
-      <c r="B581" s="27"/>
+      <c r="A581" s="26"/>
+      <c r="B581" s="26"/>
     </row>
     <row r="582" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A582" s="27"/>
-      <c r="B582" s="27"/>
+      <c r="A582" s="26"/>
+      <c r="B582" s="26"/>
     </row>
     <row r="583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="27"/>
-      <c r="B583" s="27"/>
+      <c r="A583" s="26"/>
+      <c r="B583" s="26"/>
     </row>
     <row r="584" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A584" s="27"/>
-      <c r="B584" s="27"/>
+      <c r="A584" s="26"/>
+      <c r="B584" s="26"/>
     </row>
     <row r="585" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A585" s="27"/>
-      <c r="B585" s="27"/>
+      <c r="A585" s="26"/>
+      <c r="B585" s="26"/>
     </row>
     <row r="586" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A586" s="27"/>
-      <c r="B586" s="27"/>
+      <c r="A586" s="26"/>
+      <c r="B586" s="26"/>
     </row>
     <row r="587" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="27"/>
-      <c r="B587" s="27"/>
+      <c r="A587" s="26"/>
+      <c r="B587" s="26"/>
     </row>
     <row r="588" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A588" s="27"/>
-      <c r="B588" s="27"/>
+      <c r="A588" s="26"/>
+      <c r="B588" s="26"/>
     </row>
     <row r="589" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="27"/>
-      <c r="B589" s="27"/>
+      <c r="A589" s="26"/>
+      <c r="B589" s="26"/>
     </row>
     <row r="590" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="27"/>
-      <c r="B590" s="27"/>
+      <c r="A590" s="26"/>
+      <c r="B590" s="26"/>
     </row>
     <row r="591" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="27"/>
-      <c r="B591" s="27"/>
+      <c r="A591" s="26"/>
+      <c r="B591" s="26"/>
     </row>
     <row r="592" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="27"/>
-      <c r="B592" s="27"/>
+      <c r="A592" s="26"/>
+      <c r="B592" s="26"/>
     </row>
     <row r="593" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="27"/>
-      <c r="B593" s="27"/>
+      <c r="A593" s="26"/>
+      <c r="B593" s="26"/>
     </row>
     <row r="594" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A594" s="27"/>
-      <c r="B594" s="27"/>
+      <c r="A594" s="26"/>
+      <c r="B594" s="26"/>
     </row>
     <row r="595" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A595" s="27"/>
-      <c r="B595" s="27"/>
+      <c r="A595" s="26"/>
+      <c r="B595" s="26"/>
     </row>
     <row r="596" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A596" s="27"/>
-      <c r="B596" s="27"/>
+      <c r="A596" s="26"/>
+      <c r="B596" s="26"/>
     </row>
     <row r="597" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A597" s="27"/>
-      <c r="B597" s="27"/>
+      <c r="A597" s="26"/>
+      <c r="B597" s="26"/>
     </row>
     <row r="598" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A598" s="27"/>
-      <c r="B598" s="27"/>
+      <c r="A598" s="26"/>
+      <c r="B598" s="26"/>
     </row>
     <row r="599" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A599" s="27"/>
-      <c r="B599" s="27"/>
+      <c r="A599" s="26"/>
+      <c r="B599" s="26"/>
     </row>
     <row r="600" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A600" s="27"/>
-      <c r="B600" s="27"/>
+      <c r="A600" s="26"/>
+      <c r="B600" s="26"/>
     </row>
     <row r="601" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="27"/>
-      <c r="B601" s="27"/>
+      <c r="A601" s="26"/>
+      <c r="B601" s="26"/>
     </row>
     <row r="602" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="27"/>
-      <c r="B602" s="27"/>
+      <c r="A602" s="26"/>
+      <c r="B602" s="26"/>
     </row>
     <row r="603" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="27"/>
-      <c r="B603" s="27"/>
+      <c r="A603" s="26"/>
+      <c r="B603" s="26"/>
     </row>
     <row r="604" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="27"/>
-      <c r="B604" s="27"/>
+      <c r="A604" s="26"/>
+      <c r="B604" s="26"/>
     </row>
     <row r="605" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="27"/>
-      <c r="B605" s="27"/>
+      <c r="A605" s="26"/>
+      <c r="B605" s="26"/>
     </row>
     <row r="606" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A606" s="27"/>
-      <c r="B606" s="27"/>
+      <c r="A606" s="26"/>
+      <c r="B606" s="26"/>
     </row>
     <row r="607" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A607" s="27"/>
-      <c r="B607" s="27"/>
+      <c r="A607" s="26"/>
+      <c r="B607" s="26"/>
     </row>
     <row r="608" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="27"/>
-      <c r="B608" s="27"/>
+      <c r="A608" s="26"/>
+      <c r="B608" s="26"/>
     </row>
     <row r="609" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A609" s="27"/>
-      <c r="B609" s="27"/>
+      <c r="A609" s="26"/>
+      <c r="B609" s="26"/>
     </row>
     <row r="610" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A610" s="27"/>
-      <c r="B610" s="27"/>
+      <c r="A610" s="26"/>
+      <c r="B610" s="26"/>
     </row>
     <row r="611" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A611" s="27"/>
-      <c r="B611" s="27"/>
+      <c r="A611" s="26"/>
+      <c r="B611" s="26"/>
     </row>
     <row r="612" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A612" s="27"/>
-      <c r="B612" s="27"/>
+      <c r="A612" s="26"/>
+      <c r="B612" s="26"/>
     </row>
     <row r="613" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A613" s="27"/>
-      <c r="B613" s="27"/>
+      <c r="A613" s="26"/>
+      <c r="B613" s="26"/>
     </row>
     <row r="614" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="27"/>
-      <c r="B614" s="27"/>
+      <c r="A614" s="26"/>
+      <c r="B614" s="26"/>
     </row>
     <row r="615" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A615" s="27"/>
-      <c r="B615" s="27"/>
+      <c r="A615" s="26"/>
+      <c r="B615" s="26"/>
     </row>
     <row r="616" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="27"/>
-      <c r="B616" s="27"/>
+      <c r="A616" s="26"/>
+      <c r="B616" s="26"/>
     </row>
     <row r="617" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A617" s="27"/>
-      <c r="B617" s="27"/>
+      <c r="A617" s="26"/>
+      <c r="B617" s="26"/>
     </row>
     <row r="618" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A618" s="27"/>
-      <c r="B618" s="27"/>
+      <c r="A618" s="26"/>
+      <c r="B618" s="26"/>
     </row>
     <row r="619" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A619" s="27"/>
-      <c r="B619" s="27"/>
+      <c r="A619" s="26"/>
+      <c r="B619" s="26"/>
     </row>
     <row r="620" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A620" s="27"/>
-      <c r="B620" s="27"/>
+      <c r="A620" s="26"/>
+      <c r="B620" s="26"/>
     </row>
     <row r="621" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="27"/>
-      <c r="B621" s="27"/>
+      <c r="A621" s="26"/>
+      <c r="B621" s="26"/>
     </row>
     <row r="622" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A622" s="27"/>
-      <c r="B622" s="27"/>
+      <c r="A622" s="26"/>
+      <c r="B622" s="26"/>
     </row>
     <row r="623" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="27"/>
-      <c r="B623" s="27"/>
+      <c r="A623" s="26"/>
+      <c r="B623" s="26"/>
     </row>
     <row r="624" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A624" s="27"/>
-      <c r="B624" s="27"/>
+      <c r="A624" s="26"/>
+      <c r="B624" s="26"/>
     </row>
     <row r="625" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A625" s="27"/>
-      <c r="B625" s="27"/>
+      <c r="A625" s="26"/>
+      <c r="B625" s="26"/>
     </row>
     <row r="626" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A626" s="27"/>
-      <c r="B626" s="27"/>
+      <c r="A626" s="26"/>
+      <c r="B626" s="26"/>
     </row>
     <row r="627" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A627" s="27"/>
-      <c r="B627" s="27"/>
+      <c r="A627" s="26"/>
+      <c r="B627" s="26"/>
     </row>
     <row r="628" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A628" s="27"/>
-      <c r="B628" s="27"/>
+      <c r="A628" s="26"/>
+      <c r="B628" s="26"/>
     </row>
     <row r="629" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A629" s="27"/>
-      <c r="B629" s="27"/>
+      <c r="A629" s="26"/>
+      <c r="B629" s="26"/>
     </row>
     <row r="630" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A630" s="27"/>
-      <c r="B630" s="27"/>
+      <c r="A630" s="26"/>
+      <c r="B630" s="26"/>
     </row>
     <row r="631" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A631" s="27"/>
-      <c r="B631" s="27"/>
+      <c r="A631" s="26"/>
+      <c r="B631" s="26"/>
     </row>
     <row r="632" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A632" s="27"/>
-      <c r="B632" s="27"/>
+      <c r="A632" s="26"/>
+      <c r="B632" s="26"/>
     </row>
     <row r="633" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="27"/>
-      <c r="B633" s="27"/>
+      <c r="A633" s="26"/>
+      <c r="B633" s="26"/>
     </row>
     <row r="634" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A634" s="27"/>
-      <c r="B634" s="27"/>
+      <c r="A634" s="26"/>
+      <c r="B634" s="26"/>
     </row>
     <row r="635" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A635" s="27"/>
-      <c r="B635" s="27"/>
+      <c r="A635" s="26"/>
+      <c r="B635" s="26"/>
     </row>
     <row r="636" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A636" s="27"/>
-      <c r="B636" s="27"/>
+      <c r="A636" s="26"/>
+      <c r="B636" s="26"/>
     </row>
     <row r="637" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A637" s="27"/>
-      <c r="B637" s="27"/>
+      <c r="A637" s="26"/>
+      <c r="B637" s="26"/>
     </row>
     <row r="638" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A638" s="27"/>
-      <c r="B638" s="27"/>
+      <c r="A638" s="26"/>
+      <c r="B638" s="26"/>
     </row>
     <row r="639" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A639" s="27"/>
-      <c r="B639" s="27"/>
+      <c r="A639" s="26"/>
+      <c r="B639" s="26"/>
     </row>
     <row r="640" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A640" s="27"/>
-      <c r="B640" s="27"/>
+      <c r="A640" s="26"/>
+      <c r="B640" s="26"/>
     </row>
     <row r="641" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A641" s="27"/>
-      <c r="B641" s="27"/>
+      <c r="A641" s="26"/>
+      <c r="B641" s="26"/>
     </row>
     <row r="642" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A642" s="27"/>
-      <c r="B642" s="27"/>
+      <c r="A642" s="26"/>
+      <c r="B642" s="26"/>
     </row>
     <row r="643" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A643" s="27"/>
-      <c r="B643" s="27"/>
+      <c r="A643" s="26"/>
+      <c r="B643" s="26"/>
     </row>
     <row r="644" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A644" s="27"/>
-      <c r="B644" s="27"/>
+      <c r="A644" s="26"/>
+      <c r="B644" s="26"/>
     </row>
     <row r="645" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A645" s="27"/>
-      <c r="B645" s="27"/>
+      <c r="A645" s="26"/>
+      <c r="B645" s="26"/>
     </row>
     <row r="646" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A646" s="27"/>
-      <c r="B646" s="27"/>
+      <c r="A646" s="26"/>
+      <c r="B646" s="26"/>
     </row>
     <row r="647" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A647" s="27"/>
-      <c r="B647" s="27"/>
+      <c r="A647" s="26"/>
+      <c r="B647" s="26"/>
     </row>
     <row r="648" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A648" s="27"/>
-      <c r="B648" s="27"/>
+      <c r="A648" s="26"/>
+      <c r="B648" s="26"/>
     </row>
     <row r="649" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A649" s="27"/>
-      <c r="B649" s="27"/>
+      <c r="A649" s="26"/>
+      <c r="B649" s="26"/>
     </row>
     <row r="650" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A650" s="27"/>
-      <c r="B650" s="27"/>
+      <c r="A650" s="26"/>
+      <c r="B650" s="26"/>
     </row>
     <row r="651" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A651" s="27"/>
-      <c r="B651" s="27"/>
+      <c r="A651" s="26"/>
+      <c r="B651" s="26"/>
     </row>
     <row r="652" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A652" s="27"/>
-      <c r="B652" s="27"/>
+      <c r="A652" s="26"/>
+      <c r="B652" s="26"/>
     </row>
     <row r="653" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A653" s="27"/>
-      <c r="B653" s="27"/>
+      <c r="A653" s="26"/>
+      <c r="B653" s="26"/>
     </row>
     <row r="654" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A654" s="27"/>
-      <c r="B654" s="27"/>
+      <c r="A654" s="26"/>
+      <c r="B654" s="26"/>
     </row>
     <row r="655" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A655" s="27"/>
-      <c r="B655" s="27"/>
+      <c r="A655" s="26"/>
+      <c r="B655" s="26"/>
     </row>
     <row r="656" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A656" s="27"/>
-      <c r="B656" s="27"/>
+      <c r="A656" s="26"/>
+      <c r="B656" s="26"/>
     </row>
     <row r="657" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A657" s="27"/>
-      <c r="B657" s="27"/>
+      <c r="A657" s="26"/>
+      <c r="B657" s="26"/>
     </row>
     <row r="658" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A658" s="27"/>
-      <c r="B658" s="27"/>
+      <c r="A658" s="26"/>
+      <c r="B658" s="26"/>
     </row>
     <row r="659" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A659" s="27"/>
-      <c r="B659" s="27"/>
+      <c r="A659" s="26"/>
+      <c r="B659" s="26"/>
     </row>
     <row r="660" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A660" s="27"/>
-      <c r="B660" s="27"/>
+      <c r="A660" s="26"/>
+      <c r="B660" s="26"/>
     </row>
     <row r="661" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A661" s="27"/>
-      <c r="B661" s="27"/>
+      <c r="A661" s="26"/>
+      <c r="B661" s="26"/>
     </row>
     <row r="662" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A662" s="27"/>
-      <c r="B662" s="27"/>
+      <c r="A662" s="26"/>
+      <c r="B662" s="26"/>
     </row>
     <row r="663" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A663" s="27"/>
-      <c r="B663" s="27"/>
+      <c r="A663" s="26"/>
+      <c r="B663" s="26"/>
     </row>
     <row r="664" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A664" s="27"/>
-      <c r="B664" s="27"/>
+      <c r="A664" s="26"/>
+      <c r="B664" s="26"/>
     </row>
     <row r="665" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A665" s="27"/>
-      <c r="B665" s="27"/>
+      <c r="A665" s="26"/>
+      <c r="B665" s="26"/>
     </row>
     <row r="666" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A666" s="27"/>
-      <c r="B666" s="27"/>
+      <c r="A666" s="26"/>
+      <c r="B666" s="26"/>
     </row>
     <row r="667" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A667" s="27"/>
-      <c r="B667" s="27"/>
+      <c r="A667" s="26"/>
+      <c r="B667" s="26"/>
     </row>
     <row r="668" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A668" s="27"/>
-      <c r="B668" s="27"/>
+      <c r="A668" s="26"/>
+      <c r="B668" s="26"/>
     </row>
     <row r="669" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A669" s="27"/>
-      <c r="B669" s="27"/>
+      <c r="A669" s="26"/>
+      <c r="B669" s="26"/>
     </row>
     <row r="670" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A670" s="27"/>
-      <c r="B670" s="27"/>
+      <c r="A670" s="26"/>
+      <c r="B670" s="26"/>
     </row>
     <row r="671" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A671" s="27"/>
-      <c r="B671" s="27"/>
+      <c r="A671" s="26"/>
+      <c r="B671" s="26"/>
     </row>
     <row r="672" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A672" s="27"/>
-      <c r="B672" s="27"/>
+      <c r="A672" s="26"/>
+      <c r="B672" s="26"/>
     </row>
     <row r="673" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A673" s="27"/>
-      <c r="B673" s="27"/>
+      <c r="A673" s="26"/>
+      <c r="B673" s="26"/>
     </row>
     <row r="674" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A674" s="27"/>
-      <c r="B674" s="27"/>
+      <c r="A674" s="26"/>
+      <c r="B674" s="26"/>
     </row>
     <row r="675" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A675" s="27"/>
-      <c r="B675" s="27"/>
+      <c r="A675" s="26"/>
+      <c r="B675" s="26"/>
     </row>
     <row r="676" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A676" s="27"/>
-      <c r="B676" s="27"/>
+      <c r="A676" s="26"/>
+      <c r="B676" s="26"/>
     </row>
     <row r="677" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A677" s="27"/>
-      <c r="B677" s="27"/>
+      <c r="A677" s="26"/>
+      <c r="B677" s="26"/>
     </row>
     <row r="678" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A678" s="27"/>
-      <c r="B678" s="27"/>
+      <c r="A678" s="26"/>
+      <c r="B678" s="26"/>
     </row>
     <row r="679" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A679" s="27"/>
-      <c r="B679" s="27"/>
+      <c r="A679" s="26"/>
+      <c r="B679" s="26"/>
     </row>
     <row r="680" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A680" s="27"/>
-      <c r="B680" s="27"/>
+      <c r="A680" s="26"/>
+      <c r="B680" s="26"/>
     </row>
     <row r="681" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A681" s="27"/>
-      <c r="B681" s="27"/>
+      <c r="A681" s="26"/>
+      <c r="B681" s="26"/>
     </row>
     <row r="682" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A682" s="27"/>
-      <c r="B682" s="27"/>
+      <c r="A682" s="26"/>
+      <c r="B682" s="26"/>
     </row>
     <row r="683" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A683" s="27"/>
-      <c r="B683" s="27"/>
+      <c r="A683" s="26"/>
+      <c r="B683" s="26"/>
     </row>
     <row r="684" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A684" s="27"/>
-      <c r="B684" s="27"/>
+      <c r="A684" s="26"/>
+      <c r="B684" s="26"/>
     </row>
     <row r="685" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A685" s="27"/>
-      <c r="B685" s="27"/>
+      <c r="A685" s="26"/>
+      <c r="B685" s="26"/>
     </row>
     <row r="686" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A686" s="27"/>
-      <c r="B686" s="27"/>
+      <c r="A686" s="26"/>
+      <c r="B686" s="26"/>
     </row>
     <row r="687" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A687" s="27"/>
-      <c r="B687" s="27"/>
+      <c r="A687" s="26"/>
+      <c r="B687" s="26"/>
     </row>
     <row r="688" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A688" s="27"/>
-      <c r="B688" s="27"/>
+      <c r="A688" s="26"/>
+      <c r="B688" s="26"/>
     </row>
     <row r="689" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A689" s="27"/>
-      <c r="B689" s="27"/>
+      <c r="A689" s="26"/>
+      <c r="B689" s="26"/>
     </row>
     <row r="690" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A690" s="27"/>
-      <c r="B690" s="27"/>
+      <c r="A690" s="26"/>
+      <c r="B690" s="26"/>
     </row>
     <row r="691" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A691" s="27"/>
-      <c r="B691" s="27"/>
+      <c r="A691" s="26"/>
+      <c r="B691" s="26"/>
     </row>
     <row r="692" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A692" s="27"/>
-      <c r="B692" s="27"/>
+      <c r="A692" s="26"/>
+      <c r="B692" s="26"/>
     </row>
     <row r="693" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A693" s="27"/>
-      <c r="B693" s="27"/>
+      <c r="A693" s="26"/>
+      <c r="B693" s="26"/>
     </row>
     <row r="694" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A694" s="27"/>
-      <c r="B694" s="27"/>
+      <c r="A694" s="26"/>
+      <c r="B694" s="26"/>
     </row>
     <row r="695" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A695" s="27"/>
-      <c r="B695" s="27"/>
+      <c r="A695" s="26"/>
+      <c r="B695" s="26"/>
     </row>
     <row r="696" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A696" s="27"/>
-      <c r="B696" s="27"/>
+      <c r="A696" s="26"/>
+      <c r="B696" s="26"/>
     </row>
     <row r="697" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A697" s="27"/>
-      <c r="B697" s="27"/>
+      <c r="A697" s="26"/>
+      <c r="B697" s="26"/>
     </row>
     <row r="698" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A698" s="27"/>
-      <c r="B698" s="27"/>
+      <c r="A698" s="26"/>
+      <c r="B698" s="26"/>
     </row>
     <row r="699" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A699" s="27"/>
-      <c r="B699" s="27"/>
+      <c r="A699" s="26"/>
+      <c r="B699" s="26"/>
     </row>
     <row r="700" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A700" s="27"/>
-      <c r="B700" s="27"/>
+      <c r="A700" s="26"/>
+      <c r="B700" s="26"/>
     </row>
     <row r="701" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A701" s="27"/>
-      <c r="B701" s="27"/>
+      <c r="A701" s="26"/>
+      <c r="B701" s="26"/>
     </row>
     <row r="702" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A702" s="27"/>
-      <c r="B702" s="27"/>
+      <c r="A702" s="26"/>
+      <c r="B702" s="26"/>
     </row>
     <row r="703" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A703" s="27"/>
-      <c r="B703" s="27"/>
+      <c r="A703" s="26"/>
+      <c r="B703" s="26"/>
     </row>
     <row r="704" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A704" s="27"/>
-      <c r="B704" s="27"/>
+      <c r="A704" s="26"/>
+      <c r="B704" s="26"/>
     </row>
     <row r="705" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A705" s="27"/>
-      <c r="B705" s="27"/>
+      <c r="A705" s="26"/>
+      <c r="B705" s="26"/>
     </row>
     <row r="706" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A706" s="27"/>
-      <c r="B706" s="27"/>
+      <c r="A706" s="26"/>
+      <c r="B706" s="26"/>
     </row>
     <row r="707" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A707" s="27"/>
-      <c r="B707" s="27"/>
+      <c r="A707" s="26"/>
+      <c r="B707" s="26"/>
     </row>
     <row r="708" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A708" s="27"/>
-      <c r="B708" s="27"/>
+      <c r="A708" s="26"/>
+      <c r="B708" s="26"/>
     </row>
     <row r="709" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A709" s="27"/>
-      <c r="B709" s="27"/>
+      <c r="A709" s="26"/>
+      <c r="B709" s="26"/>
     </row>
     <row r="710" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A710" s="27"/>
-      <c r="B710" s="27"/>
+      <c r="A710" s="26"/>
+      <c r="B710" s="26"/>
     </row>
     <row r="711" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A711" s="27"/>
-      <c r="B711" s="27"/>
+      <c r="A711" s="26"/>
+      <c r="B711" s="26"/>
     </row>
     <row r="712" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A712" s="27"/>
-      <c r="B712" s="27"/>
+      <c r="A712" s="26"/>
+      <c r="B712" s="26"/>
     </row>
     <row r="713" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A713" s="27"/>
-      <c r="B713" s="27"/>
+      <c r="A713" s="26"/>
+      <c r="B713" s="26"/>
     </row>
     <row r="714" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A714" s="27"/>
-      <c r="B714" s="27"/>
+      <c r="A714" s="26"/>
+      <c r="B714" s="26"/>
     </row>
     <row r="715" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A715" s="27"/>
-      <c r="B715" s="27"/>
+      <c r="A715" s="26"/>
+      <c r="B715" s="26"/>
     </row>
     <row r="716" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A716" s="27"/>
-      <c r="B716" s="27"/>
+      <c r="A716" s="26"/>
+      <c r="B716" s="26"/>
     </row>
     <row r="717" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="27"/>
-      <c r="B717" s="27"/>
+      <c r="A717" s="26"/>
+      <c r="B717" s="26"/>
     </row>
     <row r="718" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A718" s="27"/>
-      <c r="B718" s="27"/>
+      <c r="A718" s="26"/>
+      <c r="B718" s="26"/>
     </row>
     <row r="719" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A719" s="27"/>
-      <c r="B719" s="27"/>
+      <c r="A719" s="26"/>
+      <c r="B719" s="26"/>
     </row>
     <row r="720" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A720" s="27"/>
-      <c r="B720" s="27"/>
+      <c r="A720" s="26"/>
+      <c r="B720" s="26"/>
     </row>
     <row r="721" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A721" s="27"/>
-      <c r="B721" s="27"/>
+      <c r="A721" s="26"/>
+      <c r="B721" s="26"/>
     </row>
     <row r="722" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A722" s="27"/>
-      <c r="B722" s="27"/>
+      <c r="A722" s="26"/>
+      <c r="B722" s="26"/>
     </row>
     <row r="723" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A723" s="27"/>
-      <c r="B723" s="27"/>
+      <c r="A723" s="26"/>
+      <c r="B723" s="26"/>
     </row>
     <row r="724" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A724" s="27"/>
-      <c r="B724" s="27"/>
+      <c r="A724" s="26"/>
+      <c r="B724" s="26"/>
     </row>
     <row r="725" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A725" s="27"/>
-      <c r="B725" s="27"/>
+      <c r="A725" s="26"/>
+      <c r="B725" s="26"/>
     </row>
     <row r="726" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A726" s="27"/>
-      <c r="B726" s="27"/>
+      <c r="A726" s="26"/>
+      <c r="B726" s="26"/>
     </row>
     <row r="727" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A727" s="27"/>
-      <c r="B727" s="27"/>
+      <c r="A727" s="26"/>
+      <c r="B727" s="26"/>
     </row>
     <row r="728" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A728" s="27"/>
-      <c r="B728" s="27"/>
+      <c r="A728" s="26"/>
+      <c r="B728" s="26"/>
     </row>
     <row r="729" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A729" s="27"/>
-      <c r="B729" s="27"/>
+      <c r="A729" s="26"/>
+      <c r="B729" s="26"/>
     </row>
     <row r="730" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A730" s="27"/>
-      <c r="B730" s="27"/>
+      <c r="A730" s="26"/>
+      <c r="B730" s="26"/>
     </row>
     <row r="731" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A731" s="27"/>
-      <c r="B731" s="27"/>
+      <c r="A731" s="26"/>
+      <c r="B731" s="26"/>
     </row>
     <row r="732" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A732" s="27"/>
-      <c r="B732" s="27"/>
+      <c r="A732" s="26"/>
+      <c r="B732" s="26"/>
     </row>
     <row r="733" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A733" s="27"/>
-      <c r="B733" s="27"/>
+      <c r="A733" s="26"/>
+      <c r="B733" s="26"/>
     </row>
     <row r="734" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A734" s="27"/>
-      <c r="B734" s="27"/>
+      <c r="A734" s="26"/>
+      <c r="B734" s="26"/>
     </row>
     <row r="735" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A735" s="27"/>
-      <c r="B735" s="27"/>
+      <c r="A735" s="26"/>
+      <c r="B735" s="26"/>
     </row>
     <row r="736" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A736" s="27"/>
-      <c r="B736" s="27"/>
+      <c r="A736" s="26"/>
+      <c r="B736" s="26"/>
     </row>
     <row r="737" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A737" s="27"/>
-      <c r="B737" s="27"/>
+      <c r="A737" s="26"/>
+      <c r="B737" s="26"/>
     </row>
     <row r="738" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A738" s="27"/>
-      <c r="B738" s="27"/>
+      <c r="A738" s="26"/>
+      <c r="B738" s="26"/>
     </row>
     <row r="739" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A739" s="27"/>
-      <c r="B739" s="27"/>
+      <c r="A739" s="26"/>
+      <c r="B739" s="26"/>
     </row>
     <row r="740" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A740" s="27"/>
-      <c r="B740" s="27"/>
+      <c r="A740" s="26"/>
+      <c r="B740" s="26"/>
     </row>
     <row r="741" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A741" s="27"/>
-      <c r="B741" s="27"/>
+      <c r="A741" s="26"/>
+      <c r="B741" s="26"/>
     </row>
     <row r="742" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A742" s="27"/>
-      <c r="B742" s="27"/>
+      <c r="A742" s="26"/>
+      <c r="B742" s="26"/>
     </row>
     <row r="743" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="27"/>
-      <c r="B743" s="27"/>
+      <c r="A743" s="26"/>
+      <c r="B743" s="26"/>
     </row>
     <row r="744" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="27"/>
-      <c r="B744" s="27"/>
+      <c r="A744" s="26"/>
+      <c r="B744" s="26"/>
     </row>
     <row r="745" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="27"/>
-      <c r="B745" s="27"/>
+      <c r="A745" s="26"/>
+      <c r="B745" s="26"/>
     </row>
     <row r="746" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="27"/>
-      <c r="B746" s="27"/>
+      <c r="A746" s="26"/>
+      <c r="B746" s="26"/>
     </row>
     <row r="747" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A747" s="27"/>
-      <c r="B747" s="27"/>
+      <c r="A747" s="26"/>
+      <c r="B747" s="26"/>
     </row>
     <row r="748" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="27"/>
-      <c r="B748" s="27"/>
+      <c r="A748" s="26"/>
+      <c r="B748" s="26"/>
     </row>
     <row r="749" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="27"/>
-      <c r="B749" s="27"/>
+      <c r="A749" s="26"/>
+      <c r="B749" s="26"/>
     </row>
     <row r="750" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A750" s="27"/>
-      <c r="B750" s="27"/>
+      <c r="A750" s="26"/>
+      <c r="B750" s="26"/>
     </row>
     <row r="751" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A751" s="27"/>
-      <c r="B751" s="27"/>
+      <c r="A751" s="26"/>
+      <c r="B751" s="26"/>
     </row>
     <row r="752" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A752" s="27"/>
-      <c r="B752" s="27"/>
+      <c r="A752" s="26"/>
+      <c r="B752" s="26"/>
     </row>
     <row r="753" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A753" s="27"/>
-      <c r="B753" s="27"/>
+      <c r="A753" s="26"/>
+      <c r="B753" s="26"/>
     </row>
     <row r="754" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A754" s="27"/>
-      <c r="B754" s="27"/>
+      <c r="A754" s="26"/>
+      <c r="B754" s="26"/>
     </row>
     <row r="755" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A755" s="27"/>
-      <c r="B755" s="27"/>
+      <c r="A755" s="26"/>
+      <c r="B755" s="26"/>
     </row>
     <row r="756" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A756" s="27"/>
-      <c r="B756" s="27"/>
+      <c r="A756" s="26"/>
+      <c r="B756" s="26"/>
     </row>
     <row r="757" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A757" s="27"/>
-      <c r="B757" s="27"/>
+      <c r="A757" s="26"/>
+      <c r="B757" s="26"/>
     </row>
     <row r="758" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A758" s="27"/>
-      <c r="B758" s="27"/>
+      <c r="A758" s="26"/>
+      <c r="B758" s="26"/>
     </row>
     <row r="759" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A759" s="27"/>
-      <c r="B759" s="27"/>
+      <c r="A759" s="26"/>
+      <c r="B759" s="26"/>
     </row>
     <row r="760" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A760" s="27"/>
-      <c r="B760" s="27"/>
+      <c r="A760" s="26"/>
+      <c r="B760" s="26"/>
     </row>
     <row r="761" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A761" s="27"/>
-      <c r="B761" s="27"/>
+      <c r="A761" s="26"/>
+      <c r="B761" s="26"/>
     </row>
     <row r="762" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A762" s="27"/>
-      <c r="B762" s="27"/>
+      <c r="A762" s="26"/>
+      <c r="B762" s="26"/>
     </row>
     <row r="763" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A763" s="27"/>
-      <c r="B763" s="27"/>
+      <c r="A763" s="26"/>
+      <c r="B763" s="26"/>
     </row>
     <row r="764" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A764" s="27"/>
-      <c r="B764" s="27"/>
+      <c r="A764" s="26"/>
+      <c r="B764" s="26"/>
     </row>
     <row r="765" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A765" s="27"/>
-      <c r="B765" s="27"/>
+      <c r="A765" s="26"/>
+      <c r="B765" s="26"/>
     </row>
     <row r="766" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A766" s="27"/>
-      <c r="B766" s="27"/>
+      <c r="A766" s="26"/>
+      <c r="B766" s="26"/>
     </row>
     <row r="767" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A767" s="27"/>
-      <c r="B767" s="27"/>
+      <c r="A767" s="26"/>
+      <c r="B767" s="26"/>
     </row>
     <row r="768" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A768" s="27"/>
-      <c r="B768" s="27"/>
+      <c r="A768" s="26"/>
+      <c r="B768" s="26"/>
     </row>
     <row r="769" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A769" s="27"/>
-      <c r="B769" s="27"/>
+      <c r="A769" s="26"/>
+      <c r="B769" s="26"/>
     </row>
     <row r="770" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A770" s="27"/>
-      <c r="B770" s="27"/>
+      <c r="A770" s="26"/>
+      <c r="B770" s="26"/>
     </row>
     <row r="771" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A771" s="27"/>
-      <c r="B771" s="27"/>
+      <c r="A771" s="26"/>
+      <c r="B771" s="26"/>
     </row>
     <row r="772" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A772" s="27"/>
-      <c r="B772" s="27"/>
+      <c r="A772" s="26"/>
+      <c r="B772" s="26"/>
     </row>
     <row r="773" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A773" s="27"/>
-      <c r="B773" s="27"/>
+      <c r="A773" s="26"/>
+      <c r="B773" s="26"/>
     </row>
     <row r="774" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A774" s="27"/>
-      <c r="B774" s="27"/>
+      <c r="A774" s="26"/>
+      <c r="B774" s="26"/>
     </row>
     <row r="775" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A775" s="27"/>
-      <c r="B775" s="27"/>
+      <c r="A775" s="26"/>
+      <c r="B775" s="26"/>
     </row>
     <row r="776" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A776" s="27"/>
-      <c r="B776" s="27"/>
+      <c r="A776" s="26"/>
+      <c r="B776" s="26"/>
     </row>
     <row r="777" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A777" s="27"/>
-      <c r="B777" s="27"/>
+      <c r="A777" s="26"/>
+      <c r="B777" s="26"/>
     </row>
     <row r="778" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A778" s="27"/>
-      <c r="B778" s="27"/>
+      <c r="A778" s="26"/>
+      <c r="B778" s="26"/>
     </row>
     <row r="779" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A779" s="27"/>
-      <c r="B779" s="27"/>
+      <c r="A779" s="26"/>
+      <c r="B779" s="26"/>
     </row>
     <row r="780" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A780" s="27"/>
-      <c r="B780" s="27"/>
+      <c r="A780" s="26"/>
+      <c r="B780" s="26"/>
     </row>
     <row r="781" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A781" s="27"/>
-      <c r="B781" s="27"/>
+      <c r="A781" s="26"/>
+      <c r="B781" s="26"/>
     </row>
     <row r="782" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A782" s="27"/>
-      <c r="B782" s="27"/>
+      <c r="A782" s="26"/>
+      <c r="B782" s="26"/>
     </row>
     <row r="783" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A783" s="27"/>
-      <c r="B783" s="27"/>
+      <c r="A783" s="26"/>
+      <c r="B783" s="26"/>
     </row>
     <row r="784" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A784" s="27"/>
-      <c r="B784" s="27"/>
+      <c r="A784" s="26"/>
+      <c r="B784" s="26"/>
     </row>
     <row r="785" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A785" s="27"/>
-      <c r="B785" s="27"/>
+      <c r="A785" s="26"/>
+      <c r="B785" s="26"/>
     </row>
     <row r="786" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A786" s="27"/>
-      <c r="B786" s="27"/>
+      <c r="A786" s="26"/>
+      <c r="B786" s="26"/>
     </row>
     <row r="787" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A787" s="27"/>
-      <c r="B787" s="27"/>
+      <c r="A787" s="26"/>
+      <c r="B787" s="26"/>
     </row>
     <row r="788" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A788" s="27"/>
-      <c r="B788" s="27"/>
+      <c r="A788" s="26"/>
+      <c r="B788" s="26"/>
     </row>
     <row r="789" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A789" s="27"/>
-      <c r="B789" s="27"/>
+      <c r="A789" s="26"/>
+      <c r="B789" s="26"/>
     </row>
     <row r="790" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A790" s="27"/>
-      <c r="B790" s="27"/>
+      <c r="A790" s="26"/>
+      <c r="B790" s="26"/>
     </row>
     <row r="791" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A791" s="27"/>
-      <c r="B791" s="27"/>
+      <c r="A791" s="26"/>
+      <c r="B791" s="26"/>
     </row>
     <row r="792" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A792" s="27"/>
-      <c r="B792" s="27"/>
+      <c r="A792" s="26"/>
+      <c r="B792" s="26"/>
     </row>
     <row r="793" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A793" s="27"/>
-      <c r="B793" s="27"/>
+      <c r="A793" s="26"/>
+      <c r="B793" s="26"/>
     </row>
     <row r="794" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A794" s="27"/>
-      <c r="B794" s="27"/>
+      <c r="A794" s="26"/>
+      <c r="B794" s="26"/>
     </row>
     <row r="795" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A795" s="27"/>
-      <c r="B795" s="27"/>
+      <c r="A795" s="26"/>
+      <c r="B795" s="26"/>
     </row>
     <row r="796" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A796" s="27"/>
-      <c r="B796" s="27"/>
+      <c r="A796" s="26"/>
+      <c r="B796" s="26"/>
     </row>
     <row r="797" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A797" s="27"/>
-      <c r="B797" s="27"/>
+      <c r="A797" s="26"/>
+      <c r="B797" s="26"/>
     </row>
     <row r="798" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A798" s="27"/>
-      <c r="B798" s="27"/>
+      <c r="A798" s="26"/>
+      <c r="B798" s="26"/>
     </row>
     <row r="799" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A799" s="27"/>
-      <c r="B799" s="27"/>
+      <c r="A799" s="26"/>
+      <c r="B799" s="26"/>
     </row>
     <row r="800" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A800" s="27"/>
-      <c r="B800" s="27"/>
+      <c r="A800" s="26"/>
+      <c r="B800" s="26"/>
     </row>
     <row r="801" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A801" s="27"/>
-      <c r="B801" s="27"/>
+      <c r="A801" s="26"/>
+      <c r="B801" s="26"/>
     </row>
     <row r="802" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A802" s="27"/>
-      <c r="B802" s="27"/>
+      <c r="A802" s="26"/>
+      <c r="B802" s="26"/>
     </row>
     <row r="803" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A803" s="27"/>
-      <c r="B803" s="27"/>
+      <c r="A803" s="26"/>
+      <c r="B803" s="26"/>
     </row>
     <row r="804" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A804" s="27"/>
-      <c r="B804" s="27"/>
+      <c r="A804" s="26"/>
+      <c r="B804" s="26"/>
     </row>
     <row r="805" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A805" s="27"/>
-      <c r="B805" s="27"/>
+      <c r="A805" s="26"/>
+      <c r="B805" s="26"/>
     </row>
     <row r="806" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A806" s="27"/>
-      <c r="B806" s="27"/>
+      <c r="A806" s="26"/>
+      <c r="B806" s="26"/>
     </row>
     <row r="807" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A807" s="27"/>
-      <c r="B807" s="27"/>
+      <c r="A807" s="26"/>
+      <c r="B807" s="26"/>
     </row>
     <row r="808" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A808" s="27"/>
-      <c r="B808" s="27"/>
+      <c r="A808" s="26"/>
+      <c r="B808" s="26"/>
     </row>
     <row r="809" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A809" s="27"/>
-      <c r="B809" s="27"/>
+      <c r="A809" s="26"/>
+      <c r="B809" s="26"/>
     </row>
     <row r="810" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A810" s="27"/>
-      <c r="B810" s="27"/>
+      <c r="A810" s="26"/>
+      <c r="B810" s="26"/>
     </row>
     <row r="811" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A811" s="27"/>
-      <c r="B811" s="27"/>
+      <c r="A811" s="26"/>
+      <c r="B811" s="26"/>
     </row>
     <row r="812" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A812" s="27"/>
-      <c r="B812" s="27"/>
+      <c r="A812" s="26"/>
+      <c r="B812" s="26"/>
     </row>
     <row r="813" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A813" s="27"/>
-      <c r="B813" s="27"/>
+      <c r="A813" s="26"/>
+      <c r="B813" s="26"/>
     </row>
     <row r="814" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A814" s="27"/>
-      <c r="B814" s="27"/>
+      <c r="A814" s="26"/>
+      <c r="B814" s="26"/>
     </row>
     <row r="815" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A815" s="27"/>
-      <c r="B815" s="27"/>
+      <c r="A815" s="26"/>
+      <c r="B815" s="26"/>
     </row>
     <row r="816" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A816" s="27"/>
-      <c r="B816" s="27"/>
+      <c r="A816" s="26"/>
+      <c r="B816" s="26"/>
     </row>
     <row r="817" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A817" s="27"/>
-      <c r="B817" s="27"/>
+      <c r="A817" s="26"/>
+      <c r="B817" s="26"/>
     </row>
     <row r="818" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A818" s="27"/>
-      <c r="B818" s="27"/>
+      <c r="A818" s="26"/>
+      <c r="B818" s="26"/>
     </row>
     <row r="819" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A819" s="27"/>
-      <c r="B819" s="27"/>
+      <c r="A819" s="26"/>
+      <c r="B819" s="26"/>
     </row>
     <row r="820" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A820" s="27"/>
-      <c r="B820" s="27"/>
+      <c r="A820" s="26"/>
+      <c r="B820" s="26"/>
     </row>
     <row r="821" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A821" s="27"/>
-      <c r="B821" s="27"/>
+      <c r="A821" s="26"/>
+      <c r="B821" s="26"/>
     </row>
     <row r="822" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A822" s="27"/>
-      <c r="B822" s="27"/>
+      <c r="A822" s="26"/>
+      <c r="B822" s="26"/>
     </row>
     <row r="823" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A823" s="27"/>
-      <c r="B823" s="27"/>
+      <c r="A823" s="26"/>
+      <c r="B823" s="26"/>
     </row>
     <row r="824" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A824" s="27"/>
-      <c r="B824" s="27"/>
+      <c r="A824" s="26"/>
+      <c r="B824" s="26"/>
     </row>
     <row r="825" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A825" s="27"/>
-      <c r="B825" s="27"/>
+      <c r="A825" s="26"/>
+      <c r="B825" s="26"/>
     </row>
     <row r="826" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A826" s="27"/>
-      <c r="B826" s="27"/>
+      <c r="A826" s="26"/>
+      <c r="B826" s="26"/>
     </row>
     <row r="827" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A827" s="27"/>
-      <c r="B827" s="27"/>
+      <c r="A827" s="26"/>
+      <c r="B827" s="26"/>
     </row>
     <row r="828" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A828" s="27"/>
-      <c r="B828" s="27"/>
+      <c r="A828" s="26"/>
+      <c r="B828" s="26"/>
     </row>
     <row r="829" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A829" s="27"/>
-      <c r="B829" s="27"/>
+      <c r="A829" s="26"/>
+      <c r="B829" s="26"/>
     </row>
     <row r="830" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A830" s="27"/>
-      <c r="B830" s="27"/>
+      <c r="A830" s="26"/>
+      <c r="B830" s="26"/>
     </row>
     <row r="831" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A831" s="27"/>
-      <c r="B831" s="27"/>
+      <c r="A831" s="26"/>
+      <c r="B831" s="26"/>
     </row>
     <row r="832" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A832" s="27"/>
-      <c r="B832" s="27"/>
+      <c r="A832" s="26"/>
+      <c r="B832" s="26"/>
     </row>
     <row r="833" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A833" s="27"/>
-      <c r="B833" s="27"/>
+      <c r="A833" s="26"/>
+      <c r="B833" s="26"/>
     </row>
     <row r="834" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A834" s="27"/>
-      <c r="B834" s="27"/>
+      <c r="A834" s="26"/>
+      <c r="B834" s="26"/>
     </row>
     <row r="835" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A835" s="27"/>
-      <c r="B835" s="27"/>
+      <c r="A835" s="26"/>
+      <c r="B835" s="26"/>
     </row>
     <row r="836" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A836" s="27"/>
-      <c r="B836" s="27"/>
+      <c r="A836" s="26"/>
+      <c r="B836" s="26"/>
     </row>
     <row r="837" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A837" s="27"/>
-      <c r="B837" s="27"/>
+      <c r="A837" s="26"/>
+      <c r="B837" s="26"/>
     </row>
     <row r="838" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A838" s="27"/>
-      <c r="B838" s="27"/>
+      <c r="A838" s="26"/>
+      <c r="B838" s="26"/>
     </row>
     <row r="839" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A839" s="27"/>
-      <c r="B839" s="27"/>
+      <c r="A839" s="26"/>
+      <c r="B839" s="26"/>
     </row>
     <row r="840" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A840" s="27"/>
-      <c r="B840" s="27"/>
+      <c r="A840" s="26"/>
+      <c r="B840" s="26"/>
     </row>
     <row r="841" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A841" s="27"/>
-      <c r="B841" s="27"/>
+      <c r="A841" s="26"/>
+      <c r="B841" s="26"/>
     </row>
     <row r="842" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A842" s="27"/>
-      <c r="B842" s="27"/>
+      <c r="A842" s="26"/>
+      <c r="B842" s="26"/>
     </row>
     <row r="843" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A843" s="27"/>
-      <c r="B843" s="27"/>
+      <c r="A843" s="26"/>
+      <c r="B843" s="26"/>
     </row>
     <row r="844" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A844" s="27"/>
-      <c r="B844" s="27"/>
+      <c r="A844" s="26"/>
+      <c r="B844" s="26"/>
     </row>
     <row r="845" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A845" s="27"/>
-      <c r="B845" s="27"/>
+      <c r="A845" s="26"/>
+      <c r="B845" s="26"/>
     </row>
     <row r="846" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A846" s="27"/>
-      <c r="B846" s="27"/>
+      <c r="A846" s="26"/>
+      <c r="B846" s="26"/>
     </row>
     <row r="847" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A847" s="27"/>
-      <c r="B847" s="27"/>
+      <c r="A847" s="26"/>
+      <c r="B847" s="26"/>
     </row>
     <row r="848" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A848" s="27"/>
-      <c r="B848" s="27"/>
+      <c r="A848" s="26"/>
+      <c r="B848" s="26"/>
     </row>
     <row r="849" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A849" s="27"/>
-      <c r="B849" s="27"/>
+      <c r="A849" s="26"/>
+      <c r="B849" s="26"/>
     </row>
     <row r="850" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A850" s="27"/>
-      <c r="B850" s="27"/>
+      <c r="A850" s="26"/>
+      <c r="B850" s="26"/>
     </row>
     <row r="851" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A851" s="27"/>
-      <c r="B851" s="27"/>
+      <c r="A851" s="26"/>
+      <c r="B851" s="26"/>
     </row>
     <row r="852" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A852" s="27"/>
-      <c r="B852" s="27"/>
+      <c r="A852" s="26"/>
+      <c r="B852" s="26"/>
     </row>
     <row r="853" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A853" s="27"/>
-      <c r="B853" s="27"/>
+      <c r="A853" s="26"/>
+      <c r="B853" s="26"/>
     </row>
     <row r="854" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A854" s="27"/>
-      <c r="B854" s="27"/>
+      <c r="A854" s="26"/>
+      <c r="B854" s="26"/>
     </row>
     <row r="855" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A855" s="27"/>
-      <c r="B855" s="27"/>
+      <c r="A855" s="26"/>
+      <c r="B855" s="26"/>
     </row>
     <row r="856" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A856" s="27"/>
-      <c r="B856" s="27"/>
+      <c r="A856" s="26"/>
+      <c r="B856" s="26"/>
     </row>
     <row r="857" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A857" s="27"/>
-      <c r="B857" s="27"/>
+      <c r="A857" s="26"/>
+      <c r="B857" s="26"/>
     </row>
     <row r="858" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A858" s="27"/>
-      <c r="B858" s="27"/>
+      <c r="A858" s="26"/>
+      <c r="B858" s="26"/>
     </row>
     <row r="859" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A859" s="27"/>
-      <c r="B859" s="27"/>
+      <c r="A859" s="26"/>
+      <c r="B859" s="26"/>
     </row>
     <row r="860" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A860" s="27"/>
-      <c r="B860" s="27"/>
+      <c r="A860" s="26"/>
+      <c r="B860" s="26"/>
     </row>
     <row r="861" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A861" s="27"/>
-      <c r="B861" s="27"/>
+      <c r="A861" s="26"/>
+      <c r="B861" s="26"/>
     </row>
     <row r="862" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A862" s="27"/>
-      <c r="B862" s="27"/>
+      <c r="A862" s="26"/>
+      <c r="B862" s="26"/>
     </row>
     <row r="863" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A863" s="27"/>
-      <c r="B863" s="27"/>
+      <c r="A863" s="26"/>
+      <c r="B863" s="26"/>
     </row>
     <row r="864" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A864" s="27"/>
-      <c r="B864" s="27"/>
+      <c r="A864" s="26"/>
+      <c r="B864" s="26"/>
     </row>
     <row r="865" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A865" s="27"/>
-      <c r="B865" s="27"/>
+      <c r="A865" s="26"/>
+      <c r="B865" s="26"/>
     </row>
     <row r="866" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A866" s="27"/>
-      <c r="B866" s="27"/>
+      <c r="A866" s="26"/>
+      <c r="B866" s="26"/>
     </row>
     <row r="867" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A867" s="27"/>
-      <c r="B867" s="27"/>
+      <c r="A867" s="26"/>
+      <c r="B867" s="26"/>
     </row>
     <row r="868" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A868" s="27"/>
-      <c r="B868" s="27"/>
+      <c r="A868" s="26"/>
+      <c r="B868" s="26"/>
     </row>
     <row r="869" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A869" s="27"/>
-      <c r="B869" s="27"/>
+      <c r="A869" s="26"/>
+      <c r="B869" s="26"/>
     </row>
     <row r="870" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A870" s="27"/>
-      <c r="B870" s="27"/>
+      <c r="A870" s="26"/>
+      <c r="B870" s="26"/>
     </row>
     <row r="871" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A871" s="27"/>
-      <c r="B871" s="27"/>
+      <c r="A871" s="26"/>
+      <c r="B871" s="26"/>
     </row>
     <row r="872" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A872" s="27"/>
-      <c r="B872" s="27"/>
+      <c r="A872" s="26"/>
+      <c r="B872" s="26"/>
     </row>
     <row r="873" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A873" s="27"/>
-      <c r="B873" s="27"/>
+      <c r="A873" s="26"/>
+      <c r="B873" s="26"/>
     </row>
     <row r="874" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A874" s="27"/>
-      <c r="B874" s="27"/>
+      <c r="A874" s="26"/>
+      <c r="B874" s="26"/>
     </row>
     <row r="875" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A875" s="27"/>
-      <c r="B875" s="27"/>
+      <c r="A875" s="26"/>
+      <c r="B875" s="26"/>
     </row>
     <row r="876" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A876" s="27"/>
-      <c r="B876" s="27"/>
+      <c r="A876" s="26"/>
+      <c r="B876" s="26"/>
     </row>
     <row r="877" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A877" s="27"/>
-      <c r="B877" s="27"/>
+      <c r="A877" s="26"/>
+      <c r="B877" s="26"/>
     </row>
     <row r="878" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A878" s="27"/>
-      <c r="B878" s="27"/>
+      <c r="A878" s="26"/>
+      <c r="B878" s="26"/>
     </row>
     <row r="879" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A879" s="27"/>
-      <c r="B879" s="27"/>
+      <c r="A879" s="26"/>
+      <c r="B879" s="26"/>
     </row>
     <row r="880" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A880" s="27"/>
-      <c r="B880" s="27"/>
+      <c r="A880" s="26"/>
+      <c r="B880" s="26"/>
     </row>
     <row r="881" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A881" s="27"/>
-      <c r="B881" s="27"/>
+      <c r="A881" s="26"/>
+      <c r="B881" s="26"/>
     </row>
     <row r="882" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A882" s="27"/>
-      <c r="B882" s="27"/>
+      <c r="A882" s="26"/>
+      <c r="B882" s="26"/>
     </row>
     <row r="883" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A883" s="27"/>
-      <c r="B883" s="27"/>
+      <c r="A883" s="26"/>
+      <c r="B883" s="26"/>
     </row>
     <row r="884" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A884" s="27"/>
-      <c r="B884" s="27"/>
+      <c r="A884" s="26"/>
+      <c r="B884" s="26"/>
     </row>
     <row r="885" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A885" s="27"/>
-      <c r="B885" s="27"/>
+      <c r="A885" s="26"/>
+      <c r="B885" s="26"/>
     </row>
     <row r="886" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A886" s="27"/>
-      <c r="B886" s="27"/>
+      <c r="A886" s="26"/>
+      <c r="B886" s="26"/>
     </row>
     <row r="887" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A887" s="27"/>
-      <c r="B887" s="27"/>
+      <c r="A887" s="26"/>
+      <c r="B887" s="26"/>
     </row>
     <row r="888" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A888" s="27"/>
-      <c r="B888" s="27"/>
+      <c r="A888" s="26"/>
+      <c r="B888" s="26"/>
     </row>
     <row r="889" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A889" s="27"/>
-      <c r="B889" s="27"/>
+      <c r="A889" s="26"/>
+      <c r="B889" s="26"/>
     </row>
     <row r="890" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A890" s="27"/>
-      <c r="B890" s="27"/>
+      <c r="A890" s="26"/>
+      <c r="B890" s="26"/>
     </row>
     <row r="891" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A891" s="27"/>
-      <c r="B891" s="27"/>
+      <c r="A891" s="26"/>
+      <c r="B891" s="26"/>
     </row>
     <row r="892" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A892" s="27"/>
-      <c r="B892" s="27"/>
+      <c r="A892" s="26"/>
+      <c r="B892" s="26"/>
     </row>
     <row r="893" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A893" s="27"/>
-      <c r="B893" s="27"/>
+      <c r="A893" s="26"/>
+      <c r="B893" s="26"/>
     </row>
     <row r="894" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A894" s="27"/>
-      <c r="B894" s="27"/>
+      <c r="A894" s="26"/>
+      <c r="B894" s="26"/>
     </row>
     <row r="895" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A895" s="27"/>
-      <c r="B895" s="27"/>
+      <c r="A895" s="26"/>
+      <c r="B895" s="26"/>
     </row>
     <row r="896" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A896" s="27"/>
-      <c r="B896" s="27"/>
+      <c r="A896" s="26"/>
+      <c r="B896" s="26"/>
     </row>
     <row r="897" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A897" s="27"/>
-      <c r="B897" s="27"/>
+      <c r="A897" s="26"/>
+      <c r="B897" s="26"/>
     </row>
     <row r="898" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A898" s="27"/>
-      <c r="B898" s="27"/>
+      <c r="A898" s="26"/>
+      <c r="B898" s="26"/>
     </row>
     <row r="899" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A899" s="27"/>
-      <c r="B899" s="27"/>
+      <c r="A899" s="26"/>
+      <c r="B899" s="26"/>
     </row>
     <row r="900" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A900" s="27"/>
-      <c r="B900" s="27"/>
+      <c r="A900" s="26"/>
+      <c r="B900" s="26"/>
     </row>
     <row r="901" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A901" s="27"/>
-      <c r="B901" s="27"/>
+      <c r="A901" s="26"/>
+      <c r="B901" s="26"/>
     </row>
     <row r="902" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A902" s="27"/>
-      <c r="B902" s="27"/>
+      <c r="A902" s="26"/>
+      <c r="B902" s="26"/>
     </row>
     <row r="903" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A903" s="27"/>
-      <c r="B903" s="27"/>
+      <c r="A903" s="26"/>
+      <c r="B903" s="26"/>
     </row>
     <row r="904" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A904" s="27"/>
-      <c r="B904" s="27"/>
+      <c r="A904" s="26"/>
+      <c r="B904" s="26"/>
     </row>
     <row r="905" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A905" s="27"/>
-      <c r="B905" s="27"/>
+      <c r="A905" s="26"/>
+      <c r="B905" s="26"/>
     </row>
     <row r="906" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A906" s="27"/>
-      <c r="B906" s="27"/>
+      <c r="A906" s="26"/>
+      <c r="B906" s="26"/>
     </row>
     <row r="907" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A907" s="27"/>
-      <c r="B907" s="27"/>
+      <c r="A907" s="26"/>
+      <c r="B907" s="26"/>
     </row>
     <row r="908" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A908" s="27"/>
-      <c r="B908" s="27"/>
+      <c r="A908" s="26"/>
+      <c r="B908" s="26"/>
     </row>
     <row r="909" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A909" s="27"/>
-      <c r="B909" s="27"/>
+      <c r="A909" s="26"/>
+      <c r="B909" s="26"/>
     </row>
     <row r="910" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A910" s="27"/>
-      <c r="B910" s="27"/>
+      <c r="A910" s="26"/>
+      <c r="B910" s="26"/>
     </row>
     <row r="911" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A911" s="27"/>
-      <c r="B911" s="27"/>
+      <c r="A911" s="26"/>
+      <c r="B911" s="26"/>
     </row>
     <row r="912" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A912" s="27"/>
-      <c r="B912" s="27"/>
+      <c r="A912" s="26"/>
+      <c r="B912" s="26"/>
     </row>
     <row r="913" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A913" s="27"/>
-      <c r="B913" s="27"/>
+      <c r="A913" s="26"/>
+      <c r="B913" s="26"/>
     </row>
     <row r="914" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A914" s="27"/>
-      <c r="B914" s="27"/>
+      <c r="A914" s="26"/>
+      <c r="B914" s="26"/>
     </row>
     <row r="915" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A915" s="27"/>
-      <c r="B915" s="27"/>
+      <c r="A915" s="26"/>
+      <c r="B915" s="26"/>
     </row>
     <row r="916" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A916" s="27"/>
-      <c r="B916" s="27"/>
+      <c r="A916" s="26"/>
+      <c r="B916" s="26"/>
     </row>
     <row r="917" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A917" s="27"/>
-      <c r="B917" s="27"/>
+      <c r="A917" s="26"/>
+      <c r="B917" s="26"/>
     </row>
     <row r="918" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A918" s="27"/>
-      <c r="B918" s="27"/>
+      <c r="A918" s="26"/>
+      <c r="B918" s="26"/>
     </row>
     <row r="919" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A919" s="27"/>
-      <c r="B919" s="27"/>
+      <c r="A919" s="26"/>
+      <c r="B919" s="26"/>
     </row>
     <row r="920" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A920" s="27"/>
-      <c r="B920" s="27"/>
+      <c r="A920" s="26"/>
+      <c r="B920" s="26"/>
     </row>
     <row r="921" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A921" s="27"/>
-      <c r="B921" s="27"/>
+      <c r="A921" s="26"/>
+      <c r="B921" s="26"/>
     </row>
     <row r="922" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A922" s="27"/>
-      <c r="B922" s="27"/>
+      <c r="A922" s="26"/>
+      <c r="B922" s="26"/>
     </row>
     <row r="923" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A923" s="27"/>
-      <c r="B923" s="27"/>
+      <c r="A923" s="26"/>
+      <c r="B923" s="26"/>
     </row>
     <row r="924" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A924" s="27"/>
-      <c r="B924" s="27"/>
+      <c r="A924" s="26"/>
+      <c r="B924" s="26"/>
     </row>
     <row r="925" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A925" s="27"/>
-      <c r="B925" s="27"/>
+      <c r="A925" s="26"/>
+      <c r="B925" s="26"/>
     </row>
     <row r="926" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A926" s="27"/>
-      <c r="B926" s="27"/>
+      <c r="A926" s="26"/>
+      <c r="B926" s="26"/>
     </row>
     <row r="927" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A927" s="27"/>
-      <c r="B927" s="27"/>
+      <c r="A927" s="26"/>
+      <c r="B927" s="26"/>
     </row>
     <row r="928" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A928" s="27"/>
-      <c r="B928" s="27"/>
+      <c r="A928" s="26"/>
+      <c r="B928" s="26"/>
     </row>
     <row r="929" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A929" s="27"/>
-      <c r="B929" s="27"/>
+      <c r="A929" s="26"/>
+      <c r="B929" s="26"/>
     </row>
     <row r="930" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A930" s="27"/>
-      <c r="B930" s="27"/>
+      <c r="A930" s="26"/>
+      <c r="B930" s="26"/>
     </row>
     <row r="931" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A931" s="27"/>
-      <c r="B931" s="27"/>
+      <c r="A931" s="26"/>
+      <c r="B931" s="26"/>
     </row>
     <row r="932" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A932" s="27"/>
-      <c r="B932" s="27"/>
+      <c r="A932" s="26"/>
+      <c r="B932" s="26"/>
     </row>
     <row r="933" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A933" s="27"/>
-      <c r="B933" s="27"/>
+      <c r="A933" s="26"/>
+      <c r="B933" s="26"/>
     </row>
     <row r="934" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A934" s="27"/>
-      <c r="B934" s="27"/>
+      <c r="A934" s="26"/>
+      <c r="B934" s="26"/>
     </row>
     <row r="935" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A935" s="27"/>
-      <c r="B935" s="27"/>
+      <c r="A935" s="26"/>
+      <c r="B935" s="26"/>
     </row>
     <row r="936" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A936" s="27"/>
-      <c r="B936" s="27"/>
+      <c r="A936" s="26"/>
+      <c r="B936" s="26"/>
     </row>
     <row r="937" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A937" s="27"/>
-      <c r="B937" s="27"/>
+      <c r="A937" s="26"/>
+      <c r="B937" s="26"/>
     </row>
     <row r="938" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A938" s="27"/>
-      <c r="B938" s="27"/>
+      <c r="A938" s="26"/>
+      <c r="B938" s="26"/>
     </row>
     <row r="939" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A939" s="27"/>
-      <c r="B939" s="27"/>
+      <c r="A939" s="26"/>
+      <c r="B939" s="26"/>
     </row>
     <row r="940" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A940" s="27"/>
-      <c r="B940" s="27"/>
+      <c r="A940" s="26"/>
+      <c r="B940" s="26"/>
     </row>
     <row r="941" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A941" s="27"/>
-      <c r="B941" s="27"/>
+      <c r="A941" s="26"/>
+      <c r="B941" s="26"/>
     </row>
     <row r="942" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A942" s="27"/>
-      <c r="B942" s="27"/>
+      <c r="A942" s="26"/>
+      <c r="B942" s="26"/>
     </row>
     <row r="943" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A943" s="27"/>
-      <c r="B943" s="27"/>
+      <c r="A943" s="26"/>
+      <c r="B943" s="26"/>
     </row>
     <row r="944" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A944" s="27"/>
-      <c r="B944" s="27"/>
+      <c r="A944" s="26"/>
+      <c r="B944" s="26"/>
     </row>
     <row r="945" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A945" s="27"/>
-      <c r="B945" s="27"/>
+      <c r="A945" s="26"/>
+      <c r="B945" s="26"/>
     </row>
     <row r="946" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A946" s="27"/>
-      <c r="B946" s="27"/>
+      <c r="A946" s="26"/>
+      <c r="B946" s="26"/>
     </row>
     <row r="947" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A947" s="27"/>
-      <c r="B947" s="27"/>
+      <c r="A947" s="26"/>
+      <c r="B947" s="26"/>
     </row>
     <row r="948" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A948" s="27"/>
-      <c r="B948" s="27"/>
+      <c r="A948" s="26"/>
+      <c r="B948" s="26"/>
     </row>
     <row r="949" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A949" s="27"/>
-      <c r="B949" s="27"/>
+      <c r="A949" s="26"/>
+      <c r="B949" s="26"/>
     </row>
     <row r="950" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A950" s="27"/>
-      <c r="B950" s="27"/>
+      <c r="A950" s="26"/>
+      <c r="B950" s="26"/>
     </row>
     <row r="951" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A951" s="27"/>
-      <c r="B951" s="27"/>
+      <c r="A951" s="26"/>
+      <c r="B951" s="26"/>
     </row>
     <row r="952" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A952" s="27"/>
-      <c r="B952" s="27"/>
+      <c r="A952" s="26"/>
+      <c r="B952" s="26"/>
     </row>
     <row r="953" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A953" s="27"/>
-      <c r="B953" s="27"/>
+      <c r="A953" s="26"/>
+      <c r="B953" s="26"/>
     </row>
     <row r="954" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A954" s="27"/>
-      <c r="B954" s="27"/>
+      <c r="A954" s="26"/>
+      <c r="B954" s="26"/>
     </row>
     <row r="955" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A955" s="27"/>
-      <c r="B955" s="27"/>
+      <c r="A955" s="26"/>
+      <c r="B955" s="26"/>
     </row>
     <row r="956" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A956" s="27"/>
-      <c r="B956" s="27"/>
+      <c r="A956" s="26"/>
+      <c r="B956" s="26"/>
     </row>
     <row r="957" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A957" s="27"/>
-      <c r="B957" s="27"/>
+      <c r="A957" s="26"/>
+      <c r="B957" s="26"/>
     </row>
     <row r="958" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A958" s="27"/>
-      <c r="B958" s="27"/>
+      <c r="A958" s="26"/>
+      <c r="B958" s="26"/>
     </row>
     <row r="959" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A959" s="27"/>
-      <c r="B959" s="27"/>
+      <c r="A959" s="26"/>
+      <c r="B959" s="26"/>
     </row>
     <row r="960" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A960" s="27"/>
-      <c r="B960" s="27"/>
+      <c r="A960" s="26"/>
+      <c r="B960" s="26"/>
     </row>
     <row r="961" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A961" s="27"/>
-      <c r="B961" s="27"/>
+      <c r="A961" s="26"/>
+      <c r="B961" s="26"/>
     </row>
     <row r="962" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A962" s="27"/>
-      <c r="B962" s="27"/>
+      <c r="A962" s="26"/>
+      <c r="B962" s="26"/>
     </row>
     <row r="963" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A963" s="27"/>
-      <c r="B963" s="27"/>
+      <c r="A963" s="26"/>
+      <c r="B963" s="26"/>
     </row>
     <row r="964" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A964" s="27"/>
-      <c r="B964" s="27"/>
+      <c r="A964" s="26"/>
+      <c r="B964" s="26"/>
     </row>
     <row r="965" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A965" s="27"/>
-      <c r="B965" s="27"/>
+      <c r="A965" s="26"/>
+      <c r="B965" s="26"/>
     </row>
     <row r="966" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A966" s="27"/>
-      <c r="B966" s="27"/>
+      <c r="A966" s="26"/>
+      <c r="B966" s="26"/>
     </row>
     <row r="967" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A967" s="27"/>
-      <c r="B967" s="27"/>
+      <c r="A967" s="26"/>
+      <c r="B967" s="26"/>
     </row>
     <row r="968" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A968" s="27"/>
-      <c r="B968" s="27"/>
+      <c r="A968" s="26"/>
+      <c r="B968" s="26"/>
     </row>
     <row r="969" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A969" s="27"/>
-      <c r="B969" s="27"/>
+      <c r="A969" s="26"/>
+      <c r="B969" s="26"/>
     </row>
     <row r="970" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A970" s="27"/>
-      <c r="B970" s="27"/>
+      <c r="A970" s="26"/>
+      <c r="B970" s="26"/>
     </row>
     <row r="971" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A971" s="27"/>
-      <c r="B971" s="27"/>
+      <c r="A971" s="26"/>
+      <c r="B971" s="26"/>
     </row>
     <row r="972" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A972" s="27"/>
-      <c r="B972" s="27"/>
+      <c r="A972" s="26"/>
+      <c r="B972" s="26"/>
     </row>
     <row r="973" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A973" s="27"/>
-      <c r="B973" s="27"/>
+      <c r="A973" s="26"/>
+      <c r="B973" s="26"/>
     </row>
     <row r="974" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A974" s="27"/>
-      <c r="B974" s="27"/>
+      <c r="A974" s="26"/>
+      <c r="B974" s="26"/>
     </row>
     <row r="975" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A975" s="27"/>
-      <c r="B975" s="27"/>
+      <c r="A975" s="26"/>
+      <c r="B975" s="26"/>
     </row>
     <row r="976" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A976" s="27"/>
-      <c r="B976" s="27"/>
+      <c r="A976" s="26"/>
+      <c r="B976" s="26"/>
     </row>
     <row r="977" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A977" s="27"/>
-      <c r="B977" s="27"/>
+      <c r="A977" s="26"/>
+      <c r="B977" s="26"/>
     </row>
     <row r="978" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A978" s="27"/>
-      <c r="B978" s="27"/>
+      <c r="A978" s="26"/>
+      <c r="B978" s="26"/>
     </row>
     <row r="979" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A979" s="27"/>
-      <c r="B979" s="27"/>
+      <c r="A979" s="26"/>
+      <c r="B979" s="26"/>
     </row>
     <row r="980" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A980" s="27"/>
-      <c r="B980" s="27"/>
+      <c r="A980" s="26"/>
+      <c r="B980" s="26"/>
     </row>
     <row r="981" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A981" s="27"/>
-      <c r="B981" s="27"/>
+      <c r="A981" s="26"/>
+      <c r="B981" s="26"/>
     </row>
     <row r="982" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A982" s="27"/>
-      <c r="B982" s="27"/>
+      <c r="A982" s="26"/>
+      <c r="B982" s="26"/>
     </row>
     <row r="983" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A983" s="27"/>
-      <c r="B983" s="27"/>
+      <c r="A983" s="26"/>
+      <c r="B983" s="26"/>
     </row>
     <row r="984" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A984" s="27"/>
-      <c r="B984" s="27"/>
+      <c r="A984" s="26"/>
+      <c r="B984" s="26"/>
     </row>
     <row r="985" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="27"/>
-      <c r="B985" s="27"/>
+      <c r="A985" s="26"/>
+      <c r="B985" s="26"/>
     </row>
     <row r="986" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="27"/>
-      <c r="B986" s="27"/>
+      <c r="A986" s="26"/>
+      <c r="B986" s="26"/>
     </row>
     <row r="987" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A987" s="27"/>
-      <c r="B987" s="27"/>
+      <c r="A987" s="26"/>
+      <c r="B987" s="26"/>
     </row>
     <row r="988" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A988" s="27"/>
-      <c r="B988" s="27"/>
+      <c r="A988" s="26"/>
+      <c r="B988" s="26"/>
     </row>
     <row r="989" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A989" s="27"/>
-      <c r="B989" s="27"/>
+      <c r="A989" s="26"/>
+      <c r="B989" s="26"/>
     </row>
     <row r="990" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A990" s="27"/>
-      <c r="B990" s="27"/>
+      <c r="A990" s="26"/>
+      <c r="B990" s="26"/>
     </row>
     <row r="991" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A991" s="27"/>
-      <c r="B991" s="27"/>
+      <c r="A991" s="26"/>
+      <c r="B991" s="26"/>
     </row>
     <row r="992" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A992" s="27"/>
-      <c r="B992" s="27"/>
+      <c r="A992" s="26"/>
+      <c r="B992" s="26"/>
     </row>
     <row r="993" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A993" s="27"/>
-      <c r="B993" s="27"/>
+      <c r="A993" s="26"/>
+      <c r="B993" s="26"/>
     </row>
     <row r="994" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A994" s="27"/>
-      <c r="B994" s="27"/>
+      <c r="A994" s="26"/>
+      <c r="B994" s="26"/>
     </row>
     <row r="995" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A995" s="27"/>
-      <c r="B995" s="27"/>
+      <c r="A995" s="26"/>
+      <c r="B995" s="26"/>
     </row>
     <row r="996" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A996" s="27"/>
-      <c r="B996" s="27"/>
+      <c r="A996" s="26"/>
+      <c r="B996" s="26"/>
     </row>
     <row r="997" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A997" s="27"/>
-      <c r="B997" s="27"/>
+      <c r="A997" s="26"/>
+      <c r="B997" s="26"/>
     </row>
     <row r="998" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A998" s="27"/>
-      <c r="B998" s="27"/>
-    </row>
-    <row r="999" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A999" s="27"/>
-      <c r="B999" s="27"/>
-    </row>
-    <row r="1000" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="27"/>
-      <c r="B1000" s="27"/>
+      <c r="A998" s="26"/>
+      <c r="B998" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G13"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
@@ -6494,12 +6421,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E24 E30:E200">
+    <dataValidation type="list" allowBlank="1" sqref="E28:E198 E3:E22">
       <formula1>"Critical,High,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6508,7 +6434,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6525,16 +6451,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -6558,8 +6484,8 @@
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>31</v>
+      <c r="H2" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6582,11 +6508,11 @@
       <c r="E3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>43732</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -6606,16 +6532,16 @@
         <v>Login page has undefined variable 'error'</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="29">
+        <v>32</v>
+      </c>
+      <c r="F4" s="28">
         <v>43732</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>43733</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>36</v>
+      <c r="H4" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -6636,11 +6562,17 @@
         <v>Login page displayed error message "A session had already been started"</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="F5" s="28">
+        <v>43732</v>
+      </c>
+      <c r="G5" s="28">
+        <v>43733</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -6660,107 +6592,117 @@
         <v>Biding page displayed syntax error, unexpected '}'</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <f>'Bug Metrics'!$A7</f>
-        <v>5</v>
-      </c>
-      <c r="B7" s="9">
-        <f>'Bug Metrics'!$B7</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="str">
-        <f>'Bug Metrics'!$C7</f>
-        <v xml:space="preserve">Biding </v>
-      </c>
-      <c r="D7" s="10">
-        <f>'Bug Metrics'!$D7</f>
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="F6" s="28">
+        <v>43732</v>
+      </c>
+      <c r="G6" s="28">
+        <v>43733</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="e">
+        <f>'Bug Metrics'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B7" s="9" t="e">
+        <f>'Bug Metrics'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="9" t="e">
+        <f>'Bug Metrics'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="10" t="e">
+        <f>'Bug Metrics'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="28">
+        <v>43733</v>
+      </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <f>'Bug Metrics'!$A8</f>
-        <v>6</v>
-      </c>
-      <c r="B8" s="9">
-        <f>'Bug Metrics'!$B8</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <f>'Bug Metrics'!$C8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <f>'Bug Metrics'!$D8</f>
-        <v>0</v>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="e">
+        <f>'Bug Metrics'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B8" s="9" t="e">
+        <f>'Bug Metrics'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C8" s="9" t="e">
+        <f>'Bug Metrics'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="10" t="e">
+        <f>'Bug Metrics'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="28">
+        <v>43736</v>
+      </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <f>'Bug Metrics'!$A9</f>
+        <f>'Bug Metrics'!$A7</f>
         <v>7</v>
       </c>
       <c r="B9" s="9">
-        <f>'Bug Metrics'!$B9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <f>'Bug Metrics'!$C9</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <f>'Bug Metrics'!$D9</f>
-        <v>0</v>
+        <f>'Bug Metrics'!$B7</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f>'Bug Metrics'!$C7</f>
+        <v>Admin(Bootstrap)</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f>'Bug Metrics'!$D7</f>
+        <v>After browse and improt a zip file, page displayed synatx error message. Unexpected '}', expecting ';'.</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <f>'Bug Metrics'!$A10</f>
+        <f>'Bug Metrics'!$A8</f>
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <f>'Bug Metrics'!$B10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <f>'Bug Metrics'!$C10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <f>'Bug Metrics'!$D10</f>
-        <v>0</v>
+        <f>'Bug Metrics'!$B8</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f>'Bug Metrics'!$C8</f>
+        <v>Admin(Bootstrap)</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f>'Bug Metrics'!$D8</f>
+        <v>When importing a zip file with missing student.csv, it gave warning of  'invalid argument supplied for foreach()' .</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -6769,293 +6711,277 @@
       <c r="B11" s="9">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="10">
+        <f>'Bug Metrics'!$D9</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f>'Bug Metrics'!$A9</f>
+        <v>9</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10">
+        <f>'Bug Metrics'!$D10</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f>'Bug Metrics'!$A10</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10">
         <f>'Bug Metrics'!$D11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <f>'Bug Metrics'!$A11</f>
-        <v>9</v>
-      </c>
-      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="10" t="str">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10">
         <f>'Bug Metrics'!$D12</f>
-        <v>After browse and improt a zip file, page displayed synatx error message. Unexpected '}', expecting ';'.</v>
-      </c>
-      <c r="E12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <f>'Bug Metrics'!$A12</f>
-        <v>10</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f>'Bug Metrics'!$A13</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10">
         <f>'Bug Metrics'!$D13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <f>'Bug Metrics'!$A13</f>
-        <v>11</v>
-      </c>
-      <c r="B14" s="9">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f>'Bug Metrics'!$A14</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10">
         <f>'Bug Metrics'!$D14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <f>'Bug Metrics'!$A15</f>
-        <v>13</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10">
         <f>'Bug Metrics'!$D15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <f>'Bug Metrics'!$A16</f>
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
         <v>4</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10">
         <f>'Bug Metrics'!$D16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <f>'Bug Metrics'!$A17</f>
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <f>'Bug Metrics'!$B17</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <f>'Bug Metrics'!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
         <f>'Bug Metrics'!$D17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="F19" s="19"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <f>'Bug Metrics'!$A18</f>
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
-        <v>4</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <f>'Bug Metrics'!$B18</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <f>'Bug Metrics'!$C18</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
         <f>'Bug Metrics'!$D18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <f>'Bug Metrics'!$A19</f>
-        <v>17</v>
-      </c>
-      <c r="B19" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
         <f>'Bug Metrics'!$B19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C21" s="9">
         <f>'Bug Metrics'!$C19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D21" s="10">
         <f>'Bug Metrics'!$D19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <f>'Bug Metrics'!$A20</f>
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
         <f>'Bug Metrics'!$B20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C22" s="9">
         <f>'Bug Metrics'!$C20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D22" s="10">
         <f>'Bug Metrics'!$D20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <f>'Bug Metrics'!$A21</f>
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
         <f>'Bug Metrics'!$B21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C23" s="9">
         <f>'Bug Metrics'!$C21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D23" s="10">
         <f>'Bug Metrics'!$D21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <f>'Bug Metrics'!$A22</f>
-        <v>20</v>
-      </c>
-      <c r="B22" s="9">
-        <f>'Bug Metrics'!$B22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
-        <f>'Bug Metrics'!$C22</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
-        <f>'Bug Metrics'!$D22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <f>'Bug Metrics'!$A23</f>
-        <v>21</v>
-      </c>
-      <c r="B23" s="9">
-        <f>'Bug Metrics'!$B23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="9">
-        <f>'Bug Metrics'!$C23</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <f>'Bug Metrics'!$D23</f>
-        <v>0</v>
-      </c>
       <c r="E23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>Bug Log</t>
   </si>
@@ -160,16 +160,25 @@
     <t>Unable to validate userid with different casing in course_completed.csv</t>
   </si>
   <si>
-    <t>Unable to display error messages when importing SampleData(6 and 7).zip to validate bid.csv, although correct data imported to database</t>
-  </si>
-  <si>
-    <t>Biding (add bid)</t>
-  </si>
-  <si>
     <t>Unable to validate if student has not completed the prerequisite</t>
   </si>
   <si>
     <t>Unable to validate exam start and end time in course.csv (exam start time later than end time)</t>
+  </si>
+  <si>
+    <t>Unable to display error messages when importing SampleData(6 and 7).zip to validate bid.csv</t>
+  </si>
+  <si>
+    <t>Bidding (add bid)</t>
+  </si>
+  <si>
+    <t>Bidding(add bid)</t>
+  </si>
+  <si>
+    <t>When validating if student can add a bid with an incorrect course code, page displayed notice of 'Trying to get property 'school' of non-object'.</t>
+  </si>
+  <si>
+    <t>Unable to update bid amount when student bid twice for same section in the same round</t>
   </si>
 </sst>
 </file>
@@ -319,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -394,6 +403,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -918,10 +930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1001"/>
+  <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -938,16 +950,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -994,7 +1006,7 @@
       <c r="F3" s="19">
         <v>2</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="30">
         <f>SUM($F3:$F6)</f>
         <v>5</v>
       </c>
@@ -1022,7 +1034,7 @@
       <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="23" t="s">
         <v>33</v>
       </c>
@@ -1046,7 +1058,7 @@
       <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1068,11 +1080,13 @@
       <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
       <c r="B7" s="28">
         <v>1</v>
       </c>
@@ -1083,7 +1097,9 @@
       <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
       <c r="B8" s="28">
         <v>1</v>
       </c>
@@ -1112,9 +1128,9 @@
       <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="29">
-        <f>SUM(F9:F15)</f>
-        <v>14</v>
+      <c r="G9" s="30">
+        <f>SUM(F9:F18)</f>
+        <v>25</v>
       </c>
       <c r="H9" s="23" t="str">
         <f xml:space="preserve"> IF(G9&lt;10,Instructions!B7,Instructions!B8)</f>
@@ -1140,7 +1156,7 @@
       <c r="F10" s="19">
         <v>1</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -1162,22 +1178,29 @@
       <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>10</v>
       </c>
       <c r="B12" s="25">
         <v>2</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30"/>
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1199,7 +1222,7 @@
       <c r="F13" s="19">
         <v>5</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -1213,7 +1236,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>26</v>
@@ -1221,7 +1244,7 @@
       <c r="F14" s="19">
         <v>5</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -1232,18 +1255,18 @@
         <v>2</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="30"/>
       <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1252,10 +1275,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>26</v>
@@ -1263,44 +1286,45 @@
       <c r="F16" s="28">
         <v>5</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="29"/>
+      <c r="B17" s="25">
+        <v>2</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="25">
+        <v>2</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="E18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
         <v>14</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24"/>
-      <c r="E17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="29">
-        <f>SUM(F17:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="23" t="str">
-        <f xml:space="preserve"> IF(G17&lt;10,Instructions!B7,Instructions!B8)</f>
-        <v>Use the planned debugging time in the iteration.</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>15</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="24"/>
-      <c r="E18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>16</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="24"/>
@@ -1308,12 +1332,18 @@
         <v>26</v>
       </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="30">
+        <f>SUM(F19:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="23" t="str">
+        <f xml:space="preserve"> IF(G19&lt;10,Instructions!B7,Instructions!B8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="24"/>
@@ -1321,31 +1351,25 @@
         <v>26</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="29"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="24"/>
       <c r="E21" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="29">
-        <f>SUM(F21:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="23" t="str">
-        <f xml:space="preserve"> IF(G21&lt;10,Instructions!B7,Instructions!B8)</f>
-        <v>Use the planned debugging time in the iteration.</v>
-      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="24"/>
@@ -1353,12 +1377,12 @@
         <v>26</v>
       </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="29"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="24"/>
@@ -1366,96 +1390,106 @@
         <v>24</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="23"/>
+      <c r="G23" s="30">
+        <f>SUM(F23:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="23" t="str">
+        <f xml:space="preserve"> IF(G23&lt;10,Instructions!B7,Instructions!B8)</f>
+        <v>Use the planned debugging time in the iteration.</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="24"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="str">
-        <f>IF($E24="Critical", 10, IF($E24="High",5, IF($E24="Low",1,"")))</f>
-        <v/>
-      </c>
-      <c r="G24" s="29"/>
+      <c r="E24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="24"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="str">
-        <f>IF($E25="Critical", 10, IF($E25="High",5, IF($E25="Low",1,"")))</f>
-        <v/>
-      </c>
+      <c r="E25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="str">
+        <f>IF($E26="Critical", 10, IF($E26="High",5, IF($E26="Low",1,"")))</f>
+        <v/>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="str">
+        <f>IF($E27="Critical", 10, IF($E27="High",5, IF($E27="Low",1,"")))</f>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
-        <v>28</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="str">
-        <f t="shared" ref="F31:F201" si="0">IF($E31="Critical", 10, IF($E31="High",5, IF($E31="Low",1,"")))</f>
-        <v/>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
-        <v>29</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="25"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F33:F203" si="0">IF($E33="Critical", 10, IF($E33="High",5, IF($E33="Low",1,"")))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="25"/>
       <c r="E34" s="19"/>
@@ -1466,7 +1500,7 @@
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="25"/>
       <c r="E35" s="19"/>
@@ -1477,7 +1511,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="25"/>
       <c r="E36" s="19"/>
@@ -1488,7 +1522,7 @@
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" s="25"/>
       <c r="E37" s="19"/>
@@ -1499,7 +1533,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38" s="25"/>
       <c r="E38" s="19"/>
@@ -1510,7 +1544,7 @@
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" s="25"/>
       <c r="E39" s="19"/>
@@ -1521,7 +1555,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="25"/>
       <c r="E40" s="19"/>
@@ -1532,7 +1566,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="25"/>
       <c r="E41" s="19"/>
@@ -1543,7 +1577,7 @@
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" s="25"/>
       <c r="E42" s="19"/>
@@ -1554,7 +1588,7 @@
     </row>
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" s="25"/>
       <c r="E43" s="19"/>
@@ -1565,7 +1599,7 @@
     </row>
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" s="25"/>
       <c r="E44" s="19"/>
@@ -1576,7 +1610,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" s="25"/>
       <c r="E45" s="19"/>
@@ -1587,7 +1621,7 @@
     </row>
     <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="25"/>
       <c r="E46" s="19"/>
@@ -1598,7 +1632,7 @@
     </row>
     <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="25"/>
       <c r="E47" s="19"/>
@@ -1609,7 +1643,7 @@
     </row>
     <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="25"/>
       <c r="E48" s="19"/>
@@ -1620,7 +1654,7 @@
     </row>
     <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49" s="25"/>
       <c r="E49" s="19"/>
@@ -1631,7 +1665,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" s="25"/>
       <c r="E50" s="19"/>
@@ -1642,7 +1676,7 @@
     </row>
     <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" s="25"/>
       <c r="E51" s="19"/>
@@ -1653,7 +1687,7 @@
     </row>
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="25"/>
       <c r="E52" s="19"/>
@@ -1664,7 +1698,7 @@
     </row>
     <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" s="25"/>
       <c r="E53" s="19"/>
@@ -1675,7 +1709,7 @@
     </row>
     <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="25"/>
       <c r="E54" s="19"/>
@@ -1686,7 +1720,7 @@
     </row>
     <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="25"/>
       <c r="E55" s="19"/>
@@ -1697,7 +1731,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" s="25"/>
       <c r="E56" s="19"/>
@@ -1708,7 +1742,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="25"/>
       <c r="E57" s="19"/>
@@ -1719,7 +1753,7 @@
     </row>
     <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="25"/>
       <c r="E58" s="19"/>
@@ -1730,7 +1764,7 @@
     </row>
     <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="25"/>
       <c r="E59" s="19"/>
@@ -1741,7 +1775,7 @@
     </row>
     <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="25"/>
       <c r="E60" s="19"/>
@@ -1752,7 +1786,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" s="25"/>
       <c r="E61" s="19"/>
@@ -1763,7 +1797,7 @@
     </row>
     <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62" s="25"/>
       <c r="E62" s="19"/>
@@ -1774,7 +1808,7 @@
     </row>
     <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" s="25"/>
       <c r="E63" s="19"/>
@@ -1785,7 +1819,7 @@
     </row>
     <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B64" s="25"/>
       <c r="E64" s="19"/>
@@ -1796,7 +1830,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" s="25"/>
       <c r="E65" s="19"/>
@@ -1807,7 +1841,7 @@
     </row>
     <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" s="25"/>
       <c r="E66" s="19"/>
@@ -1818,7 +1852,7 @@
     </row>
     <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B67" s="25"/>
       <c r="E67" s="19"/>
@@ -1829,7 +1863,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B68" s="25"/>
       <c r="E68" s="19"/>
@@ -1840,7 +1874,7 @@
     </row>
     <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B69" s="25"/>
       <c r="E69" s="19"/>
@@ -1851,7 +1885,7 @@
     </row>
     <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B70" s="25"/>
       <c r="E70" s="19"/>
@@ -1862,7 +1896,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" s="25"/>
       <c r="E71" s="19"/>
@@ -1873,7 +1907,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B72" s="25"/>
       <c r="E72" s="19"/>
@@ -1884,7 +1918,7 @@
     </row>
     <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B73" s="25"/>
       <c r="E73" s="19"/>
@@ -1895,7 +1929,7 @@
     </row>
     <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B74" s="25"/>
       <c r="E74" s="19"/>
@@ -1906,7 +1940,7 @@
     </row>
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B75" s="25"/>
       <c r="E75" s="19"/>
@@ -1917,7 +1951,7 @@
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" s="25"/>
       <c r="E76" s="19"/>
@@ -1928,7 +1962,7 @@
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B77" s="25"/>
       <c r="E77" s="19"/>
@@ -1939,7 +1973,7 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B78" s="25"/>
       <c r="E78" s="19"/>
@@ -1950,7 +1984,7 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B79" s="25"/>
       <c r="E79" s="19"/>
@@ -1961,7 +1995,7 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B80" s="25"/>
       <c r="E80" s="19"/>
@@ -1972,7 +2006,7 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B81" s="25"/>
       <c r="E81" s="19"/>
@@ -1983,7 +2017,7 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B82" s="25"/>
       <c r="E82" s="19"/>
@@ -1994,7 +2028,7 @@
     </row>
     <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B83" s="25"/>
       <c r="E83" s="19"/>
@@ -2005,7 +2039,7 @@
     </row>
     <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B84" s="25"/>
       <c r="E84" s="19"/>
@@ -2016,7 +2050,7 @@
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B85" s="25"/>
       <c r="E85" s="19"/>
@@ -2027,7 +2061,7 @@
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B86" s="25"/>
       <c r="E86" s="19"/>
@@ -2038,7 +2072,7 @@
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B87" s="25"/>
       <c r="E87" s="19"/>
@@ -2049,7 +2083,7 @@
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B88" s="25"/>
       <c r="E88" s="19"/>
@@ -2060,7 +2094,7 @@
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B89" s="25"/>
       <c r="E89" s="19"/>
@@ -2071,7 +2105,7 @@
     </row>
     <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B90" s="25"/>
       <c r="E90" s="19"/>
@@ -2082,7 +2116,7 @@
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B91" s="25"/>
       <c r="E91" s="19"/>
@@ -2093,7 +2127,7 @@
     </row>
     <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B92" s="25"/>
       <c r="E92" s="19"/>
@@ -2104,7 +2138,7 @@
     </row>
     <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B93" s="25"/>
       <c r="E93" s="19"/>
@@ -2115,7 +2149,7 @@
     </row>
     <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B94" s="25"/>
       <c r="E94" s="19"/>
@@ -2126,7 +2160,7 @@
     </row>
     <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B95" s="25"/>
       <c r="E95" s="19"/>
@@ -2137,7 +2171,7 @@
     </row>
     <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B96" s="25"/>
       <c r="E96" s="19"/>
@@ -2148,7 +2182,7 @@
     </row>
     <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B97" s="25"/>
       <c r="E97" s="19"/>
@@ -2159,7 +2193,7 @@
     </row>
     <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B98" s="25"/>
       <c r="E98" s="19"/>
@@ -2170,7 +2204,7 @@
     </row>
     <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B99" s="25"/>
       <c r="E99" s="19"/>
@@ -2181,7 +2215,7 @@
     </row>
     <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B100" s="25"/>
       <c r="E100" s="19"/>
@@ -2192,7 +2226,7 @@
     </row>
     <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B101" s="25"/>
       <c r="E101" s="19"/>
@@ -2203,7 +2237,7 @@
     </row>
     <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B102" s="25"/>
       <c r="E102" s="19"/>
@@ -2214,7 +2248,7 @@
     </row>
     <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B103" s="25"/>
       <c r="E103" s="19"/>
@@ -2225,7 +2259,7 @@
     </row>
     <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B104" s="25"/>
       <c r="E104" s="19"/>
@@ -2236,7 +2270,7 @@
     </row>
     <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B105" s="25"/>
       <c r="E105" s="19"/>
@@ -2247,7 +2281,7 @@
     </row>
     <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B106" s="25"/>
       <c r="E106" s="19"/>
@@ -2258,7 +2292,7 @@
     </row>
     <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B107" s="25"/>
       <c r="E107" s="19"/>
@@ -2269,7 +2303,7 @@
     </row>
     <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B108" s="25"/>
       <c r="E108" s="19"/>
@@ -2280,7 +2314,7 @@
     </row>
     <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B109" s="25"/>
       <c r="E109" s="19"/>
@@ -2291,7 +2325,7 @@
     </row>
     <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B110" s="25"/>
       <c r="E110" s="19"/>
@@ -2302,7 +2336,7 @@
     </row>
     <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="19">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B111" s="25"/>
       <c r="E111" s="19"/>
@@ -2313,7 +2347,7 @@
     </row>
     <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B112" s="25"/>
       <c r="E112" s="19"/>
@@ -2324,7 +2358,7 @@
     </row>
     <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B113" s="25"/>
       <c r="E113" s="19"/>
@@ -2335,7 +2369,7 @@
     </row>
     <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B114" s="25"/>
       <c r="E114" s="19"/>
@@ -2346,7 +2380,7 @@
     </row>
     <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B115" s="25"/>
       <c r="E115" s="19"/>
@@ -2357,7 +2391,7 @@
     </row>
     <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B116" s="25"/>
       <c r="E116" s="19"/>
@@ -2368,7 +2402,7 @@
     </row>
     <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B117" s="25"/>
       <c r="E117" s="19"/>
@@ -2379,7 +2413,7 @@
     </row>
     <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B118" s="25"/>
       <c r="E118" s="19"/>
@@ -2390,7 +2424,7 @@
     </row>
     <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B119" s="25"/>
       <c r="E119" s="19"/>
@@ -2401,7 +2435,7 @@
     </row>
     <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B120" s="25"/>
       <c r="E120" s="19"/>
@@ -2412,7 +2446,7 @@
     </row>
     <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B121" s="25"/>
       <c r="E121" s="19"/>
@@ -2423,7 +2457,7 @@
     </row>
     <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="19">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B122" s="25"/>
       <c r="E122" s="19"/>
@@ -2434,7 +2468,7 @@
     </row>
     <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="19">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B123" s="25"/>
       <c r="E123" s="19"/>
@@ -2445,7 +2479,7 @@
     </row>
     <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="19">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B124" s="25"/>
       <c r="E124" s="19"/>
@@ -2456,7 +2490,7 @@
     </row>
     <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="19">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B125" s="25"/>
       <c r="E125" s="19"/>
@@ -2467,7 +2501,7 @@
     </row>
     <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="19">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B126" s="25"/>
       <c r="E126" s="19"/>
@@ -2478,7 +2512,7 @@
     </row>
     <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B127" s="25"/>
       <c r="E127" s="19"/>
@@ -2489,7 +2523,7 @@
     </row>
     <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="19">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B128" s="25"/>
       <c r="E128" s="19"/>
@@ -2500,7 +2534,7 @@
     </row>
     <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="19">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B129" s="25"/>
       <c r="E129" s="19"/>
@@ -2511,7 +2545,7 @@
     </row>
     <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="19">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B130" s="25"/>
       <c r="E130" s="19"/>
@@ -2522,7 +2556,7 @@
     </row>
     <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="19">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B131" s="25"/>
       <c r="E131" s="19"/>
@@ -2533,7 +2567,7 @@
     </row>
     <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="19">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B132" s="25"/>
       <c r="E132" s="19"/>
@@ -2544,7 +2578,7 @@
     </row>
     <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="19">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B133" s="25"/>
       <c r="E133" s="19"/>
@@ -2555,7 +2589,7 @@
     </row>
     <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B134" s="25"/>
       <c r="E134" s="19"/>
@@ -2566,7 +2600,7 @@
     </row>
     <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="19">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B135" s="25"/>
       <c r="E135" s="19"/>
@@ -2577,7 +2611,7 @@
     </row>
     <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="19">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B136" s="25"/>
       <c r="E136" s="19"/>
@@ -2588,7 +2622,7 @@
     </row>
     <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="19">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B137" s="25"/>
       <c r="E137" s="19"/>
@@ -2599,7 +2633,7 @@
     </row>
     <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="19">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B138" s="25"/>
       <c r="E138" s="19"/>
@@ -2610,7 +2644,7 @@
     </row>
     <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="19">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B139" s="25"/>
       <c r="E139" s="19"/>
@@ -2621,7 +2655,7 @@
     </row>
     <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="19">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B140" s="25"/>
       <c r="E140" s="19"/>
@@ -2632,7 +2666,7 @@
     </row>
     <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="19">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B141" s="25"/>
       <c r="E141" s="19"/>
@@ -2643,7 +2677,7 @@
     </row>
     <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="19">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B142" s="25"/>
       <c r="E142" s="19"/>
@@ -2654,7 +2688,7 @@
     </row>
     <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B143" s="25"/>
       <c r="E143" s="19"/>
@@ -2665,7 +2699,7 @@
     </row>
     <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="19">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B144" s="25"/>
       <c r="E144" s="19"/>
@@ -2676,7 +2710,7 @@
     </row>
     <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="19">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B145" s="25"/>
       <c r="E145" s="19"/>
@@ -2687,7 +2721,7 @@
     </row>
     <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="19">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B146" s="25"/>
       <c r="E146" s="19"/>
@@ -2698,7 +2732,7 @@
     </row>
     <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="19">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B147" s="25"/>
       <c r="E147" s="19"/>
@@ -2709,7 +2743,7 @@
     </row>
     <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="19">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B148" s="25"/>
       <c r="E148" s="19"/>
@@ -2720,7 +2754,7 @@
     </row>
     <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="19">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B149" s="25"/>
       <c r="E149" s="19"/>
@@ -2731,7 +2765,7 @@
     </row>
     <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B150" s="25"/>
       <c r="E150" s="19"/>
@@ -2742,7 +2776,7 @@
     </row>
     <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="19">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B151" s="25"/>
       <c r="E151" s="19"/>
@@ -2753,7 +2787,7 @@
     </row>
     <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B152" s="25"/>
       <c r="E152" s="19"/>
@@ -2764,7 +2798,7 @@
     </row>
     <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="19">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B153" s="25"/>
       <c r="E153" s="19"/>
@@ -2775,7 +2809,7 @@
     </row>
     <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B154" s="25"/>
       <c r="E154" s="19"/>
@@ -2786,7 +2820,7 @@
     </row>
     <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="19">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B155" s="25"/>
       <c r="E155" s="19"/>
@@ -2797,7 +2831,7 @@
     </row>
     <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B156" s="25"/>
       <c r="E156" s="19"/>
@@ -2808,7 +2842,7 @@
     </row>
     <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="19">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B157" s="25"/>
       <c r="E157" s="19"/>
@@ -2819,7 +2853,7 @@
     </row>
     <row r="158" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B158" s="25"/>
       <c r="E158" s="19"/>
@@ -2830,7 +2864,7 @@
     </row>
     <row r="159" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="19">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B159" s="25"/>
       <c r="E159" s="19"/>
@@ -2841,7 +2875,7 @@
     </row>
     <row r="160" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B160" s="25"/>
       <c r="E160" s="19"/>
@@ -2852,7 +2886,7 @@
     </row>
     <row r="161" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="19">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B161" s="25"/>
       <c r="E161" s="19"/>
@@ -2863,7 +2897,7 @@
     </row>
     <row r="162" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="19">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B162" s="25"/>
       <c r="E162" s="19"/>
@@ -2874,7 +2908,7 @@
     </row>
     <row r="163" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="19">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B163" s="25"/>
       <c r="E163" s="19"/>
@@ -2885,7 +2919,7 @@
     </row>
     <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="19">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B164" s="25"/>
       <c r="E164" s="19"/>
@@ -2896,7 +2930,7 @@
     </row>
     <row r="165" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="19">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B165" s="25"/>
       <c r="E165" s="19"/>
@@ -2907,7 +2941,7 @@
     </row>
     <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B166" s="25"/>
       <c r="E166" s="19"/>
@@ -2918,7 +2952,7 @@
     </row>
     <row r="167" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="19">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B167" s="25"/>
       <c r="E167" s="19"/>
@@ -2929,7 +2963,7 @@
     </row>
     <row r="168" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B168" s="25"/>
       <c r="E168" s="19"/>
@@ -2940,7 +2974,7 @@
     </row>
     <row r="169" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B169" s="25"/>
       <c r="E169" s="19"/>
@@ -2951,7 +2985,7 @@
     </row>
     <row r="170" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B170" s="25"/>
       <c r="E170" s="19"/>
@@ -2962,7 +2996,7 @@
     </row>
     <row r="171" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B171" s="25"/>
       <c r="E171" s="19"/>
@@ -2973,7 +3007,7 @@
     </row>
     <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B172" s="25"/>
       <c r="E172" s="19"/>
@@ -2984,7 +3018,7 @@
     </row>
     <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B173" s="25"/>
       <c r="E173" s="19"/>
@@ -2995,7 +3029,7 @@
     </row>
     <row r="174" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B174" s="25"/>
       <c r="E174" s="19"/>
@@ -3006,7 +3040,7 @@
     </row>
     <row r="175" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="19">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B175" s="25"/>
       <c r="E175" s="19"/>
@@ -3017,7 +3051,7 @@
     </row>
     <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="19">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B176" s="25"/>
       <c r="E176" s="19"/>
@@ -3028,7 +3062,7 @@
     </row>
     <row r="177" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="19">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B177" s="25"/>
       <c r="E177" s="19"/>
@@ -3039,7 +3073,7 @@
     </row>
     <row r="178" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="19">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B178" s="25"/>
       <c r="E178" s="19"/>
@@ -3050,7 +3084,7 @@
     </row>
     <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="19">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B179" s="25"/>
       <c r="E179" s="19"/>
@@ -3061,7 +3095,7 @@
     </row>
     <row r="180" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="19">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B180" s="25"/>
       <c r="E180" s="19"/>
@@ -3072,7 +3106,7 @@
     </row>
     <row r="181" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="19">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B181" s="25"/>
       <c r="E181" s="19"/>
@@ -3083,7 +3117,7 @@
     </row>
     <row r="182" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="19">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B182" s="25"/>
       <c r="E182" s="19"/>
@@ -3094,7 +3128,7 @@
     </row>
     <row r="183" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="19">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B183" s="25"/>
       <c r="E183" s="19"/>
@@ -3105,7 +3139,7 @@
     </row>
     <row r="184" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="19">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B184" s="25"/>
       <c r="E184" s="19"/>
@@ -3116,7 +3150,7 @@
     </row>
     <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="19">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B185" s="25"/>
       <c r="E185" s="19"/>
@@ -3127,7 +3161,7 @@
     </row>
     <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="19">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B186" s="25"/>
       <c r="E186" s="19"/>
@@ -3138,7 +3172,7 @@
     </row>
     <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="19">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B187" s="25"/>
       <c r="E187" s="19"/>
@@ -3149,7 +3183,7 @@
     </row>
     <row r="188" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="19">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B188" s="25"/>
       <c r="E188" s="19"/>
@@ -3160,7 +3194,7 @@
     </row>
     <row r="189" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="19">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B189" s="25"/>
       <c r="E189" s="19"/>
@@ -3171,7 +3205,7 @@
     </row>
     <row r="190" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="19">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B190" s="25"/>
       <c r="E190" s="19"/>
@@ -3182,7 +3216,7 @@
     </row>
     <row r="191" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="19">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B191" s="25"/>
       <c r="E191" s="19"/>
@@ -3193,7 +3227,7 @@
     </row>
     <row r="192" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="19">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B192" s="25"/>
       <c r="E192" s="19"/>
@@ -3204,7 +3238,7 @@
     </row>
     <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="19">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B193" s="25"/>
       <c r="E193" s="19"/>
@@ -3215,7 +3249,7 @@
     </row>
     <row r="194" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="19">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B194" s="25"/>
       <c r="E194" s="19"/>
@@ -3226,7 +3260,7 @@
     </row>
     <row r="195" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="19">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B195" s="25"/>
       <c r="E195" s="19"/>
@@ -3237,7 +3271,7 @@
     </row>
     <row r="196" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="19">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B196" s="25"/>
       <c r="E196" s="19"/>
@@ -3248,7 +3282,7 @@
     </row>
     <row r="197" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="19">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B197" s="25"/>
       <c r="E197" s="19"/>
@@ -3259,7 +3293,7 @@
     </row>
     <row r="198" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="19">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B198" s="25"/>
       <c r="E198" s="19"/>
@@ -3270,7 +3304,7 @@
     </row>
     <row r="199" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="19">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B199" s="25"/>
       <c r="E199" s="19"/>
@@ -3281,7 +3315,7 @@
     </row>
     <row r="200" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="19">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B200" s="25"/>
       <c r="E200" s="19"/>
@@ -3292,7 +3326,7 @@
     </row>
     <row r="201" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="19">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B201" s="25"/>
       <c r="E201" s="19"/>
@@ -3301,13 +3335,27 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="25"/>
+    <row r="202" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202" s="19">
+        <v>197</v>
+      </c>
       <c r="B202" s="25"/>
-    </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="25"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A203" s="19">
+        <v>198</v>
+      </c>
       <c r="B203" s="25"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="25"/>
@@ -6501,13 +6549,21 @@
       <c r="A1001" s="25"/>
       <c r="B1001" s="25"/>
     </row>
+    <row r="1002" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="25"/>
+      <c r="B1002" s="25"/>
+    </row>
+    <row r="1003" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1003" s="25"/>
+      <c r="B1003" s="25"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="G19:G22"/>
     <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G9:G15"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G9:G18"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Stop current Development">
@@ -6515,7 +6571,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E31:E201 E3:E25">
+    <dataValidation type="list" allowBlank="1" sqref="E33:E203 E3:E27">
       <formula1>"Critical,High,Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6529,7 +6585,7 @@
   <dimension ref="A1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6546,16 +6602,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -6775,7 +6831,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f>'Bug Metrics'!$A11</f>
         <v>9</v>
@@ -6783,13 +6839,13 @@
       <c r="B10" s="9">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="9" t="str">
         <f>'Bug Metrics'!$C12</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
+        <v>Admin(Bootstrap)</v>
+      </c>
+      <c r="D10" s="10" t="str">
         <f>'Bug Metrics'!$D12</f>
-        <v>0</v>
+        <v>Unable to display error messages when importing SampleData(6 and 7).zip to validate bid.csv</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>25</v>
@@ -6823,7 +6879,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <f>'Bug Metrics'!$A13</f>
         <v>11</v>
@@ -6858,11 +6914,11 @@
       </c>
       <c r="C13" s="9" t="str">
         <f>'Bug Metrics'!$C15</f>
-        <v>Admin(Bootstrap)</v>
+        <v>Bidding (add bid)</v>
       </c>
       <c r="D13" s="10" t="str">
         <f>'Bug Metrics'!$D15</f>
-        <v>Unable to display error messages when importing SampleData(6 and 7).zip to validate bid.csv, although correct data imported to database</v>
+        <v>Unable to update bid amount when student bid twice for same section in the same round</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>25</v>
@@ -6875,16 +6931,16 @@
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <f>'Bug Metrics'!$A17</f>
+        <f>'Bug Metrics'!$A19</f>
         <v>14</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9">
-        <f>'Bug Metrics'!$C17</f>
+        <f>'Bug Metrics'!$C19</f>
         <v>0</v>
       </c>
       <c r="D14" s="10">
-        <f>'Bug Metrics'!$D17</f>
+        <f>'Bug Metrics'!$D19</f>
         <v>0</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -6896,16 +6952,16 @@
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <f>'Bug Metrics'!$A18</f>
+        <f>'Bug Metrics'!$A20</f>
         <v>15</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9">
-        <f>'Bug Metrics'!$C18</f>
+        <f>'Bug Metrics'!$C20</f>
         <v>0</v>
       </c>
       <c r="D15" s="10">
-        <f>'Bug Metrics'!$D18</f>
+        <f>'Bug Metrics'!$D20</f>
         <v>0</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -6917,16 +6973,16 @@
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <f>'Bug Metrics'!$A19</f>
+        <f>'Bug Metrics'!$A21</f>
         <v>16</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9">
-        <f>'Bug Metrics'!$C19</f>
+        <f>'Bug Metrics'!$C21</f>
         <v>0</v>
       </c>
       <c r="D16" s="10">
-        <f>'Bug Metrics'!$D19</f>
+        <f>'Bug Metrics'!$D21</f>
         <v>0</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -6938,16 +6994,16 @@
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <f>'Bug Metrics'!$A20</f>
+        <f>'Bug Metrics'!$A22</f>
         <v>17</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
-        <f>'Bug Metrics'!$C20</f>
+        <f>'Bug Metrics'!$C22</f>
         <v>0</v>
       </c>
       <c r="D17" s="10">
-        <f>'Bug Metrics'!$D20</f>
+        <f>'Bug Metrics'!$D22</f>
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -6959,19 +7015,19 @@
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <f>'Bug Metrics'!$A21</f>
+        <f>'Bug Metrics'!$A23</f>
         <v>18</v>
       </c>
       <c r="B18" s="9">
-        <f>'Bug Metrics'!$B21</f>
+        <f>'Bug Metrics'!$B23</f>
         <v>0</v>
       </c>
       <c r="C18" s="9">
-        <f>'Bug Metrics'!$C21</f>
+        <f>'Bug Metrics'!$C23</f>
         <v>0</v>
       </c>
       <c r="D18" s="10">
-        <f>'Bug Metrics'!$D21</f>
+        <f>'Bug Metrics'!$D23</f>
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
@@ -6983,19 +7039,19 @@
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
-        <f>'Bug Metrics'!$A22</f>
+        <f>'Bug Metrics'!$A24</f>
         <v>19</v>
       </c>
       <c r="B19" s="9">
-        <f>'Bug Metrics'!$B22</f>
+        <f>'Bug Metrics'!$B24</f>
         <v>0</v>
       </c>
       <c r="C19" s="9">
-        <f>'Bug Metrics'!$C22</f>
+        <f>'Bug Metrics'!$C24</f>
         <v>0</v>
       </c>
       <c r="D19" s="10">
-        <f>'Bug Metrics'!$D22</f>
+        <f>'Bug Metrics'!$D24</f>
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -7007,19 +7063,19 @@
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <f>'Bug Metrics'!$A23</f>
+        <f>'Bug Metrics'!$A25</f>
         <v>20</v>
       </c>
       <c r="B20" s="9">
-        <f>'Bug Metrics'!$B23</f>
+        <f>'Bug Metrics'!$B25</f>
         <v>0</v>
       </c>
       <c r="C20" s="9">
-        <f>'Bug Metrics'!$C23</f>
+        <f>'Bug Metrics'!$C25</f>
         <v>0</v>
       </c>
       <c r="D20" s="10">
-        <f>'Bug Metrics'!$D23</f>
+        <f>'Bug Metrics'!$D25</f>
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -7031,19 +7087,19 @@
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <f>'Bug Metrics'!$A24</f>
+        <f>'Bug Metrics'!$A26</f>
         <v>21</v>
       </c>
       <c r="B21" s="9">
-        <f>'Bug Metrics'!$B24</f>
+        <f>'Bug Metrics'!$B26</f>
         <v>0</v>
       </c>
       <c r="C21" s="9">
-        <f>'Bug Metrics'!$C24</f>
+        <f>'Bug Metrics'!$C26</f>
         <v>0</v>
       </c>
       <c r="D21" s="10">
-        <f>'Bug Metrics'!$D24</f>
+        <f>'Bug Metrics'!$D26</f>
         <v>0</v>
       </c>
       <c r="E21" s="11" t="s">
